--- a/RSI_14D_temp.xlsx
+++ b/RSI_14D_temp.xlsx
@@ -3134,259 +3134,259 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>51.02</v>
+        <v>60.61</v>
       </c>
       <c r="D4">
         <v>50</v>
       </c>
       <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>42.55</v>
+      </c>
+      <c r="G4">
+        <v>80.2</v>
+      </c>
+      <c r="H4">
+        <v>67.33</v>
+      </c>
+      <c r="I4">
+        <v>48.65</v>
+      </c>
+      <c r="J4">
+        <v>66.09</v>
+      </c>
+      <c r="K4">
+        <v>68.78</v>
+      </c>
+      <c r="L4">
+        <v>71.11</v>
+      </c>
+      <c r="M4">
+        <v>54.24</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>74.57</v>
+      </c>
+      <c r="P4">
+        <v>49.36</v>
+      </c>
+      <c r="Q4">
+        <v>57.14</v>
+      </c>
+      <c r="R4">
+        <v>66.32</v>
+      </c>
+      <c r="S4">
+        <v>66.67</v>
+      </c>
+      <c r="T4">
+        <v>55.38</v>
+      </c>
+      <c r="U4">
+        <v>39.19</v>
+      </c>
+      <c r="V4">
+        <v>50.88</v>
+      </c>
+      <c r="W4">
+        <v>71.54</v>
+      </c>
+      <c r="X4">
+        <v>59.49</v>
+      </c>
+      <c r="Y4">
         <v>62.5</v>
       </c>
-      <c r="F4">
-        <v>45.45</v>
-      </c>
-      <c r="G4">
-        <v>56.45</v>
-      </c>
-      <c r="H4">
-        <v>60.58</v>
-      </c>
-      <c r="I4">
-        <v>46.15</v>
-      </c>
-      <c r="J4">
-        <v>63.76</v>
-      </c>
-      <c r="K4">
-        <v>56.38</v>
-      </c>
-      <c r="L4">
-        <v>70.18</v>
-      </c>
-      <c r="M4">
-        <v>53.33</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
-        <v>72.88</v>
-      </c>
-      <c r="P4">
-        <v>43.54</v>
-      </c>
-      <c r="Q4">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>61.76</v>
-      </c>
-      <c r="S4">
-        <v>57.47</v>
-      </c>
-      <c r="T4">
-        <v>51.25</v>
-      </c>
-      <c r="U4">
-        <v>34.32</v>
-      </c>
-      <c r="V4">
-        <v>54.35</v>
-      </c>
-      <c r="W4">
-        <v>66.67</v>
-      </c>
-      <c r="X4">
-        <v>60.17</v>
-      </c>
-      <c r="Y4">
-        <v>63.03</v>
-      </c>
       <c r="Z4">
-        <v>35.31</v>
+        <v>43.66</v>
       </c>
       <c r="AA4">
         <v>66.67</v>
       </c>
       <c r="AB4">
-        <v>49.51</v>
+        <v>51.52</v>
       </c>
       <c r="AC4">
-        <v>62.92</v>
+        <v>63.64</v>
       </c>
       <c r="AD4">
-        <v>49.34</v>
+        <v>44.35</v>
       </c>
       <c r="AE4">
         <v>50</v>
       </c>
       <c r="AF4">
-        <v>51.56</v>
+        <v>63.77</v>
       </c>
       <c r="AG4">
+        <v>37.5</v>
+      </c>
+      <c r="AH4">
+        <v>51.41</v>
+      </c>
+      <c r="AI4">
+        <v>32.99</v>
+      </c>
+      <c r="AJ4">
+        <v>60</v>
+      </c>
+      <c r="AK4">
+        <v>45.71</v>
+      </c>
+      <c r="AL4">
+        <v>76.58</v>
+      </c>
+      <c r="AM4">
+        <v>70.77</v>
+      </c>
+      <c r="AN4">
+        <v>78.44</v>
+      </c>
+      <c r="AO4">
+        <v>48.78</v>
+      </c>
+      <c r="AP4">
+        <v>42.11</v>
+      </c>
+      <c r="AQ4">
+        <v>60.69</v>
+      </c>
+      <c r="AR4">
+        <v>57.14</v>
+      </c>
+      <c r="AS4">
+        <v>54.55</v>
+      </c>
+      <c r="AT4">
+        <v>33.3</v>
+      </c>
+      <c r="AU4">
+        <v>50</v>
+      </c>
+      <c r="AV4">
+        <v>50</v>
+      </c>
+      <c r="AW4">
+        <v>51.22</v>
+      </c>
+      <c r="AX4">
+        <v>61.9</v>
+      </c>
+      <c r="AY4">
+        <v>42.86</v>
+      </c>
+      <c r="AZ4">
+        <v>46.67</v>
+      </c>
+      <c r="BA4">
+        <v>40</v>
+      </c>
+      <c r="BB4">
+        <v>56.47</v>
+      </c>
+      <c r="BC4">
+        <v>43.43</v>
+      </c>
+      <c r="BD4">
+        <v>67.5</v>
+      </c>
+      <c r="BE4">
+        <v>36.84</v>
+      </c>
+      <c r="BF4">
+        <v>66.06</v>
+      </c>
+      <c r="BG4">
+        <v>66.67</v>
+      </c>
+      <c r="BH4">
+        <v>62.5</v>
+      </c>
+      <c r="BI4">
+        <v>69.23</v>
+      </c>
+      <c r="BJ4">
+        <v>48.98</v>
+      </c>
+      <c r="BK4">
+        <v>34.78</v>
+      </c>
+      <c r="BL4">
+        <v>88.89</v>
+      </c>
+      <c r="BM4">
+        <v>68.25</v>
+      </c>
+      <c r="BN4">
         <v>33.33</v>
       </c>
-      <c r="AH4">
-        <v>56.91</v>
-      </c>
-      <c r="AI4">
-        <v>30.71</v>
-      </c>
-      <c r="AJ4">
+      <c r="BO4">
+        <v>56.52</v>
+      </c>
+      <c r="BP4">
+        <v>58.95</v>
+      </c>
+      <c r="BQ4">
+        <v>48.89</v>
+      </c>
+      <c r="BR4">
+        <v>61.98</v>
+      </c>
+      <c r="BS4">
+        <v>51.61</v>
+      </c>
+      <c r="BT4">
+        <v>67.31</v>
+      </c>
+      <c r="BU4">
+        <v>59.46</v>
+      </c>
+      <c r="BV4">
+        <v>50</v>
+      </c>
+      <c r="BW4">
+        <v>40.68</v>
+      </c>
+      <c r="BX4">
+        <v>58.62</v>
+      </c>
+      <c r="BY4">
+        <v>31.82</v>
+      </c>
+      <c r="BZ4">
+        <v>52.94</v>
+      </c>
+      <c r="CA4">
+        <v>63.55</v>
+      </c>
+      <c r="CB4">
+        <v>52.38</v>
+      </c>
+      <c r="CC4">
+        <v>65.22</v>
+      </c>
+      <c r="CD4">
+        <v>57.21</v>
+      </c>
+      <c r="CE4">
         <v>57.14</v>
       </c>
-      <c r="AK4">
-        <v>51.61</v>
-      </c>
-      <c r="AL4">
-        <v>65.81</v>
-      </c>
-      <c r="AM4">
-        <v>72.33</v>
-      </c>
-      <c r="AN4">
-        <v>71.03</v>
-      </c>
-      <c r="AO4">
-        <v>48.08</v>
-      </c>
-      <c r="AP4">
-        <v>41.56</v>
-      </c>
-      <c r="AQ4">
-        <v>57.59</v>
-      </c>
-      <c r="AR4">
-        <v>49.45</v>
-      </c>
-      <c r="AS4">
-        <v>55.17</v>
-      </c>
-      <c r="AT4">
-        <v>33.35</v>
-      </c>
-      <c r="AU4">
-        <v>49.23</v>
-      </c>
-      <c r="AV4">
-        <v>50</v>
-      </c>
-      <c r="AW4">
-        <v>42.57</v>
-      </c>
-      <c r="AX4">
-        <v>56.52</v>
-      </c>
-      <c r="AY4">
-        <v>38.1</v>
-      </c>
-      <c r="AZ4">
-        <v>50.91</v>
-      </c>
-      <c r="BA4">
-        <v>35.71</v>
-      </c>
-      <c r="BB4">
-        <v>52.46</v>
-      </c>
-      <c r="BC4">
-        <v>40.95</v>
-      </c>
-      <c r="BD4">
-        <v>70.68</v>
-      </c>
-      <c r="BE4">
-        <v>30.43</v>
-      </c>
-      <c r="BF4">
-        <v>62.18</v>
-      </c>
-      <c r="BG4">
-        <v>61.54</v>
-      </c>
-      <c r="BH4">
-        <v>66.67</v>
-      </c>
-      <c r="BI4">
-        <v>66.67</v>
-      </c>
-      <c r="BJ4">
-        <v>43.84</v>
-      </c>
-      <c r="BK4">
-        <v>33.96</v>
-      </c>
-      <c r="BL4">
-        <v>87.8</v>
-      </c>
-      <c r="BM4">
-        <v>53.42</v>
-      </c>
-      <c r="BN4">
-        <v>33.96</v>
-      </c>
-      <c r="BO4">
-        <v>47.71</v>
-      </c>
-      <c r="BP4">
-        <v>52.63</v>
-      </c>
-      <c r="BQ4">
-        <v>47.01</v>
-      </c>
-      <c r="BR4">
-        <v>47.17</v>
-      </c>
-      <c r="BS4">
-        <v>47.46</v>
-      </c>
-      <c r="BT4">
-        <v>68.29</v>
-      </c>
-      <c r="BU4">
-        <v>60.44</v>
-      </c>
-      <c r="BV4">
-        <v>52.94</v>
-      </c>
-      <c r="BW4">
-        <v>45.57</v>
-      </c>
-      <c r="BX4">
-        <v>52.15</v>
-      </c>
-      <c r="BY4">
-        <v>36.84</v>
-      </c>
-      <c r="BZ4">
-        <v>54.55</v>
-      </c>
-      <c r="CA4">
-        <v>54.14</v>
-      </c>
-      <c r="CB4">
-        <v>47.37</v>
-      </c>
-      <c r="CC4">
-        <v>65.93</v>
-      </c>
-      <c r="CD4">
-        <v>55.16</v>
-      </c>
-      <c r="CE4">
-        <v>52.63</v>
-      </c>
       <c r="CF4">
-        <v>60</v>
+        <v>65.22</v>
       </c>
       <c r="CG4">
+        <v>46.15</v>
+      </c>
+      <c r="CH4">
         <v>49.09</v>
       </c>
-      <c r="CH4">
-        <v>42.86</v>
-      </c>
       <c r="CI4">
-        <v>68.69</v>
+        <v>66.33</v>
       </c>
       <c r="CJ4">
         <v>33.33</v>
@@ -3398,22 +3398,22 @@
         <v>50</v>
       </c>
       <c r="CM4">
-        <v>28.18</v>
+        <v>23.29</v>
       </c>
       <c r="CN4">
-        <v>58.94</v>
+        <v>60.49</v>
       </c>
       <c r="CO4">
-        <v>43.37</v>
+        <v>48</v>
       </c>
       <c r="CP4">
-        <v>36</v>
+        <v>34.18</v>
       </c>
       <c r="CQ4">
-        <v>38.7</v>
+        <v>45.45</v>
       </c>
       <c r="CR4">
-        <v>37.08</v>
+        <v>37.93</v>
       </c>
       <c r="CS4">
         <v>22.73</v>
@@ -3425,10 +3425,10 @@
         <v>50</v>
       </c>
       <c r="CV4">
-        <v>54.1</v>
+        <v>52.38</v>
       </c>
       <c r="CW4">
-        <v>27.27</v>
+        <v>27.78</v>
       </c>
       <c r="CX4">
         <v>50</v>
@@ -3437,76 +3437,76 @@
         <v>54.79</v>
       </c>
       <c r="CZ4">
-        <v>62.5</v>
+        <v>61.54</v>
       </c>
       <c r="DA4">
-        <v>55.41</v>
+        <v>71.31</v>
       </c>
       <c r="DB4">
-        <v>51.22</v>
+        <v>53.85</v>
       </c>
       <c r="DC4">
-        <v>52.63</v>
+        <v>55.56</v>
       </c>
       <c r="DD4">
-        <v>50</v>
+        <v>57.14</v>
       </c>
       <c r="DE4">
-        <v>43.48</v>
+        <v>55.9</v>
       </c>
       <c r="DF4">
-        <v>53.49</v>
+        <v>56.1</v>
       </c>
       <c r="DG4">
-        <v>44.44</v>
+        <v>52.94</v>
       </c>
       <c r="DH4">
         <v>50</v>
       </c>
       <c r="DI4">
-        <v>42.86</v>
+        <v>40</v>
       </c>
       <c r="DJ4">
-        <v>45.45</v>
+        <v>41.28</v>
       </c>
       <c r="DK4">
         <v>42.86</v>
       </c>
       <c r="DL4">
-        <v>46.03</v>
+        <v>45.6</v>
       </c>
       <c r="DM4">
-        <v>42.17</v>
+        <v>48.28</v>
       </c>
       <c r="DN4">
-        <v>42.55</v>
+        <v>33.59</v>
       </c>
       <c r="DO4">
-        <v>58.82</v>
+        <v>57.14</v>
       </c>
       <c r="DP4">
         <v>66.67</v>
       </c>
       <c r="DQ4">
-        <v>44.44</v>
+        <v>52.94</v>
       </c>
       <c r="DR4">
-        <v>50.72</v>
+        <v>70.89</v>
       </c>
       <c r="DS4">
-        <v>18.87</v>
+        <v>20.66</v>
       </c>
       <c r="DT4">
-        <v>52.63</v>
+        <v>12.2</v>
       </c>
       <c r="DU4">
-        <v>42.71</v>
+        <v>47.55</v>
       </c>
       <c r="DV4">
-        <v>54.55</v>
+        <v>52.94</v>
       </c>
       <c r="DW4">
-        <v>28.3</v>
+        <v>38.46</v>
       </c>
       <c r="DX4">
         <v>50</v>
@@ -3527,13 +3527,13 @@
         <v>50</v>
       </c>
       <c r="ED4">
-        <v>55.94</v>
+        <v>62.14</v>
       </c>
       <c r="EE4">
-        <v>43.07</v>
+        <v>47.15</v>
       </c>
       <c r="EF4">
-        <v>45.71</v>
+        <v>54.55</v>
       </c>
       <c r="EG4">
         <v>59.46</v>
@@ -3545,340 +3545,340 @@
         <v>33.33</v>
       </c>
       <c r="EJ4">
-        <v>42.71</v>
+        <v>45.64</v>
       </c>
       <c r="EK4">
-        <v>43.56</v>
+        <v>42.86</v>
       </c>
       <c r="EL4">
-        <v>54.84</v>
+        <v>64.56</v>
       </c>
       <c r="EM4">
-        <v>56.86</v>
+        <v>57.62</v>
       </c>
       <c r="EN4">
-        <v>46.81</v>
+        <v>55.93</v>
       </c>
       <c r="EO4">
-        <v>34.18</v>
+        <v>32.14</v>
       </c>
       <c r="EP4">
-        <v>41.5</v>
+        <v>45.51</v>
       </c>
       <c r="EQ4">
-        <v>66.23</v>
+        <v>63.91</v>
       </c>
       <c r="ER4">
-        <v>57.14</v>
+        <v>54.55</v>
       </c>
       <c r="ES4">
-        <v>60.71</v>
+        <v>61.45</v>
       </c>
       <c r="ET4">
-        <v>67.06</v>
+        <v>67.38</v>
       </c>
       <c r="EU4">
-        <v>39.01</v>
+        <v>45.21</v>
       </c>
       <c r="EV4">
-        <v>46.34</v>
+        <v>52.29</v>
       </c>
       <c r="EW4">
-        <v>55.99</v>
+        <v>56.87</v>
       </c>
       <c r="EX4">
-        <v>22.96</v>
+        <v>36.04</v>
       </c>
       <c r="EY4">
-        <v>40.54</v>
+        <v>42.86</v>
       </c>
       <c r="EZ4">
-        <v>32.27</v>
+        <v>34.12</v>
       </c>
       <c r="FA4">
-        <v>48.08</v>
+        <v>48.78</v>
       </c>
       <c r="FB4">
         <v>63.64</v>
       </c>
       <c r="FC4">
-        <v>46.4</v>
+        <v>50.29</v>
       </c>
       <c r="FD4">
-        <v>49.37</v>
+        <v>58.65</v>
       </c>
       <c r="FE4">
-        <v>21.5</v>
+        <v>30.67</v>
       </c>
       <c r="FF4">
-        <v>32.12</v>
+        <v>41.18</v>
       </c>
       <c r="FG4">
         <v>50</v>
       </c>
       <c r="FH4">
-        <v>48.28</v>
+        <v>54.55</v>
       </c>
       <c r="FI4">
-        <v>45.45</v>
+        <v>43.56</v>
       </c>
       <c r="FJ4">
-        <v>74.63</v>
+        <v>74.14</v>
       </c>
       <c r="FK4">
-        <v>26.42</v>
+        <v>28.57</v>
       </c>
       <c r="FL4">
+        <v>40</v>
+      </c>
+      <c r="FM4">
+        <v>52.22</v>
+      </c>
+      <c r="FN4">
+        <v>48</v>
+      </c>
+      <c r="FO4">
+        <v>73.47</v>
+      </c>
+      <c r="FP4">
+        <v>50</v>
+      </c>
+      <c r="FQ4">
         <v>37.5</v>
       </c>
-      <c r="FM4">
-        <v>52.04</v>
-      </c>
-      <c r="FN4">
-        <v>45.71</v>
-      </c>
-      <c r="FO4">
-        <v>56.47</v>
-      </c>
-      <c r="FP4">
-        <v>33.33</v>
-      </c>
-      <c r="FQ4">
-        <v>43.24</v>
-      </c>
       <c r="FR4">
-        <v>45.07</v>
+        <v>40</v>
       </c>
       <c r="FS4">
-        <v>47.62</v>
+        <v>48.78</v>
       </c>
       <c r="FT4">
-        <v>48</v>
+        <v>48.65</v>
       </c>
       <c r="FU4">
-        <v>65.38</v>
+        <v>66.93</v>
       </c>
       <c r="FV4">
-        <v>44.44</v>
+        <v>40</v>
       </c>
       <c r="FW4">
-        <v>45.18</v>
+        <v>48.6</v>
       </c>
       <c r="FX4">
-        <v>74.36</v>
+        <v>76.45</v>
       </c>
       <c r="FY4">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="FZ4">
-        <v>57.24</v>
+        <v>56.46</v>
       </c>
       <c r="GA4">
-        <v>53.95</v>
+        <v>57.14</v>
       </c>
       <c r="GB4">
         <v>40</v>
       </c>
       <c r="GC4">
-        <v>44.19</v>
+        <v>45.6</v>
       </c>
       <c r="GD4">
-        <v>61.5</v>
+        <v>80.04</v>
       </c>
       <c r="GE4">
-        <v>60</v>
+        <v>64.64</v>
       </c>
       <c r="GF4">
-        <v>45.9</v>
+        <v>53.85</v>
       </c>
       <c r="GG4">
         <v>60</v>
       </c>
       <c r="GH4">
-        <v>44.44</v>
+        <v>42.86</v>
       </c>
       <c r="GI4">
         <v>50</v>
       </c>
       <c r="GJ4">
-        <v>37.14</v>
+        <v>28.89</v>
       </c>
       <c r="GK4">
-        <v>48.94</v>
+        <v>51.11</v>
       </c>
       <c r="GL4">
-        <v>23.53</v>
+        <v>21.43</v>
       </c>
       <c r="GM4">
-        <v>68.18</v>
+        <v>73.85</v>
       </c>
       <c r="GN4">
-        <v>47.06</v>
+        <v>50</v>
       </c>
       <c r="GO4">
-        <v>52.63</v>
+        <v>50</v>
       </c>
       <c r="GP4">
-        <v>55.22</v>
+        <v>61.41</v>
       </c>
       <c r="GQ4">
-        <v>60.44</v>
+        <v>59.46</v>
       </c>
       <c r="GR4">
-        <v>33.14</v>
+        <v>30.53</v>
       </c>
       <c r="GS4">
         <v>66.67</v>
       </c>
       <c r="GT4">
-        <v>24.39</v>
+        <v>35.86</v>
       </c>
       <c r="GU4">
         <v>47.37</v>
       </c>
       <c r="GV4">
-        <v>54.76</v>
+        <v>54.33</v>
       </c>
       <c r="GW4">
-        <v>46.48</v>
+        <v>40.74</v>
       </c>
       <c r="GX4">
         <v>50</v>
       </c>
       <c r="GY4">
-        <v>23.7</v>
+        <v>23.44</v>
       </c>
       <c r="GZ4">
-        <v>63.79</v>
+        <v>60.66</v>
       </c>
       <c r="HA4">
         <v>50</v>
       </c>
       <c r="HB4">
-        <v>44.75</v>
+        <v>37.5</v>
       </c>
       <c r="HC4">
         <v>50</v>
       </c>
       <c r="HD4">
-        <v>37.5</v>
+        <v>42.79</v>
       </c>
       <c r="HE4">
-        <v>25</v>
+        <v>42.86</v>
       </c>
       <c r="HF4">
-        <v>68.57</v>
+        <v>72.92</v>
       </c>
       <c r="HG4">
-        <v>60.54</v>
+        <v>67.08</v>
       </c>
       <c r="HH4">
-        <v>69.23</v>
+        <v>66.67</v>
       </c>
       <c r="HI4">
-        <v>30.71</v>
+        <v>30.23</v>
       </c>
       <c r="HJ4">
         <v>40</v>
       </c>
       <c r="HK4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="HL4">
-        <v>31.58</v>
+        <v>33.33</v>
       </c>
       <c r="HM4">
-        <v>42.57</v>
+        <v>49.22</v>
       </c>
       <c r="HN4">
         <v>31.03</v>
       </c>
       <c r="HO4">
-        <v>68.28</v>
+        <v>67.39</v>
       </c>
       <c r="HP4">
-        <v>45</v>
+        <v>42.86</v>
       </c>
       <c r="HQ4">
-        <v>28.18</v>
+        <v>31.19</v>
       </c>
       <c r="HR4">
-        <v>64.1</v>
+        <v>62.5</v>
       </c>
       <c r="HS4">
-        <v>48.2</v>
+        <v>52.91</v>
       </c>
       <c r="HT4">
-        <v>70.99</v>
+        <v>72.9</v>
       </c>
       <c r="HU4">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="HV4">
-        <v>42.37</v>
+        <v>46.78</v>
       </c>
       <c r="HW4">
-        <v>42.38</v>
+        <v>44.44</v>
       </c>
       <c r="HX4">
-        <v>77.88</v>
+        <v>73.01</v>
       </c>
       <c r="HY4">
-        <v>37.5</v>
+        <v>44.44</v>
       </c>
       <c r="HZ4">
-        <v>57.61</v>
+        <v>44.54</v>
       </c>
       <c r="IA4">
-        <v>33.86</v>
+        <v>36.91</v>
       </c>
       <c r="IB4">
-        <v>68.63</v>
+        <v>73.68</v>
       </c>
       <c r="IC4">
-        <v>40.3</v>
+        <v>50.7</v>
       </c>
       <c r="ID4">
-        <v>49.23</v>
+        <v>51.61</v>
       </c>
       <c r="IE4">
-        <v>37.5</v>
+        <v>52.94</v>
       </c>
       <c r="IF4">
-        <v>54.93</v>
+        <v>52</v>
       </c>
       <c r="IG4">
-        <v>63.7</v>
+        <v>75.72</v>
       </c>
       <c r="IH4">
-        <v>62.5</v>
+        <v>58.82</v>
       </c>
       <c r="II4">
-        <v>66.67</v>
+        <v>70</v>
       </c>
       <c r="IJ4">
-        <v>50.63</v>
+        <v>51.61</v>
       </c>
       <c r="IK4">
-        <v>63.53</v>
+        <v>62.79</v>
       </c>
       <c r="IL4">
-        <v>36.8</v>
+        <v>34.62</v>
       </c>
       <c r="IM4">
-        <v>67.18</v>
+        <v>65.91</v>
       </c>
       <c r="IN4">
-        <v>41.38</v>
+        <v>42.11</v>
       </c>
       <c r="IO4">
-        <v>66.29</v>
+        <v>67.95</v>
       </c>
       <c r="IP4">
         <v>60</v>
       </c>
       <c r="IQ4">
-        <v>37.8</v>
+        <v>44.44</v>
       </c>
       <c r="IR4">
         <v>60</v>
@@ -3890,133 +3890,133 @@
         <v>75</v>
       </c>
       <c r="IU4">
-        <v>64</v>
+        <v>72.73</v>
       </c>
       <c r="IV4">
-        <v>51.02</v>
+        <v>48.78</v>
       </c>
       <c r="IW4">
         <v>57.14</v>
       </c>
       <c r="IX4">
-        <v>48</v>
+        <v>47.06</v>
       </c>
       <c r="IY4">
-        <v>56.52</v>
+        <v>58.21</v>
       </c>
       <c r="IZ4">
-        <v>50</v>
+        <v>49.37</v>
       </c>
       <c r="JA4">
-        <v>47.92</v>
+        <v>51.22</v>
       </c>
       <c r="JB4">
-        <v>60.44</v>
+        <v>57.14</v>
       </c>
       <c r="JC4">
-        <v>71.43</v>
+        <v>74.6</v>
       </c>
       <c r="JD4">
-        <v>59.09</v>
+        <v>55.32</v>
       </c>
       <c r="JE4">
-        <v>48.94</v>
+        <v>51.11</v>
       </c>
       <c r="JF4">
-        <v>47.83</v>
+        <v>44</v>
       </c>
       <c r="JG4">
-        <v>56.15</v>
+        <v>56.89</v>
       </c>
       <c r="JH4">
-        <v>54.48</v>
+        <v>81.44</v>
       </c>
       <c r="JI4">
-        <v>61.39</v>
+        <v>69.33</v>
       </c>
       <c r="JJ4">
-        <v>37.5</v>
+        <v>35.29</v>
       </c>
       <c r="JK4">
-        <v>28.57</v>
+        <v>30.77</v>
       </c>
       <c r="JL4">
-        <v>68.09</v>
+        <v>66.67</v>
       </c>
       <c r="JM4">
-        <v>56.03</v>
+        <v>52</v>
       </c>
       <c r="JN4">
-        <v>49.6</v>
+        <v>62</v>
       </c>
       <c r="JO4">
-        <v>49.11</v>
+        <v>34.48</v>
       </c>
       <c r="JP4">
-        <v>21.21</v>
+        <v>19.67</v>
       </c>
       <c r="JQ4">
-        <v>39.66</v>
+        <v>32.62</v>
       </c>
       <c r="JR4">
         <v>66.67</v>
       </c>
       <c r="JS4">
-        <v>53.64</v>
+        <v>64.59</v>
       </c>
       <c r="JT4">
         <v>29.41</v>
       </c>
       <c r="JU4">
-        <v>53.33</v>
+        <v>53.85</v>
       </c>
       <c r="JV4">
+        <v>56.96</v>
+      </c>
+      <c r="JW4">
+        <v>66.35</v>
+      </c>
+      <c r="JX4">
+        <v>44.19</v>
+      </c>
+      <c r="JY4">
+        <v>17.74</v>
+      </c>
+      <c r="JZ4">
+        <v>32</v>
+      </c>
+      <c r="KA4">
+        <v>33.33</v>
+      </c>
+      <c r="KB4">
+        <v>50</v>
+      </c>
+      <c r="KC4">
         <v>54.55</v>
       </c>
-      <c r="JW4">
-        <v>61.83</v>
-      </c>
-      <c r="JX4">
-        <v>46.8</v>
-      </c>
-      <c r="JY4">
-        <v>15.58</v>
-      </c>
-      <c r="JZ4">
-        <v>29.41</v>
-      </c>
-      <c r="KA4">
-        <v>35.64</v>
-      </c>
-      <c r="KB4">
-        <v>50</v>
-      </c>
-      <c r="KC4">
-        <v>53.33</v>
-      </c>
       <c r="KD4">
-        <v>68.97</v>
+        <v>66.67</v>
       </c>
       <c r="KE4">
-        <v>31.45</v>
+        <v>39.9</v>
       </c>
       <c r="KF4">
         <v>50</v>
       </c>
       <c r="KG4">
-        <v>27.27</v>
+        <v>30.3</v>
       </c>
       <c r="KH4">
-        <v>40</v>
+        <v>41.24</v>
       </c>
       <c r="KI4">
-        <v>62.5</v>
+        <v>65.22</v>
       </c>
       <c r="KJ4">
-        <v>42.11</v>
+        <v>44.44</v>
       </c>
       <c r="KK4">
-        <v>55.36</v>
+        <v>59.02</v>
       </c>
       <c r="KL4">
         <v>50</v>
@@ -4028,10 +4028,10 @@
         <v>50</v>
       </c>
       <c r="KO4">
-        <v>21.32</v>
+        <v>17.75</v>
       </c>
       <c r="KP4">
-        <v>56.12</v>
+        <v>53.92</v>
       </c>
     </row>
     <row r="5">
@@ -4042,259 +4042,259 @@
         <v>50</v>
       </c>
       <c r="C5">
-        <v>60.61</v>
+        <v>59.37</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="F5">
         <v>42.55</v>
       </c>
       <c r="G5">
-        <v>80.2</v>
+        <v>79.83</v>
       </c>
       <c r="H5">
         <v>67.33</v>
       </c>
       <c r="I5">
-        <v>48.65</v>
+        <v>45.32</v>
       </c>
       <c r="J5">
-        <v>66.09</v>
+        <v>64.86</v>
       </c>
       <c r="K5">
-        <v>68.78</v>
+        <v>66.43</v>
       </c>
       <c r="L5">
-        <v>71.11</v>
+        <v>72.73</v>
       </c>
       <c r="M5">
-        <v>54.24</v>
+        <v>57.14</v>
       </c>
       <c r="N5">
         <v>50</v>
       </c>
       <c r="O5">
-        <v>74.57</v>
+        <v>63.24</v>
       </c>
       <c r="P5">
-        <v>49.36</v>
+        <v>44.89</v>
       </c>
       <c r="Q5">
-        <v>57.14</v>
+        <v>58.82</v>
       </c>
       <c r="R5">
-        <v>66.32</v>
+        <v>61.76</v>
       </c>
       <c r="S5">
-        <v>66.67</v>
+        <v>60.79</v>
       </c>
       <c r="T5">
-        <v>55.38</v>
+        <v>52.01</v>
       </c>
       <c r="U5">
         <v>39.19</v>
       </c>
       <c r="V5">
-        <v>50.88</v>
+        <v>51.65</v>
       </c>
       <c r="W5">
-        <v>71.54</v>
+        <v>71.43</v>
       </c>
       <c r="X5">
-        <v>59.49</v>
+        <v>55.82</v>
       </c>
       <c r="Y5">
-        <v>62.5</v>
+        <v>60.98</v>
       </c>
       <c r="Z5">
-        <v>43.66</v>
+        <v>41.15</v>
       </c>
       <c r="AA5">
         <v>66.67</v>
       </c>
       <c r="AB5">
-        <v>51.52</v>
+        <v>54.55</v>
       </c>
       <c r="AC5">
-        <v>63.64</v>
+        <v>70.09</v>
       </c>
       <c r="AD5">
-        <v>44.35</v>
+        <v>43.84</v>
       </c>
       <c r="AE5">
         <v>50</v>
       </c>
       <c r="AF5">
-        <v>63.77</v>
+        <v>60.73</v>
       </c>
       <c r="AG5">
-        <v>37.5</v>
+        <v>42.86</v>
       </c>
       <c r="AH5">
-        <v>51.41</v>
+        <v>52.6</v>
       </c>
       <c r="AI5">
-        <v>32.99</v>
+        <v>44.69</v>
       </c>
       <c r="AJ5">
         <v>60</v>
       </c>
       <c r="AK5">
-        <v>45.71</v>
+        <v>51.61</v>
       </c>
       <c r="AL5">
-        <v>76.58</v>
+        <v>72</v>
       </c>
       <c r="AM5">
-        <v>70.77</v>
+        <v>72.33</v>
       </c>
       <c r="AN5">
-        <v>78.44</v>
+        <v>75.65</v>
       </c>
       <c r="AO5">
-        <v>48.78</v>
+        <v>46.15</v>
       </c>
       <c r="AP5">
-        <v>42.11</v>
+        <v>45.07</v>
       </c>
       <c r="AQ5">
-        <v>60.69</v>
+        <v>55.81</v>
       </c>
       <c r="AR5">
+        <v>56.96</v>
+      </c>
+      <c r="AS5">
+        <v>51.22</v>
+      </c>
+      <c r="AT5">
+        <v>39.9</v>
+      </c>
+      <c r="AU5">
+        <v>45.07</v>
+      </c>
+      <c r="AV5">
+        <v>50</v>
+      </c>
+      <c r="AW5">
         <v>57.14</v>
       </c>
-      <c r="AS5">
-        <v>54.55</v>
-      </c>
-      <c r="AT5">
-        <v>33.3</v>
-      </c>
-      <c r="AU5">
-        <v>50</v>
-      </c>
-      <c r="AV5">
-        <v>50</v>
-      </c>
-      <c r="AW5">
-        <v>51.22</v>
-      </c>
       <c r="AX5">
-        <v>61.9</v>
+        <v>66.1</v>
       </c>
       <c r="AY5">
         <v>42.86</v>
       </c>
       <c r="AZ5">
+        <v>48.28</v>
+      </c>
+      <c r="BA5">
+        <v>70</v>
+      </c>
+      <c r="BB5">
+        <v>63.87</v>
+      </c>
+      <c r="BC5">
+        <v>47.25</v>
+      </c>
+      <c r="BD5">
+        <v>70.68</v>
+      </c>
+      <c r="BE5">
+        <v>36.36</v>
+      </c>
+      <c r="BF5">
+        <v>60.63</v>
+      </c>
+      <c r="BG5">
+        <v>60</v>
+      </c>
+      <c r="BH5">
+        <v>60.61</v>
+      </c>
+      <c r="BI5">
+        <v>72</v>
+      </c>
+      <c r="BJ5">
+        <v>55.52</v>
+      </c>
+      <c r="BK5">
+        <v>38.64</v>
+      </c>
+      <c r="BL5">
+        <v>80</v>
+      </c>
+      <c r="BM5">
+        <v>65.96</v>
+      </c>
+      <c r="BN5">
+        <v>39.13</v>
+      </c>
+      <c r="BO5">
+        <v>62.26</v>
+      </c>
+      <c r="BP5">
+        <v>59.32</v>
+      </c>
+      <c r="BQ5">
+        <v>44.24</v>
+      </c>
+      <c r="BR5">
+        <v>66.47</v>
+      </c>
+      <c r="BS5">
+        <v>57.53</v>
+      </c>
+      <c r="BT5">
+        <v>70.59</v>
+      </c>
+      <c r="BU5">
+        <v>60</v>
+      </c>
+      <c r="BV5">
         <v>46.67</v>
       </c>
-      <c r="BA5">
+      <c r="BW5">
         <v>40</v>
       </c>
-      <c r="BB5">
-        <v>56.47</v>
-      </c>
-      <c r="BC5">
-        <v>43.43</v>
-      </c>
-      <c r="BD5">
-        <v>67.5</v>
-      </c>
-      <c r="BE5">
-        <v>36.84</v>
-      </c>
-      <c r="BF5">
-        <v>66.06</v>
-      </c>
-      <c r="BG5">
-        <v>66.67</v>
-      </c>
-      <c r="BH5">
-        <v>62.5</v>
-      </c>
-      <c r="BI5">
-        <v>69.23</v>
-      </c>
-      <c r="BJ5">
-        <v>48.98</v>
-      </c>
-      <c r="BK5">
-        <v>34.78</v>
-      </c>
-      <c r="BL5">
-        <v>88.89</v>
-      </c>
-      <c r="BM5">
-        <v>68.25</v>
-      </c>
-      <c r="BN5">
-        <v>33.33</v>
-      </c>
-      <c r="BO5">
-        <v>56.52</v>
-      </c>
-      <c r="BP5">
-        <v>58.95</v>
-      </c>
-      <c r="BQ5">
-        <v>48.89</v>
-      </c>
-      <c r="BR5">
-        <v>61.98</v>
-      </c>
-      <c r="BS5">
-        <v>51.61</v>
-      </c>
-      <c r="BT5">
-        <v>67.31</v>
-      </c>
-      <c r="BU5">
-        <v>59.46</v>
-      </c>
-      <c r="BV5">
-        <v>50</v>
-      </c>
-      <c r="BW5">
-        <v>40.68</v>
-      </c>
       <c r="BX5">
-        <v>58.62</v>
+        <v>61.15</v>
       </c>
       <c r="BY5">
-        <v>31.82</v>
+        <v>35.48</v>
       </c>
       <c r="BZ5">
-        <v>52.94</v>
+        <v>51.22</v>
       </c>
       <c r="CA5">
-        <v>63.55</v>
+        <v>68.29</v>
       </c>
       <c r="CB5">
-        <v>52.38</v>
+        <v>53.25</v>
       </c>
       <c r="CC5">
-        <v>65.22</v>
+        <v>68.18</v>
       </c>
       <c r="CD5">
-        <v>57.21</v>
+        <v>59.42</v>
       </c>
       <c r="CE5">
         <v>57.14</v>
       </c>
       <c r="CF5">
-        <v>65.22</v>
+        <v>60.98</v>
       </c>
       <c r="CG5">
-        <v>46.15</v>
+        <v>49.76</v>
       </c>
       <c r="CH5">
-        <v>49.09</v>
+        <v>56.25</v>
       </c>
       <c r="CI5">
-        <v>66.33</v>
+        <v>67.36</v>
       </c>
       <c r="CJ5">
         <v>33.33</v>
@@ -4306,67 +4306,67 @@
         <v>50</v>
       </c>
       <c r="CM5">
-        <v>23.29</v>
+        <v>22.65</v>
       </c>
       <c r="CN5">
-        <v>60.49</v>
+        <v>64.05</v>
       </c>
       <c r="CO5">
         <v>48</v>
       </c>
       <c r="CP5">
-        <v>34.18</v>
+        <v>40.91</v>
       </c>
       <c r="CQ5">
-        <v>45.45</v>
+        <v>44.44</v>
       </c>
       <c r="CR5">
         <v>37.93</v>
       </c>
       <c r="CS5">
-        <v>22.73</v>
+        <v>26.32</v>
       </c>
       <c r="CT5">
-        <v>34.88</v>
+        <v>35.71</v>
       </c>
       <c r="CU5">
         <v>50</v>
       </c>
       <c r="CV5">
-        <v>52.38</v>
+        <v>54.55</v>
       </c>
       <c r="CW5">
-        <v>27.78</v>
+        <v>35.64</v>
       </c>
       <c r="CX5">
         <v>50</v>
       </c>
       <c r="CY5">
-        <v>54.79</v>
+        <v>62.07</v>
       </c>
       <c r="CZ5">
-        <v>61.54</v>
+        <v>63.83</v>
       </c>
       <c r="DA5">
-        <v>71.31</v>
+        <v>65.66</v>
       </c>
       <c r="DB5">
-        <v>53.85</v>
+        <v>54.55</v>
       </c>
       <c r="DC5">
         <v>55.56</v>
       </c>
       <c r="DD5">
+        <v>50</v>
+      </c>
+      <c r="DE5">
+        <v>53.84</v>
+      </c>
+      <c r="DF5">
+        <v>54.76</v>
+      </c>
+      <c r="DG5">
         <v>57.14</v>
-      </c>
-      <c r="DE5">
-        <v>55.9</v>
-      </c>
-      <c r="DF5">
-        <v>56.1</v>
-      </c>
-      <c r="DG5">
-        <v>52.94</v>
       </c>
       <c r="DH5">
         <v>50</v>
@@ -4375,46 +4375,46 @@
         <v>40</v>
       </c>
       <c r="DJ5">
-        <v>41.28</v>
+        <v>48.39</v>
       </c>
       <c r="DK5">
-        <v>42.86</v>
+        <v>47.06</v>
       </c>
       <c r="DL5">
-        <v>45.6</v>
+        <v>49.11</v>
       </c>
       <c r="DM5">
-        <v>48.28</v>
+        <v>47.3</v>
       </c>
       <c r="DN5">
-        <v>33.59</v>
+        <v>49.31</v>
       </c>
       <c r="DO5">
-        <v>57.14</v>
+        <v>53.85</v>
       </c>
       <c r="DP5">
         <v>66.67</v>
       </c>
       <c r="DQ5">
-        <v>52.94</v>
+        <v>70.59</v>
       </c>
       <c r="DR5">
-        <v>70.89</v>
+        <v>65.67</v>
       </c>
       <c r="DS5">
-        <v>20.66</v>
+        <v>19.58</v>
       </c>
       <c r="DT5">
-        <v>12.2</v>
+        <v>13.95</v>
       </c>
       <c r="DU5">
-        <v>47.55</v>
+        <v>46.77</v>
       </c>
       <c r="DV5">
-        <v>52.94</v>
+        <v>52.17</v>
       </c>
       <c r="DW5">
-        <v>38.46</v>
+        <v>36.84</v>
       </c>
       <c r="DX5">
         <v>50</v>
@@ -4429,22 +4429,22 @@
         <v>50</v>
       </c>
       <c r="EB5">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="EC5">
         <v>50</v>
       </c>
       <c r="ED5">
-        <v>62.14</v>
+        <v>68.29</v>
       </c>
       <c r="EE5">
-        <v>47.15</v>
+        <v>46.52</v>
       </c>
       <c r="EF5">
         <v>54.55</v>
       </c>
       <c r="EG5">
-        <v>59.46</v>
+        <v>58.33</v>
       </c>
       <c r="EH5">
         <v>50</v>
@@ -4453,61 +4453,61 @@
         <v>33.33</v>
       </c>
       <c r="EJ5">
-        <v>45.64</v>
+        <v>47.06</v>
       </c>
       <c r="EK5">
-        <v>42.86</v>
+        <v>41.51</v>
       </c>
       <c r="EL5">
-        <v>64.56</v>
+        <v>60</v>
       </c>
       <c r="EM5">
-        <v>57.62</v>
+        <v>61.7</v>
       </c>
       <c r="EN5">
         <v>55.93</v>
       </c>
       <c r="EO5">
-        <v>32.14</v>
+        <v>35.37</v>
       </c>
       <c r="EP5">
-        <v>45.51</v>
+        <v>44.99</v>
       </c>
       <c r="EQ5">
-        <v>63.91</v>
+        <v>67.11</v>
       </c>
       <c r="ER5">
-        <v>54.55</v>
+        <v>58.33</v>
       </c>
       <c r="ES5">
-        <v>61.45</v>
+        <v>60.59</v>
       </c>
       <c r="ET5">
-        <v>67.38</v>
+        <v>66.18</v>
       </c>
       <c r="EU5">
         <v>45.21</v>
       </c>
       <c r="EV5">
-        <v>52.29</v>
+        <v>57.24</v>
       </c>
       <c r="EW5">
-        <v>56.87</v>
+        <v>54.69</v>
       </c>
       <c r="EX5">
-        <v>36.04</v>
+        <v>34.78</v>
       </c>
       <c r="EY5">
-        <v>42.86</v>
+        <v>45.45</v>
       </c>
       <c r="EZ5">
-        <v>34.12</v>
+        <v>40.11</v>
       </c>
       <c r="FA5">
         <v>48.78</v>
       </c>
       <c r="FB5">
-        <v>63.64</v>
+        <v>65.12</v>
       </c>
       <c r="FC5">
         <v>50.29</v>
@@ -4516,91 +4516,91 @@
         <v>58.65</v>
       </c>
       <c r="FE5">
-        <v>30.67</v>
+        <v>54.6</v>
       </c>
       <c r="FF5">
-        <v>41.18</v>
+        <v>49.47</v>
       </c>
       <c r="FG5">
         <v>50</v>
       </c>
       <c r="FH5">
-        <v>54.55</v>
+        <v>55.08</v>
       </c>
       <c r="FI5">
-        <v>43.56</v>
+        <v>45.45</v>
       </c>
       <c r="FJ5">
-        <v>74.14</v>
+        <v>71.51</v>
       </c>
       <c r="FK5">
-        <v>28.57</v>
+        <v>33.9</v>
       </c>
       <c r="FL5">
         <v>40</v>
       </c>
       <c r="FM5">
-        <v>52.22</v>
+        <v>53.68</v>
       </c>
       <c r="FN5">
-        <v>48</v>
+        <v>49.22</v>
       </c>
       <c r="FO5">
-        <v>73.47</v>
+        <v>73.79</v>
       </c>
       <c r="FP5">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="FQ5">
-        <v>37.5</v>
+        <v>40.83</v>
       </c>
       <c r="FR5">
-        <v>40</v>
+        <v>45.07</v>
       </c>
       <c r="FS5">
-        <v>48.78</v>
+        <v>53.33</v>
       </c>
       <c r="FT5">
-        <v>48.65</v>
+        <v>51.06</v>
       </c>
       <c r="FU5">
         <v>66.93</v>
       </c>
       <c r="FV5">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="FW5">
-        <v>48.6</v>
+        <v>49.82</v>
       </c>
       <c r="FX5">
-        <v>76.45</v>
+        <v>75.43</v>
       </c>
       <c r="FY5">
-        <v>57.14</v>
+        <v>56.18</v>
       </c>
       <c r="FZ5">
-        <v>56.46</v>
+        <v>54.8</v>
       </c>
       <c r="GA5">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="GB5">
-        <v>40</v>
+        <v>47.06</v>
       </c>
       <c r="GC5">
-        <v>45.6</v>
+        <v>51.35</v>
       </c>
       <c r="GD5">
-        <v>80.04</v>
+        <v>79.35</v>
       </c>
       <c r="GE5">
-        <v>64.64</v>
+        <v>66.1</v>
       </c>
       <c r="GF5">
-        <v>53.85</v>
+        <v>53.13</v>
       </c>
       <c r="GG5">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="GH5">
         <v>42.86</v>
@@ -4609,16 +4609,16 @@
         <v>50</v>
       </c>
       <c r="GJ5">
-        <v>28.89</v>
+        <v>41.94</v>
       </c>
       <c r="GK5">
-        <v>51.11</v>
+        <v>46.6</v>
       </c>
       <c r="GL5">
-        <v>21.43</v>
+        <v>20.29</v>
       </c>
       <c r="GM5">
-        <v>73.85</v>
+        <v>60.47</v>
       </c>
       <c r="GN5">
         <v>50</v>
@@ -4627,166 +4627,166 @@
         <v>50</v>
       </c>
       <c r="GP5">
-        <v>61.41</v>
+        <v>65.84</v>
       </c>
       <c r="GQ5">
-        <v>59.46</v>
+        <v>55.56</v>
       </c>
       <c r="GR5">
-        <v>30.53</v>
+        <v>33.72</v>
       </c>
       <c r="GS5">
         <v>66.67</v>
       </c>
       <c r="GT5">
-        <v>35.86</v>
+        <v>39.3</v>
       </c>
       <c r="GU5">
-        <v>47.37</v>
+        <v>52</v>
       </c>
       <c r="GV5">
-        <v>54.33</v>
+        <v>56.97</v>
       </c>
       <c r="GW5">
-        <v>40.74</v>
+        <v>46.67</v>
       </c>
       <c r="GX5">
         <v>50</v>
       </c>
       <c r="GY5">
-        <v>23.44</v>
+        <v>29.78</v>
       </c>
       <c r="GZ5">
-        <v>60.66</v>
+        <v>57.33</v>
       </c>
       <c r="HA5">
         <v>50</v>
       </c>
       <c r="HB5">
-        <v>37.5</v>
+        <v>41.3</v>
       </c>
       <c r="HC5">
         <v>50</v>
       </c>
       <c r="HD5">
-        <v>42.79</v>
+        <v>41.53</v>
       </c>
       <c r="HE5">
-        <v>42.86</v>
+        <v>40</v>
       </c>
       <c r="HF5">
-        <v>72.92</v>
+        <v>79.59</v>
       </c>
       <c r="HG5">
-        <v>67.08</v>
+        <v>67.03</v>
       </c>
       <c r="HH5">
         <v>66.67</v>
       </c>
       <c r="HI5">
-        <v>30.23</v>
+        <v>30.71</v>
       </c>
       <c r="HJ5">
-        <v>40</v>
+        <v>42.86</v>
       </c>
       <c r="HK5">
         <v>40</v>
       </c>
       <c r="HL5">
-        <v>33.33</v>
+        <v>52.38</v>
       </c>
       <c r="HM5">
-        <v>49.22</v>
+        <v>48.34</v>
       </c>
       <c r="HN5">
-        <v>31.03</v>
+        <v>35.06</v>
       </c>
       <c r="HO5">
-        <v>67.39</v>
+        <v>72.22</v>
       </c>
       <c r="HP5">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
       <c r="HQ5">
-        <v>31.19</v>
+        <v>36.17</v>
       </c>
       <c r="HR5">
-        <v>62.5</v>
+        <v>60.87</v>
       </c>
       <c r="HS5">
-        <v>52.91</v>
+        <v>61.43</v>
       </c>
       <c r="HT5">
-        <v>72.9</v>
+        <v>74.41</v>
       </c>
       <c r="HU5">
-        <v>75</v>
+        <v>69.57</v>
       </c>
       <c r="HV5">
         <v>46.78</v>
       </c>
       <c r="HW5">
-        <v>44.44</v>
+        <v>40.3</v>
       </c>
       <c r="HX5">
-        <v>73.01</v>
+        <v>44.8</v>
       </c>
       <c r="HY5">
-        <v>44.44</v>
+        <v>56.1</v>
       </c>
       <c r="HZ5">
-        <v>44.54</v>
+        <v>53.05</v>
       </c>
       <c r="IA5">
-        <v>36.91</v>
+        <v>39.51</v>
       </c>
       <c r="IB5">
-        <v>73.68</v>
+        <v>76.74</v>
       </c>
       <c r="IC5">
-        <v>50.7</v>
+        <v>54.35</v>
       </c>
       <c r="ID5">
-        <v>51.61</v>
+        <v>52.89</v>
       </c>
       <c r="IE5">
-        <v>52.94</v>
+        <v>52.38</v>
       </c>
       <c r="IF5">
-        <v>52</v>
+        <v>58.33</v>
       </c>
       <c r="IG5">
-        <v>75.72</v>
+        <v>78.08</v>
       </c>
       <c r="IH5">
-        <v>58.82</v>
+        <v>54.79</v>
       </c>
       <c r="II5">
-        <v>70</v>
+        <v>72.41</v>
       </c>
       <c r="IJ5">
-        <v>51.61</v>
+        <v>51.95</v>
       </c>
       <c r="IK5">
-        <v>62.79</v>
+        <v>58.06</v>
       </c>
       <c r="IL5">
-        <v>34.62</v>
+        <v>38.1</v>
       </c>
       <c r="IM5">
-        <v>65.91</v>
+        <v>64</v>
       </c>
       <c r="IN5">
-        <v>42.11</v>
+        <v>41.07</v>
       </c>
       <c r="IO5">
-        <v>67.95</v>
+        <v>66.67</v>
       </c>
       <c r="IP5">
-        <v>60</v>
+        <v>57.14</v>
       </c>
       <c r="IQ5">
-        <v>44.44</v>
+        <v>55.22</v>
       </c>
       <c r="IR5">
         <v>60</v>
@@ -4801,130 +4801,130 @@
         <v>72.73</v>
       </c>
       <c r="IV5">
-        <v>48.78</v>
+        <v>46.15</v>
       </c>
       <c r="IW5">
         <v>57.14</v>
       </c>
       <c r="IX5">
-        <v>47.06</v>
+        <v>54.55</v>
       </c>
       <c r="IY5">
-        <v>58.21</v>
+        <v>59.3</v>
       </c>
       <c r="IZ5">
-        <v>49.37</v>
+        <v>54.55</v>
       </c>
       <c r="JA5">
-        <v>51.22</v>
+        <v>52.5</v>
       </c>
       <c r="JB5">
-        <v>57.14</v>
+        <v>58.51</v>
       </c>
       <c r="JC5">
         <v>74.6</v>
       </c>
       <c r="JD5">
-        <v>55.32</v>
+        <v>57.58</v>
       </c>
       <c r="JE5">
-        <v>51.11</v>
+        <v>54.12</v>
       </c>
       <c r="JF5">
-        <v>44</v>
+        <v>56.79</v>
       </c>
       <c r="JG5">
-        <v>56.89</v>
+        <v>55.06</v>
       </c>
       <c r="JH5">
-        <v>81.44</v>
+        <v>79.81</v>
       </c>
       <c r="JI5">
-        <v>69.33</v>
+        <v>69.11</v>
       </c>
       <c r="JJ5">
-        <v>35.29</v>
+        <v>37.14</v>
       </c>
       <c r="JK5">
-        <v>30.77</v>
+        <v>28</v>
       </c>
       <c r="JL5">
-        <v>66.67</v>
+        <v>62.79</v>
       </c>
       <c r="JM5">
-        <v>52</v>
+        <v>53.28</v>
       </c>
       <c r="JN5">
-        <v>62</v>
+        <v>65.26</v>
       </c>
       <c r="JO5">
-        <v>34.48</v>
+        <v>38.04</v>
       </c>
       <c r="JP5">
         <v>19.67</v>
       </c>
       <c r="JQ5">
-        <v>32.62</v>
+        <v>47.71</v>
       </c>
       <c r="JR5">
         <v>66.67</v>
       </c>
       <c r="JS5">
-        <v>64.59</v>
+        <v>56.64</v>
       </c>
       <c r="JT5">
         <v>29.41</v>
       </c>
       <c r="JU5">
-        <v>53.85</v>
+        <v>48.72</v>
       </c>
       <c r="JV5">
-        <v>56.96</v>
+        <v>59.52</v>
       </c>
       <c r="JW5">
-        <v>66.35</v>
+        <v>69.22</v>
       </c>
       <c r="JX5">
-        <v>44.19</v>
+        <v>46.8</v>
       </c>
       <c r="JY5">
-        <v>17.74</v>
+        <v>21.85</v>
       </c>
       <c r="JZ5">
         <v>32</v>
       </c>
       <c r="KA5">
-        <v>33.33</v>
+        <v>36.45</v>
       </c>
       <c r="KB5">
-        <v>50</v>
+        <v>42.86</v>
       </c>
       <c r="KC5">
-        <v>54.55</v>
+        <v>47.37</v>
       </c>
       <c r="KD5">
-        <v>66.67</v>
+        <v>55.56</v>
       </c>
       <c r="KE5">
-        <v>39.9</v>
+        <v>38.93</v>
       </c>
       <c r="KF5">
         <v>50</v>
       </c>
       <c r="KG5">
-        <v>30.3</v>
+        <v>38.94</v>
       </c>
       <c r="KH5">
         <v>41.24</v>
       </c>
       <c r="KI5">
-        <v>65.22</v>
+        <v>62.5</v>
       </c>
       <c r="KJ5">
-        <v>44.44</v>
+        <v>53.7</v>
       </c>
       <c r="KK5">
-        <v>59.02</v>
+        <v>71.59</v>
       </c>
       <c r="KL5">
         <v>50</v>
@@ -4936,10 +4936,10 @@
         <v>50</v>
       </c>
       <c r="KO5">
-        <v>17.75</v>
+        <v>15.15</v>
       </c>
       <c r="KP5">
-        <v>53.92</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="6">
@@ -9490,7 +9490,7 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>53.57</v>
+        <v>55.56</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -9499,253 +9499,253 @@
         <v>64.71</v>
       </c>
       <c r="F11">
-        <v>44.44</v>
+        <v>28.57</v>
       </c>
       <c r="G11">
-        <v>44.2</v>
+        <v>42.07</v>
       </c>
       <c r="H11">
-        <v>56.65</v>
+        <v>58.51</v>
       </c>
       <c r="I11">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>70.9</v>
+        <v>69.72</v>
       </c>
       <c r="K11">
-        <v>33.03</v>
+        <v>31.58</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>29.41</v>
       </c>
       <c r="M11">
-        <v>41.67</v>
+        <v>38.46</v>
       </c>
       <c r="N11">
         <v>50</v>
       </c>
       <c r="O11">
-        <v>27.69</v>
+        <v>11.32</v>
       </c>
       <c r="P11">
-        <v>36.84</v>
+        <v>33.98</v>
       </c>
       <c r="Q11">
         <v>50</v>
       </c>
       <c r="R11">
-        <v>30</v>
+        <v>28.57</v>
       </c>
       <c r="S11">
-        <v>51.81</v>
+        <v>49.08</v>
       </c>
       <c r="T11">
-        <v>41.06</v>
+        <v>45.28</v>
       </c>
       <c r="U11">
         <v>39.13</v>
       </c>
       <c r="V11">
-        <v>46.69</v>
+        <v>22.34</v>
       </c>
       <c r="W11">
-        <v>64.75</v>
+        <v>61.23</v>
       </c>
       <c r="X11">
-        <v>52.99</v>
+        <v>30</v>
       </c>
       <c r="Y11">
-        <v>24.23</v>
+        <v>10.42</v>
       </c>
       <c r="Z11">
-        <v>37.09</v>
+        <v>35.49</v>
       </c>
       <c r="AA11">
+        <v>48.78</v>
+      </c>
+      <c r="AB11">
+        <v>43.18</v>
+      </c>
+      <c r="AC11">
+        <v>57.45</v>
+      </c>
+      <c r="AD11">
+        <v>42.26</v>
+      </c>
+      <c r="AE11">
+        <v>50</v>
+      </c>
+      <c r="AF11">
+        <v>67.33</v>
+      </c>
+      <c r="AG11">
+        <v>60</v>
+      </c>
+      <c r="AH11">
+        <v>19.79</v>
+      </c>
+      <c r="AI11">
+        <v>41.16</v>
+      </c>
+      <c r="AJ11">
+        <v>33.33</v>
+      </c>
+      <c r="AK11">
+        <v>32.26</v>
+      </c>
+      <c r="AL11">
+        <v>75.55</v>
+      </c>
+      <c r="AM11">
+        <v>16.67</v>
+      </c>
+      <c r="AN11">
+        <v>64.6</v>
+      </c>
+      <c r="AO11">
+        <v>33.33</v>
+      </c>
+      <c r="AP11">
+        <v>29.41</v>
+      </c>
+      <c r="AQ11">
+        <v>16</v>
+      </c>
+      <c r="AR11">
+        <v>47.98</v>
+      </c>
+      <c r="AS11">
+        <v>53.85</v>
+      </c>
+      <c r="AT11">
+        <v>52.02</v>
+      </c>
+      <c r="AU11">
+        <v>24</v>
+      </c>
+      <c r="AV11">
+        <v>50</v>
+      </c>
+      <c r="AW11">
+        <v>43.86</v>
+      </c>
+      <c r="AX11">
+        <v>39.5</v>
+      </c>
+      <c r="AY11">
+        <v>21.43</v>
+      </c>
+      <c r="AZ11">
+        <v>36.36</v>
+      </c>
+      <c r="BA11">
+        <v>58.46</v>
+      </c>
+      <c r="BB11">
+        <v>66.35</v>
+      </c>
+      <c r="BC11">
+        <v>65.66</v>
+      </c>
+      <c r="BD11">
+        <v>71.43</v>
+      </c>
+      <c r="BE11">
+        <v>20.73</v>
+      </c>
+      <c r="BF11">
+        <v>29.24</v>
+      </c>
+      <c r="BG11">
+        <v>50</v>
+      </c>
+      <c r="BH11">
+        <v>60</v>
+      </c>
+      <c r="BI11">
+        <v>52.94</v>
+      </c>
+      <c r="BJ11">
+        <v>55.78</v>
+      </c>
+      <c r="BK11">
+        <v>54.79</v>
+      </c>
+      <c r="BL11">
+        <v>72.09</v>
+      </c>
+      <c r="BM11">
+        <v>45.41</v>
+      </c>
+      <c r="BN11">
+        <v>24.43</v>
+      </c>
+      <c r="BO11">
+        <v>66.17</v>
+      </c>
+      <c r="BP11">
+        <v>35.29</v>
+      </c>
+      <c r="BQ11">
+        <v>28.07</v>
+      </c>
+      <c r="BR11">
+        <v>56.68</v>
+      </c>
+      <c r="BS11">
+        <v>84.77</v>
+      </c>
+      <c r="BT11">
+        <v>12.5</v>
+      </c>
+      <c r="BU11">
+        <v>43.86</v>
+      </c>
+      <c r="BV11">
+        <v>26.32</v>
+      </c>
+      <c r="BW11">
+        <v>49.41</v>
+      </c>
+      <c r="BX11">
+        <v>60.75</v>
+      </c>
+      <c r="BY11">
+        <v>42.86</v>
+      </c>
+      <c r="BZ11">
+        <v>55.56</v>
+      </c>
+      <c r="CA11">
+        <v>46.6</v>
+      </c>
+      <c r="CB11">
+        <v>80</v>
+      </c>
+      <c r="CC11">
+        <v>17.39</v>
+      </c>
+      <c r="CD11">
+        <v>4.32</v>
+      </c>
+      <c r="CE11">
+        <v>30.77</v>
+      </c>
+      <c r="CF11">
         <v>48</v>
       </c>
-      <c r="AB11">
-        <v>44.88</v>
-      </c>
-      <c r="AC11">
-        <v>52.61</v>
-      </c>
-      <c r="AD11">
-        <v>40.7</v>
-      </c>
-      <c r="AE11">
-        <v>50</v>
-      </c>
-      <c r="AF11">
-        <v>66.79</v>
-      </c>
-      <c r="AG11">
-        <v>53.33</v>
-      </c>
-      <c r="AH11">
-        <v>25.69</v>
-      </c>
-      <c r="AI11">
-        <v>44.33</v>
-      </c>
-      <c r="AJ11">
-        <v>28.57</v>
-      </c>
-      <c r="AK11">
-        <v>30</v>
-      </c>
-      <c r="AL11">
-        <v>74.42</v>
-      </c>
-      <c r="AM11">
-        <v>15.79</v>
-      </c>
-      <c r="AN11">
-        <v>63.61</v>
-      </c>
-      <c r="AO11">
-        <v>31.58</v>
-      </c>
-      <c r="AP11">
-        <v>26.09</v>
-      </c>
-      <c r="AQ11">
-        <v>15.92</v>
-      </c>
-      <c r="AR11">
-        <v>46.15</v>
-      </c>
-      <c r="AS11">
-        <v>52.24</v>
-      </c>
-      <c r="AT11">
-        <v>46.09</v>
-      </c>
-      <c r="AU11">
-        <v>22.58</v>
-      </c>
-      <c r="AV11">
-        <v>50</v>
-      </c>
-      <c r="AW11">
-        <v>48.39</v>
-      </c>
-      <c r="AX11">
+      <c r="CG11">
         <v>52.81</v>
       </c>
-      <c r="AY11">
-        <v>17.39</v>
-      </c>
-      <c r="AZ11">
-        <v>35.71</v>
-      </c>
-      <c r="BA11">
-        <v>59.01</v>
-      </c>
-      <c r="BB11">
-        <v>62.69</v>
-      </c>
-      <c r="BC11">
-        <v>62.9</v>
-      </c>
-      <c r="BD11">
-        <v>74.34</v>
-      </c>
-      <c r="BE11">
-        <v>18.75</v>
-      </c>
-      <c r="BF11">
-        <v>26.44</v>
-      </c>
-      <c r="BG11">
-        <v>57.14</v>
-      </c>
-      <c r="BH11">
-        <v>50</v>
-      </c>
-      <c r="BI11">
-        <v>46.15</v>
-      </c>
-      <c r="BJ11">
-        <v>50.68</v>
-      </c>
-      <c r="BK11">
-        <v>54.35</v>
-      </c>
-      <c r="BL11">
-        <v>74.58</v>
-      </c>
-      <c r="BM11">
-        <v>47.22</v>
-      </c>
-      <c r="BN11">
-        <v>22.47</v>
-      </c>
-      <c r="BO11">
-        <v>62.5</v>
-      </c>
-      <c r="BP11">
-        <v>33.33</v>
-      </c>
-      <c r="BQ11">
-        <v>26.32</v>
-      </c>
-      <c r="BR11">
-        <v>58.14</v>
-      </c>
-      <c r="BS11">
-        <v>83.75</v>
-      </c>
-      <c r="BT11">
-        <v>13.56</v>
-      </c>
-      <c r="BU11">
-        <v>42.86</v>
-      </c>
-      <c r="BV11">
-        <v>31.91</v>
-      </c>
-      <c r="BW11">
-        <v>53.33</v>
-      </c>
-      <c r="BX11">
-        <v>57.35</v>
-      </c>
-      <c r="BY11">
-        <v>41.28</v>
-      </c>
-      <c r="BZ11">
-        <v>57.14</v>
-      </c>
-      <c r="CA11">
-        <v>47.37</v>
-      </c>
-      <c r="CB11">
-        <v>77.27</v>
-      </c>
-      <c r="CC11">
-        <v>14.29</v>
-      </c>
-      <c r="CD11">
-        <v>76.97</v>
-      </c>
-      <c r="CE11">
-        <v>33.33</v>
-      </c>
-      <c r="CF11">
-        <v>48.28</v>
-      </c>
-      <c r="CG11">
-        <v>48.28</v>
-      </c>
       <c r="CH11">
-        <v>39.39</v>
+        <v>32.1</v>
       </c>
       <c r="CI11">
-        <v>79.9</v>
+        <v>80.26</v>
       </c>
       <c r="CJ11">
-        <v>37.5</v>
+        <v>38.46</v>
       </c>
       <c r="CK11">
         <v>40</v>
@@ -9754,34 +9754,34 @@
         <v>66.67</v>
       </c>
       <c r="CM11">
-        <v>16.36</v>
+        <v>19.15</v>
       </c>
       <c r="CN11">
-        <v>52.13</v>
+        <v>56.76</v>
       </c>
       <c r="CO11">
-        <v>42.68</v>
+        <v>42.42</v>
       </c>
       <c r="CP11">
-        <v>49.71</v>
+        <v>49.15</v>
       </c>
       <c r="CQ11">
-        <v>47.69</v>
+        <v>46.27</v>
       </c>
       <c r="CR11">
-        <v>18.52</v>
+        <v>21.05</v>
       </c>
       <c r="CS11">
-        <v>15.63</v>
+        <v>16.67</v>
       </c>
       <c r="CT11">
         <v>33.33</v>
       </c>
       <c r="CU11">
-        <v>60</v>
+        <v>57.14</v>
       </c>
       <c r="CV11">
-        <v>53.13</v>
+        <v>53.85</v>
       </c>
       <c r="CW11">
         <v>40</v>
@@ -9790,16 +9790,16 @@
         <v>50</v>
       </c>
       <c r="CY11">
-        <v>44.55</v>
+        <v>51.72</v>
       </c>
       <c r="CZ11">
-        <v>71.19</v>
+        <v>76.09</v>
       </c>
       <c r="DA11">
-        <v>26.42</v>
+        <v>31.31</v>
       </c>
       <c r="DB11">
-        <v>52</v>
+        <v>52.38</v>
       </c>
       <c r="DC11">
         <v>36.36</v>
@@ -9808,70 +9808,70 @@
         <v>25</v>
       </c>
       <c r="DE11">
-        <v>49.58</v>
+        <v>51.74</v>
       </c>
       <c r="DF11">
-        <v>61.26</v>
+        <v>68.55</v>
       </c>
       <c r="DG11">
-        <v>33.33</v>
+        <v>36.36</v>
       </c>
       <c r="DH11">
-        <v>43.75</v>
+        <v>44.44</v>
       </c>
       <c r="DI11">
-        <v>52.94</v>
+        <v>60</v>
       </c>
       <c r="DJ11">
-        <v>50</v>
+        <v>55.56</v>
       </c>
       <c r="DK11">
-        <v>33.33</v>
+        <v>35.71</v>
       </c>
       <c r="DL11">
-        <v>33.71</v>
+        <v>31.79</v>
       </c>
       <c r="DM11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DN11">
+        <v>23.64</v>
+      </c>
+      <c r="DO11">
+        <v>40</v>
+      </c>
+      <c r="DP11">
+        <v>50</v>
+      </c>
+      <c r="DQ11">
+        <v>38.98</v>
+      </c>
+      <c r="DR11">
+        <v>12.37</v>
+      </c>
+      <c r="DS11">
+        <v>41.24</v>
+      </c>
+      <c r="DT11">
+        <v>58.33</v>
+      </c>
+      <c r="DU11">
+        <v>42.93</v>
+      </c>
+      <c r="DV11">
         <v>45.45</v>
       </c>
-      <c r="DO11">
-        <v>46.15</v>
-      </c>
-      <c r="DP11">
-        <v>50</v>
-      </c>
-      <c r="DQ11">
-        <v>53.18</v>
-      </c>
-      <c r="DR11">
-        <v>9.57</v>
-      </c>
-      <c r="DS11">
-        <v>40.3</v>
-      </c>
-      <c r="DT11">
-        <v>43.21</v>
-      </c>
-      <c r="DU11">
-        <v>41.98</v>
-      </c>
-      <c r="DV11">
-        <v>42.86</v>
-      </c>
       <c r="DW11">
-        <v>14.63</v>
+        <v>13.79</v>
       </c>
       <c r="DX11">
         <v>50</v>
       </c>
       <c r="DY11">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="DZ11">
-        <v>53.33</v>
+        <v>60</v>
       </c>
       <c r="EA11">
         <v>50</v>
@@ -9883,16 +9883,16 @@
         <v>60</v>
       </c>
       <c r="ED11">
-        <v>57.78</v>
+        <v>58.21</v>
       </c>
       <c r="EE11">
-        <v>53.13</v>
+        <v>57.14</v>
       </c>
       <c r="EF11">
-        <v>20.59</v>
+        <v>23.08</v>
       </c>
       <c r="EG11">
-        <v>67.57</v>
+        <v>68.97</v>
       </c>
       <c r="EH11">
         <v>50</v>
@@ -9901,238 +9901,238 @@
         <v>50</v>
       </c>
       <c r="EJ11">
-        <v>38.93</v>
+        <v>49.13</v>
       </c>
       <c r="EK11">
-        <v>15.79</v>
+        <v>18.52</v>
       </c>
       <c r="EL11">
-        <v>50.26</v>
+        <v>51.61</v>
       </c>
       <c r="EM11">
-        <v>47.06</v>
+        <v>52.17</v>
       </c>
       <c r="EN11">
-        <v>57.38</v>
+        <v>58.33</v>
       </c>
       <c r="EO11">
         <v>35.64</v>
       </c>
       <c r="EP11">
-        <v>27.37</v>
+        <v>28.85</v>
       </c>
       <c r="EQ11">
-        <v>17.95</v>
+        <v>21.43</v>
       </c>
       <c r="ER11">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="ES11">
-        <v>43.86</v>
+        <v>45.45</v>
       </c>
       <c r="ET11">
-        <v>55.17</v>
+        <v>53.33</v>
       </c>
       <c r="EU11">
-        <v>67.66</v>
+        <v>70.9</v>
       </c>
       <c r="EV11">
-        <v>54.55</v>
+        <v>58.06</v>
       </c>
       <c r="EW11">
-        <v>48.2</v>
+        <v>49.02</v>
       </c>
       <c r="EX11">
-        <v>58.66</v>
+        <v>58.14</v>
       </c>
       <c r="EY11">
-        <v>30.3</v>
+        <v>33.33</v>
       </c>
       <c r="EZ11">
-        <v>41.86</v>
+        <v>47.31</v>
       </c>
       <c r="FA11">
-        <v>27.27</v>
+        <v>25</v>
       </c>
       <c r="FB11">
-        <v>52.63</v>
+        <v>53.33</v>
       </c>
       <c r="FC11">
-        <v>48.14</v>
+        <v>49.11</v>
       </c>
       <c r="FD11">
-        <v>32.71</v>
+        <v>21.74</v>
       </c>
       <c r="FE11">
-        <v>49.6</v>
+        <v>47.87</v>
       </c>
       <c r="FF11">
-        <v>48.15</v>
+        <v>47.45</v>
       </c>
       <c r="FG11">
         <v>50</v>
       </c>
       <c r="FH11">
-        <v>44.44</v>
+        <v>44.86</v>
       </c>
       <c r="FI11">
-        <v>31.03</v>
+        <v>30.61</v>
       </c>
       <c r="FJ11">
-        <v>33.13</v>
+        <v>36.42</v>
       </c>
       <c r="FK11">
-        <v>32.35</v>
+        <v>34.29</v>
       </c>
       <c r="FL11">
         <v>33.33</v>
       </c>
       <c r="FM11">
-        <v>32.79</v>
+        <v>15.46</v>
       </c>
       <c r="FN11">
-        <v>62.5</v>
+        <v>63.64</v>
       </c>
       <c r="FO11">
-        <v>47.25</v>
+        <v>42.86</v>
       </c>
       <c r="FP11">
         <v>50</v>
       </c>
       <c r="FQ11">
-        <v>53.33</v>
+        <v>60</v>
       </c>
       <c r="FR11">
-        <v>31.58</v>
+        <v>32.26</v>
       </c>
       <c r="FS11">
+        <v>42.11</v>
+      </c>
+      <c r="FT11">
+        <v>57.14</v>
+      </c>
+      <c r="FU11">
+        <v>46.3</v>
+      </c>
+      <c r="FV11">
+        <v>38.1</v>
+      </c>
+      <c r="FW11">
+        <v>41.96</v>
+      </c>
+      <c r="FX11">
+        <v>76.92</v>
+      </c>
+      <c r="FY11">
+        <v>38.94</v>
+      </c>
+      <c r="FZ11">
+        <v>48.37</v>
+      </c>
+      <c r="GA11">
+        <v>29.03</v>
+      </c>
+      <c r="GB11">
+        <v>54.55</v>
+      </c>
+      <c r="GC11">
+        <v>27.59</v>
+      </c>
+      <c r="GD11">
+        <v>41.38</v>
+      </c>
+      <c r="GE11">
+        <v>29.27</v>
+      </c>
+      <c r="GF11">
+        <v>35.09</v>
+      </c>
+      <c r="GG11">
+        <v>60</v>
+      </c>
+      <c r="GH11">
         <v>42.86</v>
       </c>
-      <c r="FT11">
-        <v>50</v>
-      </c>
-      <c r="FU11">
-        <v>45.45</v>
-      </c>
-      <c r="FV11">
-        <v>40.91</v>
-      </c>
-      <c r="FW11">
-        <v>37.86</v>
-      </c>
-      <c r="FX11">
-        <v>77.13</v>
-      </c>
-      <c r="FY11">
-        <v>38.73</v>
-      </c>
-      <c r="FZ11">
-        <v>48.51</v>
-      </c>
-      <c r="GA11">
-        <v>49.23</v>
-      </c>
-      <c r="GB11">
-        <v>55.56</v>
-      </c>
-      <c r="GC11">
-        <v>25.64</v>
-      </c>
-      <c r="GD11">
-        <v>43.72</v>
-      </c>
-      <c r="GE11">
-        <v>29.17</v>
-      </c>
-      <c r="GF11">
+      <c r="GI11">
         <v>33.33</v>
       </c>
-      <c r="GG11">
+      <c r="GJ11">
+        <v>46.67</v>
+      </c>
+      <c r="GK11">
+        <v>30</v>
+      </c>
+      <c r="GL11">
+        <v>62.42</v>
+      </c>
+      <c r="GM11">
+        <v>21.05</v>
+      </c>
+      <c r="GN11">
+        <v>33.33</v>
+      </c>
+      <c r="GO11">
         <v>54.55</v>
       </c>
-      <c r="GH11">
-        <v>44.44</v>
-      </c>
-      <c r="GI11">
-        <v>37.5</v>
-      </c>
-      <c r="GJ11">
-        <v>42.17</v>
-      </c>
-      <c r="GK11">
-        <v>35.29</v>
-      </c>
-      <c r="GL11">
-        <v>57.94</v>
-      </c>
-      <c r="GM11">
-        <v>21.74</v>
-      </c>
-      <c r="GN11">
-        <v>36.36</v>
-      </c>
-      <c r="GO11">
-        <v>57.14</v>
-      </c>
       <c r="GP11">
-        <v>27.03</v>
+        <v>32</v>
       </c>
       <c r="GQ11">
-        <v>17.24</v>
+        <v>17.39</v>
       </c>
       <c r="GR11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="GS11">
         <v>60</v>
       </c>
       <c r="GT11">
-        <v>21.69</v>
+        <v>22.24</v>
       </c>
       <c r="GU11">
-        <v>28.73</v>
+        <v>29.51</v>
       </c>
       <c r="GV11">
         <v>51.61</v>
       </c>
       <c r="GW11">
-        <v>38.78</v>
+        <v>41.3</v>
       </c>
       <c r="GX11">
         <v>50</v>
       </c>
       <c r="GY11">
-        <v>44.19</v>
+        <v>44.41</v>
       </c>
       <c r="GZ11">
-        <v>29.58</v>
+        <v>31.82</v>
       </c>
       <c r="HA11">
         <v>50</v>
       </c>
       <c r="HB11">
-        <v>61.97</v>
+        <v>74.58</v>
       </c>
       <c r="HC11">
         <v>50</v>
       </c>
       <c r="HD11">
-        <v>46.25</v>
+        <v>48.9</v>
       </c>
       <c r="HE11">
         <v>22.22</v>
       </c>
       <c r="HF11">
-        <v>61.76</v>
+        <v>48.23</v>
       </c>
       <c r="HG11">
-        <v>66.49</v>
+        <v>65.09</v>
       </c>
       <c r="HH11">
         <v>66.67</v>
       </c>
       <c r="HI11">
-        <v>18.37</v>
+        <v>16.98</v>
       </c>
       <c r="HJ11">
         <v>50</v>
@@ -10141,106 +10141,106 @@
         <v>23.08</v>
       </c>
       <c r="HL11">
-        <v>51.72</v>
+        <v>48.39</v>
       </c>
       <c r="HM11">
-        <v>59.59</v>
+        <v>61.74</v>
       </c>
       <c r="HN11">
-        <v>26.47</v>
+        <v>24.32</v>
       </c>
       <c r="HO11">
-        <v>78.74</v>
+        <v>75.47</v>
       </c>
       <c r="HP11">
-        <v>51.72</v>
+        <v>50</v>
       </c>
       <c r="HQ11">
-        <v>23.08</v>
+        <v>26.32</v>
       </c>
       <c r="HR11">
+        <v>47.06</v>
+      </c>
+      <c r="HS11">
+        <v>67.89</v>
+      </c>
+      <c r="HT11">
+        <v>3.1</v>
+      </c>
+      <c r="HU11">
+        <v>41.67</v>
+      </c>
+      <c r="HV11">
+        <v>37.76</v>
+      </c>
+      <c r="HW11">
         <v>45.45</v>
       </c>
-      <c r="HS11">
-        <v>64.08</v>
-      </c>
-      <c r="HT11">
-        <v>75.61</v>
-      </c>
-      <c r="HU11">
+      <c r="HX11">
+        <v>43.22</v>
+      </c>
+      <c r="HY11">
+        <v>51.35</v>
+      </c>
+      <c r="HZ11">
+        <v>36.74</v>
+      </c>
+      <c r="IA11">
+        <v>35.71</v>
+      </c>
+      <c r="IB11">
+        <v>63.77</v>
+      </c>
+      <c r="IC11">
+        <v>52.29</v>
+      </c>
+      <c r="ID11">
+        <v>41.38</v>
+      </c>
+      <c r="IE11">
+        <v>36.36</v>
+      </c>
+      <c r="IF11">
+        <v>38.46</v>
+      </c>
+      <c r="IG11">
+        <v>43.2</v>
+      </c>
+      <c r="IH11">
+        <v>54.22</v>
+      </c>
+      <c r="II11">
+        <v>40</v>
+      </c>
+      <c r="IJ11">
+        <v>60.34</v>
+      </c>
+      <c r="IK11">
+        <v>52.63</v>
+      </c>
+      <c r="IL11">
+        <v>45</v>
+      </c>
+      <c r="IM11">
+        <v>47.25</v>
+      </c>
+      <c r="IN11">
+        <v>47.66</v>
+      </c>
+      <c r="IO11">
+        <v>73.68</v>
+      </c>
+      <c r="IP11">
         <v>42.86</v>
       </c>
-      <c r="HV11">
-        <v>39.61</v>
-      </c>
-      <c r="HW11">
-        <v>40.91</v>
-      </c>
-      <c r="HX11">
-        <v>48.37</v>
-      </c>
-      <c r="HY11">
-        <v>48.15</v>
-      </c>
-      <c r="HZ11">
-        <v>33.03</v>
-      </c>
-      <c r="IA11">
-        <v>33.19</v>
-      </c>
-      <c r="IB11">
-        <v>67.9</v>
-      </c>
-      <c r="IC11">
-        <v>55.88</v>
-      </c>
-      <c r="ID11">
-        <v>37.84</v>
-      </c>
-      <c r="IE11">
-        <v>37.04</v>
-      </c>
-      <c r="IF11">
-        <v>39.82</v>
-      </c>
-      <c r="IG11">
-        <v>51.45</v>
-      </c>
-      <c r="IH11">
-        <v>55.1</v>
-      </c>
-      <c r="II11">
-        <v>38.46</v>
-      </c>
-      <c r="IJ11">
-        <v>56.76</v>
-      </c>
-      <c r="IK11">
-        <v>55</v>
-      </c>
-      <c r="IL11">
-        <v>45.38</v>
-      </c>
-      <c r="IM11">
-        <v>50.59</v>
-      </c>
-      <c r="IN11">
-        <v>47.22</v>
-      </c>
-      <c r="IO11">
-        <v>75</v>
-      </c>
-      <c r="IP11">
-        <v>45.45</v>
-      </c>
       <c r="IQ11">
-        <v>46.31</v>
+        <v>49.36</v>
       </c>
       <c r="IR11">
         <v>50</v>
       </c>
       <c r="IS11">
-        <v>50</v>
+        <v>47.06</v>
       </c>
       <c r="IT11">
         <v>69.23</v>
@@ -10249,136 +10249,136 @@
         <v>33.33</v>
       </c>
       <c r="IV11">
-        <v>35.29</v>
+        <v>33.33</v>
       </c>
       <c r="IW11">
-        <v>45.45</v>
+        <v>47.17</v>
       </c>
       <c r="IX11">
-        <v>42.42</v>
+        <v>44.68</v>
       </c>
       <c r="IY11">
-        <v>43.4</v>
+        <v>44.44</v>
       </c>
       <c r="IZ11">
-        <v>32.14</v>
+        <v>31.58</v>
       </c>
       <c r="JA11">
-        <v>24</v>
+        <v>27.78</v>
       </c>
       <c r="JB11">
-        <v>46.67</v>
+        <v>54.55</v>
       </c>
       <c r="JC11">
-        <v>76</v>
+        <v>79.17</v>
       </c>
       <c r="JD11">
-        <v>66.67</v>
+        <v>64.52</v>
       </c>
       <c r="JE11">
-        <v>27.96</v>
+        <v>28.45</v>
       </c>
       <c r="JF11">
-        <v>65.59</v>
+        <v>61.54</v>
       </c>
       <c r="JG11">
-        <v>52.3</v>
+        <v>52.75</v>
       </c>
       <c r="JH11">
-        <v>40.52</v>
+        <v>37.46</v>
       </c>
       <c r="JI11">
-        <v>37.28</v>
+        <v>35.19</v>
       </c>
       <c r="JJ11">
-        <v>40.91</v>
+        <v>44.44</v>
       </c>
       <c r="JK11">
-        <v>16.89</v>
+        <v>17.7</v>
       </c>
       <c r="JL11">
-        <v>51.02</v>
+        <v>52.63</v>
       </c>
       <c r="JM11">
-        <v>58.33</v>
+        <v>60</v>
       </c>
       <c r="JN11">
-        <v>10.29</v>
+        <v>11.11</v>
       </c>
       <c r="JO11">
         <v>33.33</v>
       </c>
       <c r="JP11">
-        <v>27.78</v>
+        <v>25.32</v>
       </c>
       <c r="JQ11">
-        <v>59.6</v>
+        <v>61.25</v>
       </c>
       <c r="JR11">
         <v>54.55</v>
       </c>
       <c r="JS11">
-        <v>16.09</v>
+        <v>14.29</v>
       </c>
       <c r="JT11">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="JU11">
-        <v>34.62</v>
+        <v>37.97</v>
       </c>
       <c r="JV11">
-        <v>52.94</v>
+        <v>60</v>
       </c>
       <c r="JW11">
-        <v>67.79</v>
+        <v>4.67</v>
       </c>
       <c r="JX11">
-        <v>12.73</v>
+        <v>13.64</v>
       </c>
       <c r="JY11">
-        <v>41.3</v>
+        <v>44.19</v>
       </c>
       <c r="JZ11">
-        <v>25</v>
+        <v>30.77</v>
       </c>
       <c r="KA11">
-        <v>40.68</v>
+        <v>43.48</v>
       </c>
       <c r="KB11">
+        <v>40</v>
+      </c>
+      <c r="KC11">
         <v>42.86</v>
-      </c>
-      <c r="KC11">
-        <v>44.44</v>
       </c>
       <c r="KD11">
         <v>30.77</v>
       </c>
       <c r="KE11">
-        <v>51.65</v>
+        <v>42.46</v>
       </c>
       <c r="KF11">
-        <v>37.5</v>
+        <v>38.46</v>
       </c>
       <c r="KG11">
-        <v>51.61</v>
+        <v>54.55</v>
       </c>
       <c r="KH11">
-        <v>51.28</v>
+        <v>47.06</v>
       </c>
       <c r="KI11">
-        <v>41.18</v>
+        <v>40</v>
       </c>
       <c r="KJ11">
-        <v>36.67</v>
+        <v>31.43</v>
       </c>
       <c r="KK11">
-        <v>60</v>
+        <v>56.25</v>
       </c>
       <c r="KL11">
         <v>50</v>
       </c>
       <c r="KM11">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="KN11">
         <v>60</v>
@@ -10387,7 +10387,7 @@
         <v>26.75</v>
       </c>
       <c r="KP11">
-        <v>42.29</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="12">
@@ -10398,7 +10398,7 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>55.56</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -10407,379 +10407,379 @@
         <v>64.71</v>
       </c>
       <c r="F12">
-        <v>28.57</v>
+        <v>27.78</v>
       </c>
       <c r="G12">
-        <v>42.07</v>
+        <v>44.57</v>
       </c>
       <c r="H12">
-        <v>58.51</v>
+        <v>55.93</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>46.15</v>
       </c>
       <c r="J12">
-        <v>69.72</v>
+        <v>63.76</v>
       </c>
       <c r="K12">
-        <v>31.58</v>
+        <v>33.03</v>
       </c>
       <c r="L12">
-        <v>29.41</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>38.46</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>50</v>
       </c>
       <c r="O12">
-        <v>11.32</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>33.98</v>
+        <v>30.88</v>
       </c>
       <c r="Q12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R12">
-        <v>28.57</v>
+        <v>26.09</v>
       </c>
       <c r="S12">
-        <v>49.08</v>
+        <v>51.11</v>
       </c>
       <c r="T12">
-        <v>45.28</v>
+        <v>47.02</v>
       </c>
       <c r="U12">
-        <v>39.13</v>
+        <v>37.72</v>
       </c>
       <c r="V12">
-        <v>22.34</v>
+        <v>21.74</v>
       </c>
       <c r="W12">
         <v>61.23</v>
       </c>
       <c r="X12">
-        <v>30</v>
+        <v>28.77</v>
       </c>
       <c r="Y12">
-        <v>10.42</v>
+        <v>10</v>
       </c>
       <c r="Z12">
-        <v>35.49</v>
+        <v>28.73</v>
       </c>
       <c r="AA12">
-        <v>48.78</v>
+        <v>41.67</v>
       </c>
       <c r="AB12">
-        <v>43.18</v>
+        <v>32.2</v>
       </c>
       <c r="AC12">
-        <v>57.45</v>
+        <v>52.94</v>
       </c>
       <c r="AD12">
-        <v>42.26</v>
+        <v>44.57</v>
       </c>
       <c r="AE12">
         <v>50</v>
       </c>
       <c r="AF12">
-        <v>67.33</v>
+        <v>63.54</v>
       </c>
       <c r="AG12">
-        <v>60</v>
+        <v>57.14</v>
       </c>
       <c r="AH12">
-        <v>19.79</v>
+        <v>25.13</v>
       </c>
       <c r="AI12">
-        <v>41.16</v>
+        <v>38</v>
       </c>
       <c r="AJ12">
-        <v>33.33</v>
+        <v>30.77</v>
       </c>
       <c r="AK12">
-        <v>32.26</v>
+        <v>30.77</v>
       </c>
       <c r="AL12">
-        <v>75.55</v>
+        <v>74.08</v>
       </c>
       <c r="AM12">
-        <v>16.67</v>
+        <v>14.63</v>
       </c>
       <c r="AN12">
-        <v>64.6</v>
+        <v>66.67</v>
       </c>
       <c r="AO12">
-        <v>33.33</v>
+        <v>31.58</v>
       </c>
       <c r="AP12">
-        <v>29.41</v>
+        <v>24</v>
       </c>
       <c r="AQ12">
-        <v>16</v>
+        <v>13.16</v>
       </c>
       <c r="AR12">
-        <v>47.98</v>
+        <v>46.91</v>
       </c>
       <c r="AS12">
-        <v>53.85</v>
+        <v>49.3</v>
       </c>
       <c r="AT12">
-        <v>52.02</v>
+        <v>56.58</v>
       </c>
       <c r="AU12">
-        <v>24</v>
+        <v>23.33</v>
       </c>
       <c r="AV12">
         <v>50</v>
       </c>
       <c r="AW12">
-        <v>43.86</v>
+        <v>47.17</v>
       </c>
       <c r="AX12">
-        <v>39.5</v>
+        <v>38.52</v>
       </c>
       <c r="AY12">
-        <v>21.43</v>
+        <v>13.79</v>
       </c>
       <c r="AZ12">
-        <v>36.36</v>
+        <v>31.25</v>
       </c>
       <c r="BA12">
-        <v>58.46</v>
+        <v>48.97</v>
       </c>
       <c r="BB12">
-        <v>66.35</v>
+        <v>57.73</v>
       </c>
       <c r="BC12">
-        <v>65.66</v>
+        <v>64.73</v>
       </c>
       <c r="BD12">
-        <v>71.43</v>
+        <v>73.68</v>
       </c>
       <c r="BE12">
         <v>20.73</v>
       </c>
       <c r="BF12">
-        <v>29.24</v>
+        <v>27.23</v>
       </c>
       <c r="BG12">
-        <v>50</v>
+        <v>57.14</v>
       </c>
       <c r="BH12">
-        <v>60</v>
+        <v>53.57</v>
       </c>
       <c r="BI12">
-        <v>52.94</v>
+        <v>46.15</v>
       </c>
       <c r="BJ12">
-        <v>55.78</v>
+        <v>54.41</v>
       </c>
       <c r="BK12">
-        <v>54.79</v>
+        <v>46.73</v>
       </c>
       <c r="BL12">
-        <v>72.09</v>
+        <v>70.59</v>
       </c>
       <c r="BM12">
-        <v>45.41</v>
+        <v>41.86</v>
       </c>
       <c r="BN12">
-        <v>24.43</v>
+        <v>19.51</v>
       </c>
       <c r="BO12">
-        <v>66.17</v>
+        <v>61.45</v>
       </c>
       <c r="BP12">
-        <v>35.29</v>
+        <v>31.11</v>
       </c>
       <c r="BQ12">
-        <v>28.07</v>
+        <v>26.32</v>
       </c>
       <c r="BR12">
-        <v>56.68</v>
+        <v>54.74</v>
       </c>
       <c r="BS12">
-        <v>84.77</v>
+        <v>55.71</v>
       </c>
       <c r="BT12">
-        <v>12.5</v>
+        <v>8.99</v>
       </c>
       <c r="BU12">
-        <v>43.86</v>
+        <v>44.12</v>
       </c>
       <c r="BV12">
         <v>26.32</v>
       </c>
       <c r="BW12">
-        <v>49.41</v>
+        <v>48.7</v>
       </c>
       <c r="BX12">
-        <v>60.75</v>
+        <v>60</v>
       </c>
       <c r="BY12">
+        <v>38.46</v>
+      </c>
+      <c r="BZ12">
+        <v>52.63</v>
+      </c>
+      <c r="CA12">
+        <v>45.86</v>
+      </c>
+      <c r="CB12">
+        <v>77.27</v>
+      </c>
+      <c r="CC12">
+        <v>18.52</v>
+      </c>
+      <c r="CD12">
+        <v>59.84</v>
+      </c>
+      <c r="CE12">
+        <v>31.25</v>
+      </c>
+      <c r="CF12">
+        <v>42.42</v>
+      </c>
+      <c r="CG12">
+        <v>45.05</v>
+      </c>
+      <c r="CH12">
+        <v>31.45</v>
+      </c>
+      <c r="CI12">
+        <v>82.11</v>
+      </c>
+      <c r="CJ12">
+        <v>31.58</v>
+      </c>
+      <c r="CK12">
         <v>42.86</v>
-      </c>
-      <c r="BZ12">
-        <v>55.56</v>
-      </c>
-      <c r="CA12">
-        <v>46.6</v>
-      </c>
-      <c r="CB12">
-        <v>80</v>
-      </c>
-      <c r="CC12">
-        <v>17.39</v>
-      </c>
-      <c r="CD12">
-        <v>4.32</v>
-      </c>
-      <c r="CE12">
-        <v>30.77</v>
-      </c>
-      <c r="CF12">
-        <v>48</v>
-      </c>
-      <c r="CG12">
-        <v>52.81</v>
-      </c>
-      <c r="CH12">
-        <v>32.1</v>
-      </c>
-      <c r="CI12">
-        <v>80.26</v>
-      </c>
-      <c r="CJ12">
-        <v>38.46</v>
-      </c>
-      <c r="CK12">
-        <v>40</v>
       </c>
       <c r="CL12">
         <v>66.67</v>
       </c>
       <c r="CM12">
-        <v>19.15</v>
+        <v>18.56</v>
       </c>
       <c r="CN12">
-        <v>56.76</v>
+        <v>55.06</v>
       </c>
       <c r="CO12">
-        <v>42.42</v>
+        <v>41.18</v>
       </c>
       <c r="CP12">
-        <v>49.15</v>
+        <v>44.62</v>
       </c>
       <c r="CQ12">
-        <v>46.27</v>
+        <v>43.06</v>
       </c>
       <c r="CR12">
-        <v>21.05</v>
+        <v>20</v>
       </c>
       <c r="CS12">
-        <v>16.67</v>
+        <v>14.71</v>
       </c>
       <c r="CT12">
-        <v>33.33</v>
+        <v>31.58</v>
       </c>
       <c r="CU12">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="CV12">
         <v>53.85</v>
       </c>
       <c r="CW12">
-        <v>40</v>
+        <v>41.03</v>
       </c>
       <c r="CX12">
         <v>50</v>
       </c>
       <c r="CY12">
-        <v>51.72</v>
+        <v>44.55</v>
       </c>
       <c r="CZ12">
-        <v>76.09</v>
+        <v>70.8</v>
       </c>
       <c r="DA12">
-        <v>31.31</v>
+        <v>29.52</v>
       </c>
       <c r="DB12">
         <v>52.38</v>
       </c>
       <c r="DC12">
-        <v>36.36</v>
+        <v>31.25</v>
       </c>
       <c r="DD12">
         <v>25</v>
       </c>
       <c r="DE12">
-        <v>51.74</v>
+        <v>40.71</v>
       </c>
       <c r="DF12">
-        <v>68.55</v>
+        <v>66.67</v>
       </c>
       <c r="DG12">
-        <v>36.36</v>
+        <v>35.71</v>
       </c>
       <c r="DH12">
-        <v>44.44</v>
+        <v>47.37</v>
       </c>
       <c r="DI12">
         <v>60</v>
       </c>
       <c r="DJ12">
+        <v>45.45</v>
+      </c>
+      <c r="DK12">
+        <v>31.58</v>
+      </c>
+      <c r="DL12">
+        <v>33</v>
+      </c>
+      <c r="DM12">
+        <v>25.93</v>
+      </c>
+      <c r="DN12">
+        <v>20.18</v>
+      </c>
+      <c r="DO12">
+        <v>46.15</v>
+      </c>
+      <c r="DP12">
+        <v>60</v>
+      </c>
+      <c r="DQ12">
+        <v>43.4</v>
+      </c>
+      <c r="DR12">
+        <v>11.29</v>
+      </c>
+      <c r="DS12">
+        <v>36.45</v>
+      </c>
+      <c r="DT12">
+        <v>42.17</v>
+      </c>
+      <c r="DU12">
+        <v>39.69</v>
+      </c>
+      <c r="DV12">
+        <v>46.15</v>
+      </c>
+      <c r="DW12">
+        <v>14.63</v>
+      </c>
+      <c r="DX12">
+        <v>50</v>
+      </c>
+      <c r="DY12">
+        <v>50</v>
+      </c>
+      <c r="DZ12">
         <v>55.56</v>
-      </c>
-      <c r="DK12">
-        <v>35.71</v>
-      </c>
-      <c r="DL12">
-        <v>31.79</v>
-      </c>
-      <c r="DM12">
-        <v>30</v>
-      </c>
-      <c r="DN12">
-        <v>23.64</v>
-      </c>
-      <c r="DO12">
-        <v>40</v>
-      </c>
-      <c r="DP12">
-        <v>50</v>
-      </c>
-      <c r="DQ12">
-        <v>38.98</v>
-      </c>
-      <c r="DR12">
-        <v>12.37</v>
-      </c>
-      <c r="DS12">
-        <v>41.24</v>
-      </c>
-      <c r="DT12">
-        <v>58.33</v>
-      </c>
-      <c r="DU12">
-        <v>42.93</v>
-      </c>
-      <c r="DV12">
-        <v>45.45</v>
-      </c>
-      <c r="DW12">
-        <v>13.79</v>
-      </c>
-      <c r="DX12">
-        <v>50</v>
-      </c>
-      <c r="DY12">
-        <v>50</v>
-      </c>
-      <c r="DZ12">
-        <v>60</v>
       </c>
       <c r="EA12">
         <v>50</v>
@@ -10791,16 +10791,16 @@
         <v>60</v>
       </c>
       <c r="ED12">
-        <v>58.21</v>
+        <v>55.32</v>
       </c>
       <c r="EE12">
-        <v>57.14</v>
+        <v>47.75</v>
       </c>
       <c r="EF12">
-        <v>23.08</v>
+        <v>21.88</v>
       </c>
       <c r="EG12">
-        <v>68.97</v>
+        <v>70.42</v>
       </c>
       <c r="EH12">
         <v>50</v>
@@ -10809,448 +10809,448 @@
         <v>50</v>
       </c>
       <c r="EJ12">
-        <v>49.13</v>
+        <v>38.93</v>
       </c>
       <c r="EK12">
         <v>18.52</v>
       </c>
       <c r="EL12">
-        <v>51.61</v>
+        <v>53.25</v>
       </c>
       <c r="EM12">
+        <v>47.06</v>
+      </c>
+      <c r="EN12">
+        <v>59.32</v>
+      </c>
+      <c r="EO12">
+        <v>32.43</v>
+      </c>
+      <c r="EP12">
+        <v>27.03</v>
+      </c>
+      <c r="EQ12">
+        <v>22.58</v>
+      </c>
+      <c r="ER12">
+        <v>57.14</v>
+      </c>
+      <c r="ES12">
+        <v>38.61</v>
+      </c>
+      <c r="ET12">
+        <v>47.06</v>
+      </c>
+      <c r="EU12">
+        <v>71.25</v>
+      </c>
+      <c r="EV12">
         <v>52.17</v>
       </c>
-      <c r="EN12">
-        <v>58.33</v>
-      </c>
-      <c r="EO12">
-        <v>35.64</v>
-      </c>
-      <c r="EP12">
-        <v>28.85</v>
-      </c>
-      <c r="EQ12">
-        <v>21.43</v>
-      </c>
-      <c r="ER12">
-        <v>60</v>
-      </c>
-      <c r="ES12">
+      <c r="EW12">
+        <v>45.55</v>
+      </c>
+      <c r="EX12">
+        <v>54.12</v>
+      </c>
+      <c r="EY12">
+        <v>29.41</v>
+      </c>
+      <c r="EZ12">
+        <v>46.93</v>
+      </c>
+      <c r="FA12">
+        <v>24</v>
+      </c>
+      <c r="FB12">
+        <v>47.62</v>
+      </c>
+      <c r="FC12">
+        <v>49.44</v>
+      </c>
+      <c r="FD12">
+        <v>23.53</v>
+      </c>
+      <c r="FE12">
+        <v>49.35</v>
+      </c>
+      <c r="FF12">
         <v>45.45</v>
       </c>
-      <c r="ET12">
-        <v>53.33</v>
-      </c>
-      <c r="EU12">
-        <v>70.9</v>
-      </c>
-      <c r="EV12">
-        <v>58.06</v>
-      </c>
-      <c r="EW12">
-        <v>49.02</v>
-      </c>
-      <c r="EX12">
-        <v>58.14</v>
-      </c>
-      <c r="EY12">
-        <v>33.33</v>
-      </c>
-      <c r="EZ12">
-        <v>47.31</v>
-      </c>
-      <c r="FA12">
-        <v>25</v>
-      </c>
-      <c r="FB12">
-        <v>53.33</v>
-      </c>
-      <c r="FC12">
-        <v>49.11</v>
-      </c>
-      <c r="FD12">
-        <v>21.74</v>
-      </c>
-      <c r="FE12">
-        <v>47.87</v>
-      </c>
-      <c r="FF12">
-        <v>47.45</v>
-      </c>
       <c r="FG12">
         <v>50</v>
       </c>
       <c r="FH12">
-        <v>44.86</v>
+        <v>42.95</v>
       </c>
       <c r="FI12">
-        <v>30.61</v>
+        <v>32.14</v>
       </c>
       <c r="FJ12">
-        <v>36.42</v>
+        <v>39.45</v>
       </c>
       <c r="FK12">
-        <v>34.29</v>
+        <v>34.88</v>
       </c>
       <c r="FL12">
         <v>33.33</v>
       </c>
       <c r="FM12">
-        <v>15.46</v>
+        <v>16.67</v>
       </c>
       <c r="FN12">
         <v>63.64</v>
       </c>
       <c r="FO12">
+        <v>49.43</v>
+      </c>
+      <c r="FP12">
+        <v>41.67</v>
+      </c>
+      <c r="FQ12">
+        <v>48.48</v>
+      </c>
+      <c r="FR12">
+        <v>35.29</v>
+      </c>
+      <c r="FS12">
+        <v>50</v>
+      </c>
+      <c r="FT12">
+        <v>51.61</v>
+      </c>
+      <c r="FU12">
         <v>42.86</v>
       </c>
-      <c r="FP12">
-        <v>50</v>
-      </c>
-      <c r="FQ12">
-        <v>60</v>
-      </c>
-      <c r="FR12">
-        <v>32.26</v>
-      </c>
-      <c r="FS12">
-        <v>42.11</v>
-      </c>
-      <c r="FT12">
-        <v>57.14</v>
-      </c>
-      <c r="FU12">
-        <v>46.3</v>
-      </c>
       <c r="FV12">
-        <v>38.1</v>
+        <v>40</v>
       </c>
       <c r="FW12">
-        <v>41.96</v>
+        <v>41.69</v>
       </c>
       <c r="FX12">
-        <v>76.92</v>
+        <v>73.3</v>
       </c>
       <c r="FY12">
-        <v>38.94</v>
+        <v>36.42</v>
       </c>
       <c r="FZ12">
-        <v>48.37</v>
+        <v>48.51</v>
       </c>
       <c r="GA12">
-        <v>29.03</v>
+        <v>32.14</v>
       </c>
       <c r="GB12">
-        <v>54.55</v>
+        <v>51.72</v>
       </c>
       <c r="GC12">
-        <v>27.59</v>
+        <v>26.32</v>
       </c>
       <c r="GD12">
-        <v>41.38</v>
+        <v>48.19</v>
       </c>
       <c r="GE12">
-        <v>29.27</v>
+        <v>29.17</v>
       </c>
       <c r="GF12">
-        <v>35.09</v>
+        <v>30.86</v>
       </c>
       <c r="GG12">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="GH12">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
       <c r="GI12">
         <v>33.33</v>
       </c>
       <c r="GJ12">
-        <v>46.67</v>
+        <v>40.23</v>
       </c>
       <c r="GK12">
-        <v>30</v>
+        <v>36.36</v>
       </c>
       <c r="GL12">
-        <v>62.42</v>
+        <v>63.92</v>
       </c>
       <c r="GM12">
-        <v>21.05</v>
+        <v>16.67</v>
       </c>
       <c r="GN12">
-        <v>33.33</v>
+        <v>26.67</v>
       </c>
       <c r="GO12">
-        <v>54.55</v>
+        <v>57.14</v>
       </c>
       <c r="GP12">
-        <v>32</v>
+        <v>26.32</v>
       </c>
       <c r="GQ12">
-        <v>17.39</v>
+        <v>17.24</v>
       </c>
       <c r="GR12">
+        <v>41.88</v>
+      </c>
+      <c r="GS12">
+        <v>61.54</v>
+      </c>
+      <c r="GT12">
+        <v>28</v>
+      </c>
+      <c r="GU12">
+        <v>32.37</v>
+      </c>
+      <c r="GV12">
+        <v>40.11</v>
+      </c>
+      <c r="GW12">
+        <v>37.62</v>
+      </c>
+      <c r="GX12">
+        <v>50</v>
+      </c>
+      <c r="GY12">
+        <v>35.03</v>
+      </c>
+      <c r="GZ12">
+        <v>32.64</v>
+      </c>
+      <c r="HA12">
+        <v>50</v>
+      </c>
+      <c r="HB12">
+        <v>59.46</v>
+      </c>
+      <c r="HC12">
+        <v>50</v>
+      </c>
+      <c r="HD12">
+        <v>52.11</v>
+      </c>
+      <c r="HE12">
+        <v>18.92</v>
+      </c>
+      <c r="HF12">
+        <v>48.39</v>
+      </c>
+      <c r="HG12">
+        <v>68.84</v>
+      </c>
+      <c r="HH12">
+        <v>61.54</v>
+      </c>
+      <c r="HI12">
+        <v>20</v>
+      </c>
+      <c r="HJ12">
+        <v>50</v>
+      </c>
+      <c r="HK12">
+        <v>18.18</v>
+      </c>
+      <c r="HL12">
+        <v>50</v>
+      </c>
+      <c r="HM12">
+        <v>65.71</v>
+      </c>
+      <c r="HN12">
+        <v>23.08</v>
+      </c>
+      <c r="HO12">
+        <v>71.43</v>
+      </c>
+      <c r="HP12">
+        <v>48.39</v>
+      </c>
+      <c r="HQ12">
+        <v>19.35</v>
+      </c>
+      <c r="HR12">
+        <v>47.62</v>
+      </c>
+      <c r="HS12">
+        <v>65.57</v>
+      </c>
+      <c r="HT12">
+        <v>37.78</v>
+      </c>
+      <c r="HU12">
+        <v>37.5</v>
+      </c>
+      <c r="HV12">
+        <v>36.68</v>
+      </c>
+      <c r="HW12">
         <v>40</v>
       </c>
-      <c r="GS12">
-        <v>60</v>
-      </c>
-      <c r="GT12">
-        <v>22.24</v>
-      </c>
-      <c r="GU12">
-        <v>29.51</v>
-      </c>
-      <c r="GV12">
-        <v>51.61</v>
-      </c>
-      <c r="GW12">
-        <v>41.3</v>
-      </c>
-      <c r="GX12">
-        <v>50</v>
-      </c>
-      <c r="GY12">
-        <v>44.41</v>
-      </c>
-      <c r="GZ12">
-        <v>31.82</v>
-      </c>
-      <c r="HA12">
-        <v>50</v>
-      </c>
-      <c r="HB12">
-        <v>74.58</v>
-      </c>
-      <c r="HC12">
-        <v>50</v>
-      </c>
-      <c r="HD12">
-        <v>48.9</v>
-      </c>
-      <c r="HE12">
-        <v>22.22</v>
-      </c>
-      <c r="HF12">
-        <v>48.23</v>
-      </c>
-      <c r="HG12">
-        <v>65.09</v>
-      </c>
-      <c r="HH12">
-        <v>66.67</v>
-      </c>
-      <c r="HI12">
-        <v>16.98</v>
-      </c>
-      <c r="HJ12">
-        <v>50</v>
-      </c>
-      <c r="HK12">
-        <v>23.08</v>
-      </c>
-      <c r="HL12">
-        <v>48.39</v>
-      </c>
-      <c r="HM12">
-        <v>61.74</v>
-      </c>
-      <c r="HN12">
-        <v>24.32</v>
-      </c>
-      <c r="HO12">
-        <v>75.47</v>
-      </c>
-      <c r="HP12">
-        <v>50</v>
-      </c>
-      <c r="HQ12">
-        <v>26.32</v>
-      </c>
-      <c r="HR12">
-        <v>47.06</v>
-      </c>
-      <c r="HS12">
-        <v>67.89</v>
-      </c>
-      <c r="HT12">
-        <v>3.1</v>
-      </c>
-      <c r="HU12">
-        <v>41.67</v>
-      </c>
-      <c r="HV12">
-        <v>37.76</v>
-      </c>
-      <c r="HW12">
-        <v>45.45</v>
-      </c>
       <c r="HX12">
-        <v>43.22</v>
+        <v>47.76</v>
       </c>
       <c r="HY12">
-        <v>51.35</v>
+        <v>55.88</v>
       </c>
       <c r="HZ12">
-        <v>36.74</v>
+        <v>42.51</v>
       </c>
       <c r="IA12">
-        <v>35.71</v>
+        <v>33.48</v>
       </c>
       <c r="IB12">
-        <v>63.77</v>
+        <v>62.5</v>
       </c>
       <c r="IC12">
-        <v>52.29</v>
+        <v>54.29</v>
       </c>
       <c r="ID12">
-        <v>41.38</v>
+        <v>36.84</v>
       </c>
       <c r="IE12">
-        <v>36.36</v>
+        <v>31.25</v>
       </c>
       <c r="IF12">
-        <v>38.46</v>
+        <v>33.83</v>
       </c>
       <c r="IG12">
-        <v>43.2</v>
+        <v>39.5</v>
       </c>
       <c r="IH12">
-        <v>54.22</v>
+        <v>57.45</v>
       </c>
       <c r="II12">
         <v>40</v>
       </c>
       <c r="IJ12">
-        <v>60.34</v>
+        <v>64.43</v>
       </c>
       <c r="IK12">
-        <v>52.63</v>
+        <v>54.26</v>
       </c>
       <c r="IL12">
-        <v>45</v>
+        <v>36.36</v>
       </c>
       <c r="IM12">
-        <v>47.25</v>
+        <v>43.4</v>
       </c>
       <c r="IN12">
-        <v>47.66</v>
+        <v>48.57</v>
       </c>
       <c r="IO12">
-        <v>73.68</v>
+        <v>76.47</v>
       </c>
       <c r="IP12">
-        <v>42.86</v>
+        <v>45.45</v>
       </c>
       <c r="IQ12">
-        <v>49.36</v>
+        <v>45.39</v>
       </c>
       <c r="IR12">
         <v>50</v>
       </c>
       <c r="IS12">
-        <v>47.06</v>
+        <v>50</v>
       </c>
       <c r="IT12">
-        <v>69.23</v>
+        <v>62.79</v>
       </c>
       <c r="IU12">
         <v>33.33</v>
       </c>
       <c r="IV12">
-        <v>33.33</v>
+        <v>31.58</v>
       </c>
       <c r="IW12">
-        <v>47.17</v>
+        <v>46.88</v>
       </c>
       <c r="IX12">
-        <v>44.68</v>
+        <v>48.28</v>
       </c>
       <c r="IY12">
-        <v>44.44</v>
+        <v>46.15</v>
       </c>
       <c r="IZ12">
-        <v>31.58</v>
+        <v>26.47</v>
       </c>
       <c r="JA12">
-        <v>27.78</v>
+        <v>23.08</v>
       </c>
       <c r="JB12">
-        <v>54.55</v>
+        <v>48.28</v>
       </c>
       <c r="JC12">
-        <v>79.17</v>
+        <v>82.3</v>
       </c>
       <c r="JD12">
-        <v>64.52</v>
+        <v>56.25</v>
       </c>
       <c r="JE12">
-        <v>28.45</v>
+        <v>25.68</v>
       </c>
       <c r="JF12">
         <v>61.54</v>
       </c>
       <c r="JG12">
-        <v>52.75</v>
+        <v>47.12</v>
       </c>
       <c r="JH12">
-        <v>37.46</v>
+        <v>32.35</v>
       </c>
       <c r="JI12">
-        <v>35.19</v>
+        <v>38.94</v>
       </c>
       <c r="JJ12">
-        <v>44.44</v>
+        <v>48.65</v>
       </c>
       <c r="JK12">
-        <v>17.7</v>
+        <v>15.63</v>
       </c>
       <c r="JL12">
-        <v>52.63</v>
+        <v>48.08</v>
       </c>
       <c r="JM12">
-        <v>60</v>
+        <v>47.37</v>
       </c>
       <c r="JN12">
-        <v>11.11</v>
+        <v>10.14</v>
       </c>
       <c r="JO12">
         <v>33.33</v>
       </c>
       <c r="JP12">
-        <v>25.32</v>
+        <v>29.41</v>
       </c>
       <c r="JQ12">
-        <v>61.25</v>
+        <v>57.28</v>
       </c>
       <c r="JR12">
-        <v>54.55</v>
+        <v>57.14</v>
       </c>
       <c r="JS12">
-        <v>14.29</v>
+        <v>11.29</v>
       </c>
       <c r="JT12">
-        <v>40</v>
+        <v>38.46</v>
       </c>
       <c r="JU12">
-        <v>37.97</v>
+        <v>39.56</v>
       </c>
       <c r="JV12">
-        <v>60</v>
+        <v>53.73</v>
       </c>
       <c r="JW12">
-        <v>4.67</v>
+        <v>4.79</v>
       </c>
       <c r="JX12">
         <v>13.64</v>
       </c>
       <c r="JY12">
-        <v>44.19</v>
+        <v>45.13</v>
       </c>
       <c r="JZ12">
-        <v>30.77</v>
+        <v>25</v>
       </c>
       <c r="KA12">
-        <v>43.48</v>
+        <v>45.28</v>
       </c>
       <c r="KB12">
         <v>40</v>
@@ -11262,40 +11262,40 @@
         <v>30.77</v>
       </c>
       <c r="KE12">
-        <v>42.46</v>
+        <v>42.91</v>
       </c>
       <c r="KF12">
-        <v>38.46</v>
+        <v>42.86</v>
       </c>
       <c r="KG12">
-        <v>54.55</v>
+        <v>48.48</v>
       </c>
       <c r="KH12">
-        <v>47.06</v>
+        <v>36.36</v>
       </c>
       <c r="KI12">
-        <v>40</v>
+        <v>38.89</v>
       </c>
       <c r="KJ12">
-        <v>31.43</v>
+        <v>30.56</v>
       </c>
       <c r="KK12">
-        <v>56.25</v>
+        <v>60.61</v>
       </c>
       <c r="KL12">
-        <v>50</v>
+        <v>44.44</v>
       </c>
       <c r="KM12">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="KN12">
         <v>60</v>
       </c>
       <c r="KO12">
-        <v>26.75</v>
+        <v>27.56</v>
       </c>
       <c r="KP12">
-        <v>40.5</v>
+        <v>41.26</v>
       </c>
     </row>
     <row r="13">
@@ -13119,907 +13119,907 @@
         <v>14/10/2025</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>46.15</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>63.16</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>42.21</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>46.87</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>50.49</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>6.76</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>54.05</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>7.26</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>47.37</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>15.79</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>42.54</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>55.05</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>18.44</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>47.89</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>25.06</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>22.63</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>37.21</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>38.46</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>49.25</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>44.24</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>28.72</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>38.91</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>47.06</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>60.87</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>54.05</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>39.2</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>29.41</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>38.71</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>24.64</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>32.39</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>40.98</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>16.81</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>35.29</v>
+        <v>0</v>
       </c>
       <c r="AV15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AX15">
-        <v>42.92</v>
+        <v>0</v>
       </c>
       <c r="AY15">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="AZ15">
-        <v>47.62</v>
+        <v>0</v>
       </c>
       <c r="BA15">
-        <v>52.79</v>
+        <v>0</v>
       </c>
       <c r="BB15">
-        <v>59.44</v>
+        <v>0</v>
       </c>
       <c r="BC15">
-        <v>62.65</v>
+        <v>0</v>
       </c>
       <c r="BD15">
-        <v>75.68</v>
+        <v>0</v>
       </c>
       <c r="BE15">
-        <v>21.21</v>
+        <v>0</v>
       </c>
       <c r="BF15">
-        <v>40.54</v>
+        <v>0</v>
       </c>
       <c r="BG15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BH15">
-        <v>43.75</v>
+        <v>0</v>
       </c>
       <c r="BI15">
-        <v>46.15</v>
+        <v>0</v>
       </c>
       <c r="BJ15">
-        <v>58.67</v>
+        <v>0</v>
       </c>
       <c r="BK15">
-        <v>56.82</v>
+        <v>0</v>
       </c>
       <c r="BL15">
-        <v>61.54</v>
+        <v>0</v>
       </c>
       <c r="BM15">
-        <v>22.54</v>
+        <v>0</v>
       </c>
       <c r="BN15">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="BO15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BP15">
-        <v>56.25</v>
+        <v>0</v>
       </c>
       <c r="BQ15">
-        <v>46.77</v>
+        <v>0</v>
       </c>
       <c r="BR15">
-        <v>59.39</v>
+        <v>0</v>
       </c>
       <c r="BS15">
-        <v>60.14</v>
+        <v>0</v>
       </c>
       <c r="BT15">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="BU15">
-        <v>49.3</v>
+        <v>0</v>
       </c>
       <c r="BV15">
-        <v>38.46</v>
+        <v>0</v>
       </c>
       <c r="BW15">
-        <v>44.86</v>
+        <v>0</v>
       </c>
       <c r="BX15">
-        <v>48.39</v>
+        <v>0</v>
       </c>
       <c r="BY15">
-        <v>42.86</v>
+        <v>0</v>
       </c>
       <c r="BZ15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CA15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CB15">
-        <v>82.22</v>
+        <v>0</v>
       </c>
       <c r="CC15">
-        <v>18.52</v>
+        <v>0</v>
       </c>
       <c r="CD15">
-        <v>61.68</v>
+        <v>0</v>
       </c>
       <c r="CE15">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="CF15">
-        <v>37.04</v>
+        <v>0</v>
       </c>
       <c r="CG15">
-        <v>53.89</v>
+        <v>0</v>
       </c>
       <c r="CH15">
-        <v>31.03</v>
+        <v>0</v>
       </c>
       <c r="CI15">
-        <v>68.56</v>
+        <v>0</v>
       </c>
       <c r="CJ15">
-        <v>31.58</v>
+        <v>0</v>
       </c>
       <c r="CK15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CL15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="CM15">
-        <v>27.56</v>
+        <v>0</v>
       </c>
       <c r="CN15">
-        <v>44.72</v>
+        <v>0</v>
       </c>
       <c r="CO15">
-        <v>13.04</v>
+        <v>0</v>
       </c>
       <c r="CP15">
-        <v>50.91</v>
+        <v>0</v>
       </c>
       <c r="CQ15">
-        <v>40.61</v>
+        <v>0</v>
       </c>
       <c r="CR15">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="CS15">
-        <v>16.22</v>
+        <v>0</v>
       </c>
       <c r="CT15">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="CU15">
-        <v>52.94</v>
+        <v>0</v>
       </c>
       <c r="CV15">
-        <v>60.61</v>
+        <v>0</v>
       </c>
       <c r="CW15">
-        <v>41.03</v>
+        <v>0</v>
       </c>
       <c r="CX15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CY15">
-        <v>38.1</v>
+        <v>0</v>
       </c>
       <c r="CZ15">
-        <v>68.97</v>
+        <v>0</v>
       </c>
       <c r="DA15">
-        <v>37.21</v>
+        <v>0</v>
       </c>
       <c r="DB15">
-        <v>57.14</v>
+        <v>0</v>
       </c>
       <c r="DC15">
-        <v>54.55</v>
+        <v>0</v>
       </c>
       <c r="DD15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DE15">
-        <v>19.27</v>
+        <v>0</v>
       </c>
       <c r="DF15">
-        <v>60.75</v>
+        <v>0</v>
       </c>
       <c r="DG15">
-        <v>35.71</v>
+        <v>0</v>
       </c>
       <c r="DH15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DI15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="DJ15">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="DK15">
-        <v>58.06</v>
+        <v>0</v>
       </c>
       <c r="DL15">
-        <v>21.13</v>
+        <v>0</v>
       </c>
       <c r="DM15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="DN15">
-        <v>49.54</v>
+        <v>0</v>
       </c>
       <c r="DO15">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="DP15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DQ15">
-        <v>54.55</v>
+        <v>0</v>
       </c>
       <c r="DR15">
-        <v>10.43</v>
+        <v>0</v>
       </c>
       <c r="DS15">
-        <v>47.3</v>
+        <v>0</v>
       </c>
       <c r="DT15">
-        <v>42.98</v>
+        <v>0</v>
       </c>
       <c r="DU15">
-        <v>42.64</v>
+        <v>0</v>
       </c>
       <c r="DV15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="DW15">
-        <v>23.91</v>
+        <v>0</v>
       </c>
       <c r="DX15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DY15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DZ15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EA15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="EB15">
-        <v>57.14</v>
+        <v>0</v>
       </c>
       <c r="EC15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="ED15">
-        <v>49.67</v>
+        <v>0</v>
       </c>
       <c r="EE15">
-        <v>44.64</v>
+        <v>0</v>
       </c>
       <c r="EF15">
-        <v>40.54</v>
+        <v>0</v>
       </c>
       <c r="EG15">
-        <v>58.82</v>
+        <v>0</v>
       </c>
       <c r="EH15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="EI15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="EJ15">
-        <v>24.24</v>
+        <v>0</v>
       </c>
       <c r="EK15">
-        <v>56.34</v>
+        <v>0</v>
       </c>
       <c r="EL15">
-        <v>51.22</v>
+        <v>0</v>
       </c>
       <c r="EM15">
-        <v>60.87</v>
+        <v>0</v>
       </c>
       <c r="EN15">
-        <v>35.71</v>
+        <v>0</v>
       </c>
       <c r="EO15">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="EP15">
-        <v>29.35</v>
+        <v>0</v>
       </c>
       <c r="EQ15">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="ER15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="ES15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="ET15">
-        <v>38.46</v>
+        <v>0</v>
       </c>
       <c r="EU15">
-        <v>5.81</v>
+        <v>0</v>
       </c>
       <c r="EV15">
-        <v>52.17</v>
+        <v>0</v>
       </c>
       <c r="EW15">
-        <v>42.75</v>
+        <v>0</v>
       </c>
       <c r="EX15">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="EY15">
-        <v>20.66</v>
+        <v>0</v>
       </c>
       <c r="EZ15">
-        <v>53.51</v>
+        <v>0</v>
       </c>
       <c r="FA15">
-        <v>35.71</v>
+        <v>0</v>
       </c>
       <c r="FB15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="FC15">
-        <v>53.99</v>
+        <v>0</v>
       </c>
       <c r="FD15">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="FE15">
-        <v>59.01</v>
+        <v>0</v>
       </c>
       <c r="FF15">
-        <v>63.83</v>
+        <v>0</v>
       </c>
       <c r="FG15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FH15">
-        <v>35.59</v>
+        <v>0</v>
       </c>
       <c r="FI15">
-        <v>45.45</v>
+        <v>0</v>
       </c>
       <c r="FJ15">
-        <v>29.63</v>
+        <v>0</v>
       </c>
       <c r="FK15">
-        <v>38.1</v>
+        <v>0</v>
       </c>
       <c r="FL15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FM15">
-        <v>42.11</v>
+        <v>0</v>
       </c>
       <c r="FN15">
-        <v>75.81</v>
+        <v>0</v>
       </c>
       <c r="FO15">
-        <v>48.44</v>
+        <v>0</v>
       </c>
       <c r="FP15">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="FQ15">
-        <v>45.76</v>
+        <v>0</v>
       </c>
       <c r="FR15">
-        <v>44.12</v>
+        <v>0</v>
       </c>
       <c r="FS15">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="FT15">
-        <v>45.83</v>
+        <v>0</v>
       </c>
       <c r="FU15">
-        <v>60.22</v>
+        <v>0</v>
       </c>
       <c r="FV15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FW15">
-        <v>29.94</v>
+        <v>0</v>
       </c>
       <c r="FX15">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="FY15">
-        <v>34.78</v>
+        <v>0</v>
       </c>
       <c r="FZ15">
-        <v>43.08</v>
+        <v>0</v>
       </c>
       <c r="GA15">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="GB15">
-        <v>51.72</v>
+        <v>0</v>
       </c>
       <c r="GC15">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="GD15">
-        <v>31.02</v>
+        <v>0</v>
       </c>
       <c r="GE15">
-        <v>49.45</v>
+        <v>0</v>
       </c>
       <c r="GF15">
-        <v>48.39</v>
+        <v>0</v>
       </c>
       <c r="GG15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="GH15">
-        <v>54.55</v>
+        <v>0</v>
       </c>
       <c r="GI15">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="GJ15">
-        <v>55.56</v>
+        <v>0</v>
       </c>
       <c r="GK15">
-        <v>34.38</v>
+        <v>0</v>
       </c>
       <c r="GL15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GM15">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="GN15">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="GO15">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="GP15">
-        <v>18.25</v>
+        <v>0</v>
       </c>
       <c r="GQ15">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="GR15">
-        <v>68.48</v>
+        <v>0</v>
       </c>
       <c r="GS15">
-        <v>61.54</v>
+        <v>0</v>
       </c>
       <c r="GT15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="GU15">
-        <v>47.06</v>
+        <v>0</v>
       </c>
       <c r="GV15">
-        <v>38.57</v>
+        <v>0</v>
       </c>
       <c r="GW15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GX15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="GY15">
-        <v>39.69</v>
+        <v>0</v>
       </c>
       <c r="GZ15">
-        <v>26.23</v>
+        <v>0</v>
       </c>
       <c r="HA15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="HB15">
-        <v>69.33</v>
+        <v>0</v>
       </c>
       <c r="HC15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="HD15">
-        <v>38.55</v>
+        <v>0</v>
       </c>
       <c r="HE15">
-        <v>15.79</v>
+        <v>0</v>
       </c>
       <c r="HF15">
-        <v>52.34</v>
+        <v>0</v>
       </c>
       <c r="HG15">
-        <v>71.54</v>
+        <v>0</v>
       </c>
       <c r="HH15">
-        <v>54.55</v>
+        <v>0</v>
       </c>
       <c r="HI15">
-        <v>16.85</v>
+        <v>0</v>
       </c>
       <c r="HJ15">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="HK15">
-        <v>30.77</v>
+        <v>0</v>
       </c>
       <c r="HL15">
-        <v>58.72</v>
+        <v>0</v>
       </c>
       <c r="HM15">
-        <v>58.82</v>
+        <v>0</v>
       </c>
       <c r="HN15">
-        <v>29.91</v>
+        <v>0</v>
       </c>
       <c r="HO15">
-        <v>55.81</v>
+        <v>0</v>
       </c>
       <c r="HP15">
-        <v>48.39</v>
+        <v>0</v>
       </c>
       <c r="HQ15">
-        <v>32.43</v>
+        <v>0</v>
       </c>
       <c r="HR15">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="HS15">
-        <v>49.03</v>
+        <v>0</v>
       </c>
       <c r="HT15">
-        <v>40.86</v>
+        <v>0</v>
       </c>
       <c r="HU15">
-        <v>34.15</v>
+        <v>0</v>
       </c>
       <c r="HV15">
-        <v>24.69</v>
+        <v>0</v>
       </c>
       <c r="HW15">
-        <v>52.08</v>
+        <v>0</v>
       </c>
       <c r="HX15">
-        <v>35.58</v>
+        <v>0</v>
       </c>
       <c r="HY15">
-        <v>63.38</v>
+        <v>0</v>
       </c>
       <c r="HZ15">
-        <v>48.04</v>
+        <v>0</v>
       </c>
       <c r="IA15">
-        <v>35.79</v>
+        <v>0</v>
       </c>
       <c r="IB15">
-        <v>55.56</v>
+        <v>0</v>
       </c>
       <c r="IC15">
-        <v>61.29</v>
+        <v>0</v>
       </c>
       <c r="ID15">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="IE15">
-        <v>44.3</v>
+        <v>0</v>
       </c>
       <c r="IF15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="IG15">
-        <v>41.19</v>
+        <v>0</v>
       </c>
       <c r="IH15">
-        <v>66.04</v>
+        <v>0</v>
       </c>
       <c r="II15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="IJ15">
-        <v>59.57</v>
+        <v>0</v>
       </c>
       <c r="IK15">
-        <v>40.74</v>
+        <v>0</v>
       </c>
       <c r="IL15">
-        <v>27.59</v>
+        <v>0</v>
       </c>
       <c r="IM15">
-        <v>24.18</v>
+        <v>0</v>
       </c>
       <c r="IN15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IO15">
-        <v>69.57</v>
+        <v>0</v>
       </c>
       <c r="IP15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="IQ15">
-        <v>38.64</v>
+        <v>0</v>
       </c>
       <c r="IR15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="IS15">
-        <v>52.94</v>
+        <v>0</v>
       </c>
       <c r="IT15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="IU15">
-        <v>20.83</v>
+        <v>0</v>
       </c>
       <c r="IV15">
-        <v>31.58</v>
+        <v>0</v>
       </c>
       <c r="IW15">
-        <v>48.39</v>
+        <v>0</v>
       </c>
       <c r="IX15">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="IY15">
-        <v>50.49</v>
+        <v>0</v>
       </c>
       <c r="IZ15">
-        <v>35.06</v>
+        <v>0</v>
       </c>
       <c r="JA15">
-        <v>30.61</v>
+        <v>0</v>
       </c>
       <c r="JB15">
-        <v>46.15</v>
+        <v>0</v>
       </c>
       <c r="JC15">
-        <v>83.1</v>
+        <v>0</v>
       </c>
       <c r="JD15">
-        <v>54.62</v>
+        <v>0</v>
       </c>
       <c r="JE15">
-        <v>28.38</v>
+        <v>0</v>
       </c>
       <c r="JF15">
-        <v>72.31</v>
+        <v>0</v>
       </c>
       <c r="JG15">
-        <v>26.76</v>
+        <v>0</v>
       </c>
       <c r="JH15">
-        <v>18.82</v>
+        <v>0</v>
       </c>
       <c r="JI15">
-        <v>40.52</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
-        <v>50.65</v>
+        <v>0</v>
       </c>
       <c r="JK15">
-        <v>11.54</v>
+        <v>0</v>
       </c>
       <c r="JL15">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="JM15">
-        <v>21.74</v>
+        <v>0</v>
       </c>
       <c r="JN15">
-        <v>33.71</v>
+        <v>0</v>
       </c>
       <c r="JO15">
-        <v>42.86</v>
+        <v>0</v>
       </c>
       <c r="JP15">
-        <v>35.09</v>
+        <v>0</v>
       </c>
       <c r="JQ15">
-        <v>62.92</v>
+        <v>0</v>
       </c>
       <c r="JR15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="JS15">
-        <v>25.18</v>
+        <v>0</v>
       </c>
       <c r="JT15">
-        <v>38.46</v>
+        <v>0</v>
       </c>
       <c r="JU15">
-        <v>9.68</v>
+        <v>0</v>
       </c>
       <c r="JV15">
-        <v>52.07</v>
+        <v>0</v>
       </c>
       <c r="JW15">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="JX15">
-        <v>12.82</v>
+        <v>0</v>
       </c>
       <c r="JY15">
-        <v>24.51</v>
+        <v>0</v>
       </c>
       <c r="JZ15">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="KA15">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="KB15">
-        <v>42.86</v>
+        <v>0</v>
       </c>
       <c r="KC15">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="KD15">
-        <v>27.27</v>
+        <v>0</v>
       </c>
       <c r="KE15">
-        <v>76.15</v>
+        <v>0</v>
       </c>
       <c r="KF15">
-        <v>47.37</v>
+        <v>0</v>
       </c>
       <c r="KG15">
-        <v>57.85</v>
+        <v>0</v>
       </c>
       <c r="KH15">
-        <v>45.9</v>
+        <v>0</v>
       </c>
       <c r="KI15">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="KJ15">
-        <v>36.55</v>
+        <v>0</v>
       </c>
       <c r="KK15">
-        <v>51.13</v>
+        <v>0</v>
       </c>
       <c r="KL15">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="KM15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="KN15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="KO15">
-        <v>21.54</v>
+        <v>0</v>
       </c>
       <c r="KP15">
-        <v>28.41</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RSI_14D_temp.xlsx
+++ b/RSI_14D_temp.xlsx
@@ -3134,259 +3134,259 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>60.61</v>
+        <v>51.02</v>
       </c>
       <c r="D4">
         <v>50</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>42.55</v>
+        <v>45.45</v>
       </c>
       <c r="G4">
-        <v>80.2</v>
+        <v>56.45</v>
       </c>
       <c r="H4">
-        <v>67.33</v>
+        <v>60.58</v>
       </c>
       <c r="I4">
-        <v>48.65</v>
+        <v>46.15</v>
       </c>
       <c r="J4">
-        <v>66.09</v>
+        <v>63.76</v>
       </c>
       <c r="K4">
-        <v>68.78</v>
+        <v>56.38</v>
       </c>
       <c r="L4">
-        <v>71.11</v>
+        <v>70.18</v>
       </c>
       <c r="M4">
-        <v>54.24</v>
+        <v>53.33</v>
       </c>
       <c r="N4">
         <v>50</v>
       </c>
       <c r="O4">
-        <v>74.57</v>
+        <v>72.88</v>
       </c>
       <c r="P4">
-        <v>49.36</v>
+        <v>43.54</v>
       </c>
       <c r="Q4">
-        <v>57.14</v>
+        <v>50</v>
       </c>
       <c r="R4">
-        <v>66.32</v>
+        <v>61.76</v>
       </c>
       <c r="S4">
+        <v>57.47</v>
+      </c>
+      <c r="T4">
+        <v>51.25</v>
+      </c>
+      <c r="U4">
+        <v>34.32</v>
+      </c>
+      <c r="V4">
+        <v>54.35</v>
+      </c>
+      <c r="W4">
         <v>66.67</v>
       </c>
-      <c r="T4">
-        <v>55.38</v>
-      </c>
-      <c r="U4">
-        <v>39.19</v>
-      </c>
-      <c r="V4">
-        <v>50.88</v>
-      </c>
-      <c r="W4">
-        <v>71.54</v>
-      </c>
       <c r="X4">
-        <v>59.49</v>
+        <v>60.17</v>
       </c>
       <c r="Y4">
-        <v>62.5</v>
+        <v>63.03</v>
       </c>
       <c r="Z4">
-        <v>43.66</v>
+        <v>35.31</v>
       </c>
       <c r="AA4">
         <v>66.67</v>
       </c>
       <c r="AB4">
-        <v>51.52</v>
+        <v>49.51</v>
       </c>
       <c r="AC4">
-        <v>63.64</v>
+        <v>62.92</v>
       </c>
       <c r="AD4">
-        <v>44.35</v>
+        <v>49.34</v>
       </c>
       <c r="AE4">
         <v>50</v>
       </c>
       <c r="AF4">
-        <v>63.77</v>
+        <v>51.56</v>
       </c>
       <c r="AG4">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="AH4">
-        <v>51.41</v>
+        <v>56.91</v>
       </c>
       <c r="AI4">
-        <v>32.99</v>
+        <v>30.71</v>
       </c>
       <c r="AJ4">
+        <v>57.14</v>
+      </c>
+      <c r="AK4">
+        <v>51.61</v>
+      </c>
+      <c r="AL4">
+        <v>65.81</v>
+      </c>
+      <c r="AM4">
+        <v>72.33</v>
+      </c>
+      <c r="AN4">
+        <v>71.03</v>
+      </c>
+      <c r="AO4">
+        <v>48.08</v>
+      </c>
+      <c r="AP4">
+        <v>41.56</v>
+      </c>
+      <c r="AQ4">
+        <v>57.59</v>
+      </c>
+      <c r="AR4">
+        <v>49.45</v>
+      </c>
+      <c r="AS4">
+        <v>55.17</v>
+      </c>
+      <c r="AT4">
+        <v>33.35</v>
+      </c>
+      <c r="AU4">
+        <v>49.23</v>
+      </c>
+      <c r="AV4">
+        <v>50</v>
+      </c>
+      <c r="AW4">
+        <v>42.57</v>
+      </c>
+      <c r="AX4">
+        <v>56.52</v>
+      </c>
+      <c r="AY4">
+        <v>38.1</v>
+      </c>
+      <c r="AZ4">
+        <v>50.91</v>
+      </c>
+      <c r="BA4">
+        <v>35.71</v>
+      </c>
+      <c r="BB4">
+        <v>52.46</v>
+      </c>
+      <c r="BC4">
+        <v>40.95</v>
+      </c>
+      <c r="BD4">
+        <v>70.68</v>
+      </c>
+      <c r="BE4">
+        <v>30.43</v>
+      </c>
+      <c r="BF4">
+        <v>62.18</v>
+      </c>
+      <c r="BG4">
+        <v>61.54</v>
+      </c>
+      <c r="BH4">
+        <v>66.67</v>
+      </c>
+      <c r="BI4">
+        <v>66.67</v>
+      </c>
+      <c r="BJ4">
+        <v>43.84</v>
+      </c>
+      <c r="BK4">
+        <v>33.96</v>
+      </c>
+      <c r="BL4">
+        <v>87.8</v>
+      </c>
+      <c r="BM4">
+        <v>53.42</v>
+      </c>
+      <c r="BN4">
+        <v>33.96</v>
+      </c>
+      <c r="BO4">
+        <v>47.71</v>
+      </c>
+      <c r="BP4">
+        <v>52.63</v>
+      </c>
+      <c r="BQ4">
+        <v>47.01</v>
+      </c>
+      <c r="BR4">
+        <v>47.17</v>
+      </c>
+      <c r="BS4">
+        <v>47.46</v>
+      </c>
+      <c r="BT4">
+        <v>68.29</v>
+      </c>
+      <c r="BU4">
+        <v>60.44</v>
+      </c>
+      <c r="BV4">
+        <v>52.94</v>
+      </c>
+      <c r="BW4">
+        <v>45.57</v>
+      </c>
+      <c r="BX4">
+        <v>52.15</v>
+      </c>
+      <c r="BY4">
+        <v>36.84</v>
+      </c>
+      <c r="BZ4">
+        <v>54.55</v>
+      </c>
+      <c r="CA4">
+        <v>54.14</v>
+      </c>
+      <c r="CB4">
+        <v>47.37</v>
+      </c>
+      <c r="CC4">
+        <v>65.93</v>
+      </c>
+      <c r="CD4">
+        <v>55.16</v>
+      </c>
+      <c r="CE4">
+        <v>52.63</v>
+      </c>
+      <c r="CF4">
         <v>60</v>
       </c>
-      <c r="AK4">
-        <v>45.71</v>
-      </c>
-      <c r="AL4">
-        <v>76.58</v>
-      </c>
-      <c r="AM4">
-        <v>70.77</v>
-      </c>
-      <c r="AN4">
-        <v>78.44</v>
-      </c>
-      <c r="AO4">
-        <v>48.78</v>
-      </c>
-      <c r="AP4">
-        <v>42.11</v>
-      </c>
-      <c r="AQ4">
-        <v>60.69</v>
-      </c>
-      <c r="AR4">
-        <v>57.14</v>
-      </c>
-      <c r="AS4">
-        <v>54.55</v>
-      </c>
-      <c r="AT4">
-        <v>33.3</v>
-      </c>
-      <c r="AU4">
-        <v>50</v>
-      </c>
-      <c r="AV4">
-        <v>50</v>
-      </c>
-      <c r="AW4">
-        <v>51.22</v>
-      </c>
-      <c r="AX4">
-        <v>61.9</v>
-      </c>
-      <c r="AY4">
+      <c r="CG4">
+        <v>49.09</v>
+      </c>
+      <c r="CH4">
         <v>42.86</v>
       </c>
-      <c r="AZ4">
-        <v>46.67</v>
-      </c>
-      <c r="BA4">
-        <v>40</v>
-      </c>
-      <c r="BB4">
-        <v>56.47</v>
-      </c>
-      <c r="BC4">
-        <v>43.43</v>
-      </c>
-      <c r="BD4">
-        <v>67.5</v>
-      </c>
-      <c r="BE4">
-        <v>36.84</v>
-      </c>
-      <c r="BF4">
-        <v>66.06</v>
-      </c>
-      <c r="BG4">
-        <v>66.67</v>
-      </c>
-      <c r="BH4">
-        <v>62.5</v>
-      </c>
-      <c r="BI4">
-        <v>69.23</v>
-      </c>
-      <c r="BJ4">
-        <v>48.98</v>
-      </c>
-      <c r="BK4">
-        <v>34.78</v>
-      </c>
-      <c r="BL4">
-        <v>88.89</v>
-      </c>
-      <c r="BM4">
-        <v>68.25</v>
-      </c>
-      <c r="BN4">
-        <v>33.33</v>
-      </c>
-      <c r="BO4">
-        <v>56.52</v>
-      </c>
-      <c r="BP4">
-        <v>58.95</v>
-      </c>
-      <c r="BQ4">
-        <v>48.89</v>
-      </c>
-      <c r="BR4">
-        <v>61.98</v>
-      </c>
-      <c r="BS4">
-        <v>51.61</v>
-      </c>
-      <c r="BT4">
-        <v>67.31</v>
-      </c>
-      <c r="BU4">
-        <v>59.46</v>
-      </c>
-      <c r="BV4">
-        <v>50</v>
-      </c>
-      <c r="BW4">
-        <v>40.68</v>
-      </c>
-      <c r="BX4">
-        <v>58.62</v>
-      </c>
-      <c r="BY4">
-        <v>31.82</v>
-      </c>
-      <c r="BZ4">
-        <v>52.94</v>
-      </c>
-      <c r="CA4">
-        <v>63.55</v>
-      </c>
-      <c r="CB4">
-        <v>52.38</v>
-      </c>
-      <c r="CC4">
-        <v>65.22</v>
-      </c>
-      <c r="CD4">
-        <v>57.21</v>
-      </c>
-      <c r="CE4">
-        <v>57.14</v>
-      </c>
-      <c r="CF4">
-        <v>65.22</v>
-      </c>
-      <c r="CG4">
-        <v>46.15</v>
-      </c>
-      <c r="CH4">
-        <v>49.09</v>
-      </c>
       <c r="CI4">
-        <v>66.33</v>
+        <v>68.69</v>
       </c>
       <c r="CJ4">
         <v>33.33</v>
@@ -3398,22 +3398,22 @@
         <v>50</v>
       </c>
       <c r="CM4">
-        <v>23.29</v>
+        <v>28.18</v>
       </c>
       <c r="CN4">
-        <v>60.49</v>
+        <v>58.94</v>
       </c>
       <c r="CO4">
-        <v>48</v>
+        <v>43.37</v>
       </c>
       <c r="CP4">
-        <v>34.18</v>
+        <v>36</v>
       </c>
       <c r="CQ4">
-        <v>45.45</v>
+        <v>38.7</v>
       </c>
       <c r="CR4">
-        <v>37.93</v>
+        <v>37.08</v>
       </c>
       <c r="CS4">
         <v>22.73</v>
@@ -3425,10 +3425,10 @@
         <v>50</v>
       </c>
       <c r="CV4">
-        <v>52.38</v>
+        <v>54.1</v>
       </c>
       <c r="CW4">
-        <v>27.78</v>
+        <v>27.27</v>
       </c>
       <c r="CX4">
         <v>50</v>
@@ -3437,76 +3437,76 @@
         <v>54.79</v>
       </c>
       <c r="CZ4">
-        <v>61.54</v>
+        <v>62.5</v>
       </c>
       <c r="DA4">
-        <v>71.31</v>
+        <v>55.41</v>
       </c>
       <c r="DB4">
-        <v>53.85</v>
+        <v>51.22</v>
       </c>
       <c r="DC4">
-        <v>55.56</v>
+        <v>52.63</v>
       </c>
       <c r="DD4">
-        <v>57.14</v>
+        <v>50</v>
       </c>
       <c r="DE4">
-        <v>55.9</v>
+        <v>43.48</v>
       </c>
       <c r="DF4">
-        <v>56.1</v>
+        <v>53.49</v>
       </c>
       <c r="DG4">
-        <v>52.94</v>
+        <v>44.44</v>
       </c>
       <c r="DH4">
         <v>50</v>
       </c>
       <c r="DI4">
-        <v>40</v>
+        <v>42.86</v>
       </c>
       <c r="DJ4">
-        <v>41.28</v>
+        <v>45.45</v>
       </c>
       <c r="DK4">
         <v>42.86</v>
       </c>
       <c r="DL4">
-        <v>45.6</v>
+        <v>46.03</v>
       </c>
       <c r="DM4">
-        <v>48.28</v>
+        <v>42.17</v>
       </c>
       <c r="DN4">
-        <v>33.59</v>
+        <v>42.55</v>
       </c>
       <c r="DO4">
-        <v>57.14</v>
+        <v>58.82</v>
       </c>
       <c r="DP4">
         <v>66.67</v>
       </c>
       <c r="DQ4">
-        <v>52.94</v>
+        <v>44.44</v>
       </c>
       <c r="DR4">
-        <v>70.89</v>
+        <v>50.72</v>
       </c>
       <c r="DS4">
-        <v>20.66</v>
+        <v>18.87</v>
       </c>
       <c r="DT4">
-        <v>12.2</v>
+        <v>52.63</v>
       </c>
       <c r="DU4">
-        <v>47.55</v>
+        <v>42.71</v>
       </c>
       <c r="DV4">
-        <v>52.94</v>
+        <v>54.55</v>
       </c>
       <c r="DW4">
-        <v>38.46</v>
+        <v>28.3</v>
       </c>
       <c r="DX4">
         <v>50</v>
@@ -3527,13 +3527,13 @@
         <v>50</v>
       </c>
       <c r="ED4">
-        <v>62.14</v>
+        <v>55.94</v>
       </c>
       <c r="EE4">
-        <v>47.15</v>
+        <v>43.07</v>
       </c>
       <c r="EF4">
-        <v>54.55</v>
+        <v>45.71</v>
       </c>
       <c r="EG4">
         <v>59.46</v>
@@ -3545,340 +3545,340 @@
         <v>33.33</v>
       </c>
       <c r="EJ4">
-        <v>45.64</v>
+        <v>42.71</v>
       </c>
       <c r="EK4">
-        <v>42.86</v>
+        <v>43.56</v>
       </c>
       <c r="EL4">
-        <v>64.56</v>
+        <v>54.84</v>
       </c>
       <c r="EM4">
-        <v>57.62</v>
+        <v>56.86</v>
       </c>
       <c r="EN4">
-        <v>55.93</v>
+        <v>46.81</v>
       </c>
       <c r="EO4">
-        <v>32.14</v>
+        <v>34.18</v>
       </c>
       <c r="EP4">
-        <v>45.51</v>
+        <v>41.5</v>
       </c>
       <c r="EQ4">
-        <v>63.91</v>
+        <v>66.23</v>
       </c>
       <c r="ER4">
-        <v>54.55</v>
+        <v>57.14</v>
       </c>
       <c r="ES4">
-        <v>61.45</v>
+        <v>60.71</v>
       </c>
       <c r="ET4">
-        <v>67.38</v>
+        <v>67.06</v>
       </c>
       <c r="EU4">
-        <v>45.21</v>
+        <v>39.01</v>
       </c>
       <c r="EV4">
-        <v>52.29</v>
+        <v>46.34</v>
       </c>
       <c r="EW4">
-        <v>56.87</v>
+        <v>55.99</v>
       </c>
       <c r="EX4">
-        <v>36.04</v>
+        <v>22.96</v>
       </c>
       <c r="EY4">
-        <v>42.86</v>
+        <v>40.54</v>
       </c>
       <c r="EZ4">
-        <v>34.12</v>
+        <v>32.27</v>
       </c>
       <c r="FA4">
-        <v>48.78</v>
+        <v>48.08</v>
       </c>
       <c r="FB4">
         <v>63.64</v>
       </c>
       <c r="FC4">
-        <v>50.29</v>
+        <v>46.4</v>
       </c>
       <c r="FD4">
-        <v>58.65</v>
+        <v>49.37</v>
       </c>
       <c r="FE4">
-        <v>30.67</v>
+        <v>21.5</v>
       </c>
       <c r="FF4">
-        <v>41.18</v>
+        <v>32.12</v>
       </c>
       <c r="FG4">
         <v>50</v>
       </c>
       <c r="FH4">
-        <v>54.55</v>
+        <v>48.28</v>
       </c>
       <c r="FI4">
-        <v>43.56</v>
+        <v>45.45</v>
       </c>
       <c r="FJ4">
-        <v>74.14</v>
+        <v>74.63</v>
       </c>
       <c r="FK4">
-        <v>28.57</v>
+        <v>26.42</v>
       </c>
       <c r="FL4">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="FM4">
-        <v>52.22</v>
+        <v>52.04</v>
       </c>
       <c r="FN4">
+        <v>45.71</v>
+      </c>
+      <c r="FO4">
+        <v>56.47</v>
+      </c>
+      <c r="FP4">
+        <v>33.33</v>
+      </c>
+      <c r="FQ4">
+        <v>43.24</v>
+      </c>
+      <c r="FR4">
+        <v>45.07</v>
+      </c>
+      <c r="FS4">
+        <v>47.62</v>
+      </c>
+      <c r="FT4">
         <v>48</v>
       </c>
-      <c r="FO4">
-        <v>73.47</v>
-      </c>
-      <c r="FP4">
-        <v>50</v>
-      </c>
-      <c r="FQ4">
-        <v>37.5</v>
-      </c>
-      <c r="FR4">
-        <v>40</v>
-      </c>
-      <c r="FS4">
-        <v>48.78</v>
-      </c>
-      <c r="FT4">
-        <v>48.65</v>
-      </c>
       <c r="FU4">
-        <v>66.93</v>
+        <v>65.38</v>
       </c>
       <c r="FV4">
-        <v>40</v>
+        <v>44.44</v>
       </c>
       <c r="FW4">
-        <v>48.6</v>
+        <v>45.18</v>
       </c>
       <c r="FX4">
-        <v>76.45</v>
+        <v>74.36</v>
       </c>
       <c r="FY4">
-        <v>57.14</v>
+        <v>52.38</v>
       </c>
       <c r="FZ4">
-        <v>56.46</v>
+        <v>57.24</v>
       </c>
       <c r="GA4">
-        <v>57.14</v>
+        <v>53.95</v>
       </c>
       <c r="GB4">
         <v>40</v>
       </c>
       <c r="GC4">
-        <v>45.6</v>
+        <v>44.19</v>
       </c>
       <c r="GD4">
-        <v>80.04</v>
+        <v>61.5</v>
       </c>
       <c r="GE4">
-        <v>64.64</v>
+        <v>60</v>
       </c>
       <c r="GF4">
-        <v>53.85</v>
+        <v>45.9</v>
       </c>
       <c r="GG4">
         <v>60</v>
       </c>
       <c r="GH4">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
       <c r="GI4">
         <v>50</v>
       </c>
       <c r="GJ4">
-        <v>28.89</v>
+        <v>37.14</v>
       </c>
       <c r="GK4">
-        <v>51.11</v>
+        <v>48.94</v>
       </c>
       <c r="GL4">
-        <v>21.43</v>
+        <v>23.53</v>
       </c>
       <c r="GM4">
-        <v>73.85</v>
+        <v>68.18</v>
       </c>
       <c r="GN4">
-        <v>50</v>
+        <v>47.06</v>
       </c>
       <c r="GO4">
-        <v>50</v>
+        <v>52.63</v>
       </c>
       <c r="GP4">
-        <v>61.41</v>
+        <v>55.22</v>
       </c>
       <c r="GQ4">
-        <v>59.46</v>
+        <v>60.44</v>
       </c>
       <c r="GR4">
-        <v>30.53</v>
+        <v>33.14</v>
       </c>
       <c r="GS4">
         <v>66.67</v>
       </c>
       <c r="GT4">
-        <v>35.86</v>
+        <v>24.39</v>
       </c>
       <c r="GU4">
         <v>47.37</v>
       </c>
       <c r="GV4">
-        <v>54.33</v>
+        <v>54.76</v>
       </c>
       <c r="GW4">
-        <v>40.74</v>
+        <v>46.48</v>
       </c>
       <c r="GX4">
         <v>50</v>
       </c>
       <c r="GY4">
-        <v>23.44</v>
+        <v>23.7</v>
       </c>
       <c r="GZ4">
-        <v>60.66</v>
+        <v>63.79</v>
       </c>
       <c r="HA4">
         <v>50</v>
       </c>
       <c r="HB4">
+        <v>44.75</v>
+      </c>
+      <c r="HC4">
+        <v>50</v>
+      </c>
+      <c r="HD4">
         <v>37.5</v>
       </c>
-      <c r="HC4">
-        <v>50</v>
-      </c>
-      <c r="HD4">
-        <v>42.79</v>
-      </c>
       <c r="HE4">
-        <v>42.86</v>
+        <v>25</v>
       </c>
       <c r="HF4">
-        <v>72.92</v>
+        <v>68.57</v>
       </c>
       <c r="HG4">
-        <v>67.08</v>
+        <v>60.54</v>
       </c>
       <c r="HH4">
-        <v>66.67</v>
+        <v>69.23</v>
       </c>
       <c r="HI4">
-        <v>30.23</v>
+        <v>30.71</v>
       </c>
       <c r="HJ4">
         <v>40</v>
       </c>
       <c r="HK4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="HL4">
-        <v>33.33</v>
+        <v>31.58</v>
       </c>
       <c r="HM4">
-        <v>49.22</v>
+        <v>42.57</v>
       </c>
       <c r="HN4">
         <v>31.03</v>
       </c>
       <c r="HO4">
-        <v>67.39</v>
+        <v>68.28</v>
       </c>
       <c r="HP4">
-        <v>42.86</v>
+        <v>45</v>
       </c>
       <c r="HQ4">
-        <v>31.19</v>
+        <v>28.18</v>
       </c>
       <c r="HR4">
+        <v>64.1</v>
+      </c>
+      <c r="HS4">
+        <v>48.2</v>
+      </c>
+      <c r="HT4">
+        <v>70.99</v>
+      </c>
+      <c r="HU4">
+        <v>66.67</v>
+      </c>
+      <c r="HV4">
+        <v>42.37</v>
+      </c>
+      <c r="HW4">
+        <v>42.38</v>
+      </c>
+      <c r="HX4">
+        <v>77.88</v>
+      </c>
+      <c r="HY4">
+        <v>37.5</v>
+      </c>
+      <c r="HZ4">
+        <v>57.61</v>
+      </c>
+      <c r="IA4">
+        <v>33.86</v>
+      </c>
+      <c r="IB4">
+        <v>68.63</v>
+      </c>
+      <c r="IC4">
+        <v>40.3</v>
+      </c>
+      <c r="ID4">
+        <v>49.23</v>
+      </c>
+      <c r="IE4">
+        <v>37.5</v>
+      </c>
+      <c r="IF4">
+        <v>54.93</v>
+      </c>
+      <c r="IG4">
+        <v>63.7</v>
+      </c>
+      <c r="IH4">
         <v>62.5</v>
       </c>
-      <c r="HS4">
-        <v>52.91</v>
-      </c>
-      <c r="HT4">
-        <v>72.9</v>
-      </c>
-      <c r="HU4">
-        <v>75</v>
-      </c>
-      <c r="HV4">
-        <v>46.78</v>
-      </c>
-      <c r="HW4">
-        <v>44.44</v>
-      </c>
-      <c r="HX4">
-        <v>73.01</v>
-      </c>
-      <c r="HY4">
-        <v>44.44</v>
-      </c>
-      <c r="HZ4">
-        <v>44.54</v>
-      </c>
-      <c r="IA4">
-        <v>36.91</v>
-      </c>
-      <c r="IB4">
-        <v>73.68</v>
-      </c>
-      <c r="IC4">
-        <v>50.7</v>
-      </c>
-      <c r="ID4">
-        <v>51.61</v>
-      </c>
-      <c r="IE4">
-        <v>52.94</v>
-      </c>
-      <c r="IF4">
-        <v>52</v>
-      </c>
-      <c r="IG4">
-        <v>75.72</v>
-      </c>
-      <c r="IH4">
-        <v>58.82</v>
-      </c>
       <c r="II4">
-        <v>70</v>
+        <v>66.67</v>
       </c>
       <c r="IJ4">
-        <v>51.61</v>
+        <v>50.63</v>
       </c>
       <c r="IK4">
-        <v>62.79</v>
+        <v>63.53</v>
       </c>
       <c r="IL4">
-        <v>34.62</v>
+        <v>36.8</v>
       </c>
       <c r="IM4">
-        <v>65.91</v>
+        <v>67.18</v>
       </c>
       <c r="IN4">
-        <v>42.11</v>
+        <v>41.38</v>
       </c>
       <c r="IO4">
-        <v>67.95</v>
+        <v>66.29</v>
       </c>
       <c r="IP4">
         <v>60</v>
       </c>
       <c r="IQ4">
-        <v>44.44</v>
+        <v>37.8</v>
       </c>
       <c r="IR4">
         <v>60</v>
@@ -3890,133 +3890,133 @@
         <v>75</v>
       </c>
       <c r="IU4">
-        <v>72.73</v>
+        <v>64</v>
       </c>
       <c r="IV4">
-        <v>48.78</v>
+        <v>51.02</v>
       </c>
       <c r="IW4">
         <v>57.14</v>
       </c>
       <c r="IX4">
-        <v>47.06</v>
+        <v>48</v>
       </c>
       <c r="IY4">
-        <v>58.21</v>
+        <v>56.52</v>
       </c>
       <c r="IZ4">
-        <v>49.37</v>
+        <v>50</v>
       </c>
       <c r="JA4">
-        <v>51.22</v>
+        <v>47.92</v>
       </c>
       <c r="JB4">
-        <v>57.14</v>
+        <v>60.44</v>
       </c>
       <c r="JC4">
-        <v>74.6</v>
+        <v>71.43</v>
       </c>
       <c r="JD4">
-        <v>55.32</v>
+        <v>59.09</v>
       </c>
       <c r="JE4">
-        <v>51.11</v>
+        <v>48.94</v>
       </c>
       <c r="JF4">
-        <v>44</v>
+        <v>47.83</v>
       </c>
       <c r="JG4">
-        <v>56.89</v>
+        <v>56.15</v>
       </c>
       <c r="JH4">
-        <v>81.44</v>
+        <v>54.48</v>
       </c>
       <c r="JI4">
-        <v>69.33</v>
+        <v>61.39</v>
       </c>
       <c r="JJ4">
-        <v>35.29</v>
+        <v>37.5</v>
       </c>
       <c r="JK4">
-        <v>30.77</v>
+        <v>28.57</v>
       </c>
       <c r="JL4">
-        <v>66.67</v>
+        <v>68.09</v>
       </c>
       <c r="JM4">
-        <v>52</v>
+        <v>56.03</v>
       </c>
       <c r="JN4">
-        <v>62</v>
+        <v>49.6</v>
       </c>
       <c r="JO4">
-        <v>34.48</v>
+        <v>49.11</v>
       </c>
       <c r="JP4">
-        <v>19.67</v>
+        <v>21.21</v>
       </c>
       <c r="JQ4">
-        <v>32.62</v>
+        <v>39.66</v>
       </c>
       <c r="JR4">
         <v>66.67</v>
       </c>
       <c r="JS4">
-        <v>64.59</v>
+        <v>53.64</v>
       </c>
       <c r="JT4">
         <v>29.41</v>
       </c>
       <c r="JU4">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="JV4">
-        <v>56.96</v>
+        <v>54.55</v>
       </c>
       <c r="JW4">
-        <v>66.35</v>
+        <v>61.83</v>
       </c>
       <c r="JX4">
-        <v>44.19</v>
+        <v>46.8</v>
       </c>
       <c r="JY4">
-        <v>17.74</v>
+        <v>15.58</v>
       </c>
       <c r="JZ4">
-        <v>32</v>
+        <v>29.41</v>
       </c>
       <c r="KA4">
-        <v>33.33</v>
+        <v>35.64</v>
       </c>
       <c r="KB4">
         <v>50</v>
       </c>
       <c r="KC4">
-        <v>54.55</v>
+        <v>53.33</v>
       </c>
       <c r="KD4">
-        <v>66.67</v>
+        <v>68.97</v>
       </c>
       <c r="KE4">
-        <v>39.9</v>
+        <v>31.45</v>
       </c>
       <c r="KF4">
         <v>50</v>
       </c>
       <c r="KG4">
-        <v>30.3</v>
+        <v>27.27</v>
       </c>
       <c r="KH4">
-        <v>41.24</v>
+        <v>40</v>
       </c>
       <c r="KI4">
-        <v>65.22</v>
+        <v>62.5</v>
       </c>
       <c r="KJ4">
-        <v>44.44</v>
+        <v>42.11</v>
       </c>
       <c r="KK4">
-        <v>59.02</v>
+        <v>55.36</v>
       </c>
       <c r="KL4">
         <v>50</v>
@@ -4028,10 +4028,10 @@
         <v>50</v>
       </c>
       <c r="KO4">
-        <v>17.75</v>
+        <v>21.32</v>
       </c>
       <c r="KP4">
-        <v>53.92</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="5">
@@ -4042,259 +4042,259 @@
         <v>50</v>
       </c>
       <c r="C5">
-        <v>59.37</v>
+        <v>60.61</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>63.64</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>42.55</v>
       </c>
       <c r="G5">
-        <v>79.83</v>
+        <v>80.2</v>
       </c>
       <c r="H5">
         <v>67.33</v>
       </c>
       <c r="I5">
-        <v>45.32</v>
+        <v>48.65</v>
       </c>
       <c r="J5">
-        <v>64.86</v>
+        <v>66.09</v>
       </c>
       <c r="K5">
-        <v>66.43</v>
+        <v>68.78</v>
       </c>
       <c r="L5">
-        <v>72.73</v>
+        <v>71.11</v>
       </c>
       <c r="M5">
+        <v>54.24</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="O5">
+        <v>74.57</v>
+      </c>
+      <c r="P5">
+        <v>49.36</v>
+      </c>
+      <c r="Q5">
         <v>57.14</v>
       </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5">
-        <v>63.24</v>
-      </c>
-      <c r="P5">
-        <v>44.89</v>
-      </c>
-      <c r="Q5">
-        <v>58.82</v>
-      </c>
       <c r="R5">
-        <v>61.76</v>
+        <v>66.32</v>
       </c>
       <c r="S5">
-        <v>60.79</v>
+        <v>66.67</v>
       </c>
       <c r="T5">
-        <v>52.01</v>
+        <v>55.38</v>
       </c>
       <c r="U5">
         <v>39.19</v>
       </c>
       <c r="V5">
-        <v>51.65</v>
+        <v>50.88</v>
       </c>
       <c r="W5">
-        <v>71.43</v>
+        <v>71.54</v>
       </c>
       <c r="X5">
-        <v>55.82</v>
+        <v>59.49</v>
       </c>
       <c r="Y5">
-        <v>60.98</v>
+        <v>62.5</v>
       </c>
       <c r="Z5">
-        <v>41.15</v>
+        <v>43.66</v>
       </c>
       <c r="AA5">
         <v>66.67</v>
       </c>
       <c r="AB5">
-        <v>54.55</v>
+        <v>51.52</v>
       </c>
       <c r="AC5">
-        <v>70.09</v>
+        <v>63.64</v>
       </c>
       <c r="AD5">
-        <v>43.84</v>
+        <v>44.35</v>
       </c>
       <c r="AE5">
         <v>50</v>
       </c>
       <c r="AF5">
-        <v>60.73</v>
+        <v>63.77</v>
       </c>
       <c r="AG5">
-        <v>42.86</v>
+        <v>37.5</v>
       </c>
       <c r="AH5">
-        <v>52.6</v>
+        <v>51.41</v>
       </c>
       <c r="AI5">
-        <v>44.69</v>
+        <v>32.99</v>
       </c>
       <c r="AJ5">
         <v>60</v>
       </c>
       <c r="AK5">
-        <v>51.61</v>
+        <v>45.71</v>
       </c>
       <c r="AL5">
-        <v>72</v>
+        <v>76.58</v>
       </c>
       <c r="AM5">
-        <v>72.33</v>
+        <v>70.77</v>
       </c>
       <c r="AN5">
-        <v>75.65</v>
+        <v>78.44</v>
       </c>
       <c r="AO5">
-        <v>46.15</v>
+        <v>48.78</v>
       </c>
       <c r="AP5">
-        <v>45.07</v>
+        <v>42.11</v>
       </c>
       <c r="AQ5">
-        <v>55.81</v>
+        <v>60.69</v>
       </c>
       <c r="AR5">
-        <v>56.96</v>
+        <v>57.14</v>
       </c>
       <c r="AS5">
+        <v>54.55</v>
+      </c>
+      <c r="AT5">
+        <v>33.3</v>
+      </c>
+      <c r="AU5">
+        <v>50</v>
+      </c>
+      <c r="AV5">
+        <v>50</v>
+      </c>
+      <c r="AW5">
         <v>51.22</v>
       </c>
-      <c r="AT5">
-        <v>39.9</v>
-      </c>
-      <c r="AU5">
-        <v>45.07</v>
-      </c>
-      <c r="AV5">
-        <v>50</v>
-      </c>
-      <c r="AW5">
-        <v>57.14</v>
-      </c>
       <c r="AX5">
-        <v>66.1</v>
+        <v>61.9</v>
       </c>
       <c r="AY5">
         <v>42.86</v>
       </c>
       <c r="AZ5">
-        <v>48.28</v>
+        <v>46.67</v>
       </c>
       <c r="BA5">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BB5">
-        <v>63.87</v>
+        <v>56.47</v>
       </c>
       <c r="BC5">
-        <v>47.25</v>
+        <v>43.43</v>
       </c>
       <c r="BD5">
-        <v>70.68</v>
+        <v>67.5</v>
       </c>
       <c r="BE5">
-        <v>36.36</v>
+        <v>36.84</v>
       </c>
       <c r="BF5">
-        <v>60.63</v>
+        <v>66.06</v>
       </c>
       <c r="BG5">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="BH5">
-        <v>60.61</v>
+        <v>62.5</v>
       </c>
       <c r="BI5">
-        <v>72</v>
+        <v>69.23</v>
       </c>
       <c r="BJ5">
-        <v>55.52</v>
+        <v>48.98</v>
       </c>
       <c r="BK5">
-        <v>38.64</v>
+        <v>34.78</v>
       </c>
       <c r="BL5">
-        <v>80</v>
+        <v>88.89</v>
       </c>
       <c r="BM5">
-        <v>65.96</v>
+        <v>68.25</v>
       </c>
       <c r="BN5">
-        <v>39.13</v>
+        <v>33.33</v>
       </c>
       <c r="BO5">
-        <v>62.26</v>
+        <v>56.52</v>
       </c>
       <c r="BP5">
-        <v>59.32</v>
+        <v>58.95</v>
       </c>
       <c r="BQ5">
-        <v>44.24</v>
+        <v>48.89</v>
       </c>
       <c r="BR5">
-        <v>66.47</v>
+        <v>61.98</v>
       </c>
       <c r="BS5">
-        <v>57.53</v>
+        <v>51.61</v>
       </c>
       <c r="BT5">
-        <v>70.59</v>
+        <v>67.31</v>
       </c>
       <c r="BU5">
-        <v>60</v>
+        <v>59.46</v>
       </c>
       <c r="BV5">
-        <v>46.67</v>
+        <v>50</v>
       </c>
       <c r="BW5">
-        <v>40</v>
+        <v>40.68</v>
       </c>
       <c r="BX5">
-        <v>61.15</v>
+        <v>58.62</v>
       </c>
       <c r="BY5">
-        <v>35.48</v>
+        <v>31.82</v>
       </c>
       <c r="BZ5">
-        <v>51.22</v>
+        <v>52.94</v>
       </c>
       <c r="CA5">
-        <v>68.29</v>
+        <v>63.55</v>
       </c>
       <c r="CB5">
-        <v>53.25</v>
+        <v>52.38</v>
       </c>
       <c r="CC5">
-        <v>68.18</v>
+        <v>65.22</v>
       </c>
       <c r="CD5">
-        <v>59.42</v>
+        <v>57.21</v>
       </c>
       <c r="CE5">
         <v>57.14</v>
       </c>
       <c r="CF5">
-        <v>60.98</v>
+        <v>65.22</v>
       </c>
       <c r="CG5">
-        <v>49.76</v>
+        <v>46.15</v>
       </c>
       <c r="CH5">
-        <v>56.25</v>
+        <v>49.09</v>
       </c>
       <c r="CI5">
-        <v>67.36</v>
+        <v>66.33</v>
       </c>
       <c r="CJ5">
         <v>33.33</v>
@@ -4306,67 +4306,67 @@
         <v>50</v>
       </c>
       <c r="CM5">
-        <v>22.65</v>
+        <v>23.29</v>
       </c>
       <c r="CN5">
-        <v>64.05</v>
+        <v>60.49</v>
       </c>
       <c r="CO5">
         <v>48</v>
       </c>
       <c r="CP5">
-        <v>40.91</v>
+        <v>34.18</v>
       </c>
       <c r="CQ5">
-        <v>44.44</v>
+        <v>45.45</v>
       </c>
       <c r="CR5">
         <v>37.93</v>
       </c>
       <c r="CS5">
-        <v>26.32</v>
+        <v>22.73</v>
       </c>
       <c r="CT5">
-        <v>35.71</v>
+        <v>34.88</v>
       </c>
       <c r="CU5">
         <v>50</v>
       </c>
       <c r="CV5">
-        <v>54.55</v>
+        <v>52.38</v>
       </c>
       <c r="CW5">
-        <v>35.64</v>
+        <v>27.78</v>
       </c>
       <c r="CX5">
         <v>50</v>
       </c>
       <c r="CY5">
-        <v>62.07</v>
+        <v>54.79</v>
       </c>
       <c r="CZ5">
-        <v>63.83</v>
+        <v>61.54</v>
       </c>
       <c r="DA5">
-        <v>65.66</v>
+        <v>71.31</v>
       </c>
       <c r="DB5">
-        <v>54.55</v>
+        <v>53.85</v>
       </c>
       <c r="DC5">
         <v>55.56</v>
       </c>
       <c r="DD5">
-        <v>50</v>
+        <v>57.14</v>
       </c>
       <c r="DE5">
-        <v>53.84</v>
+        <v>55.9</v>
       </c>
       <c r="DF5">
-        <v>54.76</v>
+        <v>56.1</v>
       </c>
       <c r="DG5">
-        <v>57.14</v>
+        <v>52.94</v>
       </c>
       <c r="DH5">
         <v>50</v>
@@ -4375,46 +4375,46 @@
         <v>40</v>
       </c>
       <c r="DJ5">
-        <v>48.39</v>
+        <v>41.28</v>
       </c>
       <c r="DK5">
-        <v>47.06</v>
+        <v>42.86</v>
       </c>
       <c r="DL5">
-        <v>49.11</v>
+        <v>45.6</v>
       </c>
       <c r="DM5">
-        <v>47.3</v>
+        <v>48.28</v>
       </c>
       <c r="DN5">
-        <v>49.31</v>
+        <v>33.59</v>
       </c>
       <c r="DO5">
-        <v>53.85</v>
+        <v>57.14</v>
       </c>
       <c r="DP5">
         <v>66.67</v>
       </c>
       <c r="DQ5">
-        <v>70.59</v>
+        <v>52.94</v>
       </c>
       <c r="DR5">
-        <v>65.67</v>
+        <v>70.89</v>
       </c>
       <c r="DS5">
-        <v>19.58</v>
+        <v>20.66</v>
       </c>
       <c r="DT5">
-        <v>13.95</v>
+        <v>12.2</v>
       </c>
       <c r="DU5">
-        <v>46.77</v>
+        <v>47.55</v>
       </c>
       <c r="DV5">
-        <v>52.17</v>
+        <v>52.94</v>
       </c>
       <c r="DW5">
-        <v>36.84</v>
+        <v>38.46</v>
       </c>
       <c r="DX5">
         <v>50</v>
@@ -4429,22 +4429,22 @@
         <v>50</v>
       </c>
       <c r="EB5">
-        <v>60</v>
+        <v>57.14</v>
       </c>
       <c r="EC5">
         <v>50</v>
       </c>
       <c r="ED5">
-        <v>68.29</v>
+        <v>62.14</v>
       </c>
       <c r="EE5">
-        <v>46.52</v>
+        <v>47.15</v>
       </c>
       <c r="EF5">
         <v>54.55</v>
       </c>
       <c r="EG5">
-        <v>58.33</v>
+        <v>59.46</v>
       </c>
       <c r="EH5">
         <v>50</v>
@@ -4453,61 +4453,61 @@
         <v>33.33</v>
       </c>
       <c r="EJ5">
-        <v>47.06</v>
+        <v>45.64</v>
       </c>
       <c r="EK5">
-        <v>41.51</v>
+        <v>42.86</v>
       </c>
       <c r="EL5">
-        <v>60</v>
+        <v>64.56</v>
       </c>
       <c r="EM5">
-        <v>61.7</v>
+        <v>57.62</v>
       </c>
       <c r="EN5">
         <v>55.93</v>
       </c>
       <c r="EO5">
-        <v>35.37</v>
+        <v>32.14</v>
       </c>
       <c r="EP5">
-        <v>44.99</v>
+        <v>45.51</v>
       </c>
       <c r="EQ5">
-        <v>67.11</v>
+        <v>63.91</v>
       </c>
       <c r="ER5">
-        <v>58.33</v>
+        <v>54.55</v>
       </c>
       <c r="ES5">
-        <v>60.59</v>
+        <v>61.45</v>
       </c>
       <c r="ET5">
-        <v>66.18</v>
+        <v>67.38</v>
       </c>
       <c r="EU5">
         <v>45.21</v>
       </c>
       <c r="EV5">
-        <v>57.24</v>
+        <v>52.29</v>
       </c>
       <c r="EW5">
-        <v>54.69</v>
+        <v>56.87</v>
       </c>
       <c r="EX5">
-        <v>34.78</v>
+        <v>36.04</v>
       </c>
       <c r="EY5">
-        <v>45.45</v>
+        <v>42.86</v>
       </c>
       <c r="EZ5">
-        <v>40.11</v>
+        <v>34.12</v>
       </c>
       <c r="FA5">
         <v>48.78</v>
       </c>
       <c r="FB5">
-        <v>65.12</v>
+        <v>63.64</v>
       </c>
       <c r="FC5">
         <v>50.29</v>
@@ -4516,91 +4516,91 @@
         <v>58.65</v>
       </c>
       <c r="FE5">
-        <v>54.6</v>
+        <v>30.67</v>
       </c>
       <c r="FF5">
-        <v>49.47</v>
+        <v>41.18</v>
       </c>
       <c r="FG5">
         <v>50</v>
       </c>
       <c r="FH5">
-        <v>55.08</v>
+        <v>54.55</v>
       </c>
       <c r="FI5">
-        <v>45.45</v>
+        <v>43.56</v>
       </c>
       <c r="FJ5">
-        <v>71.51</v>
+        <v>74.14</v>
       </c>
       <c r="FK5">
-        <v>33.9</v>
+        <v>28.57</v>
       </c>
       <c r="FL5">
         <v>40</v>
       </c>
       <c r="FM5">
-        <v>53.68</v>
+        <v>52.22</v>
       </c>
       <c r="FN5">
-        <v>49.22</v>
+        <v>48</v>
       </c>
       <c r="FO5">
-        <v>73.79</v>
+        <v>73.47</v>
       </c>
       <c r="FP5">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="FQ5">
-        <v>40.83</v>
+        <v>37.5</v>
       </c>
       <c r="FR5">
-        <v>45.07</v>
+        <v>40</v>
       </c>
       <c r="FS5">
-        <v>53.33</v>
+        <v>48.78</v>
       </c>
       <c r="FT5">
-        <v>51.06</v>
+        <v>48.65</v>
       </c>
       <c r="FU5">
         <v>66.93</v>
       </c>
       <c r="FV5">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="FW5">
-        <v>49.82</v>
+        <v>48.6</v>
       </c>
       <c r="FX5">
-        <v>75.43</v>
+        <v>76.45</v>
       </c>
       <c r="FY5">
-        <v>56.18</v>
+        <v>57.14</v>
       </c>
       <c r="FZ5">
-        <v>54.8</v>
+        <v>56.46</v>
       </c>
       <c r="GA5">
-        <v>62.5</v>
+        <v>57.14</v>
       </c>
       <c r="GB5">
-        <v>47.06</v>
+        <v>40</v>
       </c>
       <c r="GC5">
-        <v>51.35</v>
+        <v>45.6</v>
       </c>
       <c r="GD5">
-        <v>79.35</v>
+        <v>80.04</v>
       </c>
       <c r="GE5">
-        <v>66.1</v>
+        <v>64.64</v>
       </c>
       <c r="GF5">
-        <v>53.13</v>
+        <v>53.85</v>
       </c>
       <c r="GG5">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="GH5">
         <v>42.86</v>
@@ -4609,16 +4609,16 @@
         <v>50</v>
       </c>
       <c r="GJ5">
-        <v>41.94</v>
+        <v>28.89</v>
       </c>
       <c r="GK5">
-        <v>46.6</v>
+        <v>51.11</v>
       </c>
       <c r="GL5">
-        <v>20.29</v>
+        <v>21.43</v>
       </c>
       <c r="GM5">
-        <v>60.47</v>
+        <v>73.85</v>
       </c>
       <c r="GN5">
         <v>50</v>
@@ -4627,166 +4627,166 @@
         <v>50</v>
       </c>
       <c r="GP5">
-        <v>65.84</v>
+        <v>61.41</v>
       </c>
       <c r="GQ5">
-        <v>55.56</v>
+        <v>59.46</v>
       </c>
       <c r="GR5">
-        <v>33.72</v>
+        <v>30.53</v>
       </c>
       <c r="GS5">
         <v>66.67</v>
       </c>
       <c r="GT5">
-        <v>39.3</v>
+        <v>35.86</v>
       </c>
       <c r="GU5">
-        <v>52</v>
+        <v>47.37</v>
       </c>
       <c r="GV5">
-        <v>56.97</v>
+        <v>54.33</v>
       </c>
       <c r="GW5">
-        <v>46.67</v>
+        <v>40.74</v>
       </c>
       <c r="GX5">
         <v>50</v>
       </c>
       <c r="GY5">
-        <v>29.78</v>
+        <v>23.44</v>
       </c>
       <c r="GZ5">
-        <v>57.33</v>
+        <v>60.66</v>
       </c>
       <c r="HA5">
         <v>50</v>
       </c>
       <c r="HB5">
-        <v>41.3</v>
+        <v>37.5</v>
       </c>
       <c r="HC5">
         <v>50</v>
       </c>
       <c r="HD5">
-        <v>41.53</v>
+        <v>42.79</v>
       </c>
       <c r="HE5">
-        <v>40</v>
+        <v>42.86</v>
       </c>
       <c r="HF5">
-        <v>79.59</v>
+        <v>72.92</v>
       </c>
       <c r="HG5">
-        <v>67.03</v>
+        <v>67.08</v>
       </c>
       <c r="HH5">
         <v>66.67</v>
       </c>
       <c r="HI5">
-        <v>30.71</v>
+        <v>30.23</v>
       </c>
       <c r="HJ5">
-        <v>42.86</v>
+        <v>40</v>
       </c>
       <c r="HK5">
         <v>40</v>
       </c>
       <c r="HL5">
-        <v>52.38</v>
+        <v>33.33</v>
       </c>
       <c r="HM5">
-        <v>48.34</v>
+        <v>49.22</v>
       </c>
       <c r="HN5">
-        <v>35.06</v>
+        <v>31.03</v>
       </c>
       <c r="HO5">
-        <v>72.22</v>
+        <v>67.39</v>
       </c>
       <c r="HP5">
-        <v>44.44</v>
+        <v>42.86</v>
       </c>
       <c r="HQ5">
-        <v>36.17</v>
+        <v>31.19</v>
       </c>
       <c r="HR5">
-        <v>60.87</v>
+        <v>62.5</v>
       </c>
       <c r="HS5">
-        <v>61.43</v>
+        <v>52.91</v>
       </c>
       <c r="HT5">
-        <v>74.41</v>
+        <v>72.9</v>
       </c>
       <c r="HU5">
-        <v>69.57</v>
+        <v>75</v>
       </c>
       <c r="HV5">
         <v>46.78</v>
       </c>
       <c r="HW5">
-        <v>40.3</v>
+        <v>44.44</v>
       </c>
       <c r="HX5">
-        <v>44.8</v>
+        <v>73.01</v>
       </c>
       <c r="HY5">
-        <v>56.1</v>
+        <v>44.44</v>
       </c>
       <c r="HZ5">
-        <v>53.05</v>
+        <v>44.54</v>
       </c>
       <c r="IA5">
-        <v>39.51</v>
+        <v>36.91</v>
       </c>
       <c r="IB5">
-        <v>76.74</v>
+        <v>73.68</v>
       </c>
       <c r="IC5">
-        <v>54.35</v>
+        <v>50.7</v>
       </c>
       <c r="ID5">
-        <v>52.89</v>
+        <v>51.61</v>
       </c>
       <c r="IE5">
-        <v>52.38</v>
+        <v>52.94</v>
       </c>
       <c r="IF5">
-        <v>58.33</v>
+        <v>52</v>
       </c>
       <c r="IG5">
-        <v>78.08</v>
+        <v>75.72</v>
       </c>
       <c r="IH5">
-        <v>54.79</v>
+        <v>58.82</v>
       </c>
       <c r="II5">
-        <v>72.41</v>
+        <v>70</v>
       </c>
       <c r="IJ5">
-        <v>51.95</v>
+        <v>51.61</v>
       </c>
       <c r="IK5">
-        <v>58.06</v>
+        <v>62.79</v>
       </c>
       <c r="IL5">
-        <v>38.1</v>
+        <v>34.62</v>
       </c>
       <c r="IM5">
-        <v>64</v>
+        <v>65.91</v>
       </c>
       <c r="IN5">
-        <v>41.07</v>
+        <v>42.11</v>
       </c>
       <c r="IO5">
-        <v>66.67</v>
+        <v>67.95</v>
       </c>
       <c r="IP5">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="IQ5">
-        <v>55.22</v>
+        <v>44.44</v>
       </c>
       <c r="IR5">
         <v>60</v>
@@ -4801,130 +4801,130 @@
         <v>72.73</v>
       </c>
       <c r="IV5">
-        <v>46.15</v>
+        <v>48.78</v>
       </c>
       <c r="IW5">
         <v>57.14</v>
       </c>
       <c r="IX5">
-        <v>54.55</v>
+        <v>47.06</v>
       </c>
       <c r="IY5">
-        <v>59.3</v>
+        <v>58.21</v>
       </c>
       <c r="IZ5">
-        <v>54.55</v>
+        <v>49.37</v>
       </c>
       <c r="JA5">
-        <v>52.5</v>
+        <v>51.22</v>
       </c>
       <c r="JB5">
-        <v>58.51</v>
+        <v>57.14</v>
       </c>
       <c r="JC5">
         <v>74.6</v>
       </c>
       <c r="JD5">
-        <v>57.58</v>
+        <v>55.32</v>
       </c>
       <c r="JE5">
-        <v>54.12</v>
+        <v>51.11</v>
       </c>
       <c r="JF5">
-        <v>56.79</v>
+        <v>44</v>
       </c>
       <c r="JG5">
-        <v>55.06</v>
+        <v>56.89</v>
       </c>
       <c r="JH5">
-        <v>79.81</v>
+        <v>81.44</v>
       </c>
       <c r="JI5">
-        <v>69.11</v>
+        <v>69.33</v>
       </c>
       <c r="JJ5">
-        <v>37.14</v>
+        <v>35.29</v>
       </c>
       <c r="JK5">
-        <v>28</v>
+        <v>30.77</v>
       </c>
       <c r="JL5">
-        <v>62.79</v>
+        <v>66.67</v>
       </c>
       <c r="JM5">
-        <v>53.28</v>
+        <v>52</v>
       </c>
       <c r="JN5">
-        <v>65.26</v>
+        <v>62</v>
       </c>
       <c r="JO5">
-        <v>38.04</v>
+        <v>34.48</v>
       </c>
       <c r="JP5">
         <v>19.67</v>
       </c>
       <c r="JQ5">
-        <v>47.71</v>
+        <v>32.62</v>
       </c>
       <c r="JR5">
         <v>66.67</v>
       </c>
       <c r="JS5">
-        <v>56.64</v>
+        <v>64.59</v>
       </c>
       <c r="JT5">
         <v>29.41</v>
       </c>
       <c r="JU5">
-        <v>48.72</v>
+        <v>53.85</v>
       </c>
       <c r="JV5">
-        <v>59.52</v>
+        <v>56.96</v>
       </c>
       <c r="JW5">
-        <v>69.22</v>
+        <v>66.35</v>
       </c>
       <c r="JX5">
-        <v>46.8</v>
+        <v>44.19</v>
       </c>
       <c r="JY5">
-        <v>21.85</v>
+        <v>17.74</v>
       </c>
       <c r="JZ5">
         <v>32</v>
       </c>
       <c r="KA5">
-        <v>36.45</v>
+        <v>33.33</v>
       </c>
       <c r="KB5">
-        <v>42.86</v>
+        <v>50</v>
       </c>
       <c r="KC5">
-        <v>47.37</v>
+        <v>54.55</v>
       </c>
       <c r="KD5">
-        <v>55.56</v>
+        <v>66.67</v>
       </c>
       <c r="KE5">
-        <v>38.93</v>
+        <v>39.9</v>
       </c>
       <c r="KF5">
         <v>50</v>
       </c>
       <c r="KG5">
-        <v>38.94</v>
+        <v>30.3</v>
       </c>
       <c r="KH5">
         <v>41.24</v>
       </c>
       <c r="KI5">
-        <v>62.5</v>
+        <v>65.22</v>
       </c>
       <c r="KJ5">
-        <v>53.7</v>
+        <v>44.44</v>
       </c>
       <c r="KK5">
-        <v>71.59</v>
+        <v>59.02</v>
       </c>
       <c r="KL5">
         <v>50</v>
@@ -4936,10 +4936,10 @@
         <v>50</v>
       </c>
       <c r="KO5">
-        <v>15.15</v>
+        <v>17.75</v>
       </c>
       <c r="KP5">
-        <v>53.66</v>
+        <v>53.92</v>
       </c>
     </row>
     <row r="6">
@@ -9490,7 +9490,7 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>55.56</v>
+        <v>53.57</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -9499,253 +9499,253 @@
         <v>64.71</v>
       </c>
       <c r="F11">
-        <v>28.57</v>
+        <v>44.44</v>
       </c>
       <c r="G11">
-        <v>42.07</v>
+        <v>44.2</v>
       </c>
       <c r="H11">
-        <v>58.51</v>
+        <v>56.65</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="J11">
-        <v>69.72</v>
+        <v>70.9</v>
       </c>
       <c r="K11">
-        <v>31.58</v>
+        <v>33.03</v>
       </c>
       <c r="L11">
-        <v>29.41</v>
+        <v>25</v>
       </c>
       <c r="M11">
-        <v>38.46</v>
+        <v>41.67</v>
       </c>
       <c r="N11">
         <v>50</v>
       </c>
       <c r="O11">
-        <v>11.32</v>
+        <v>27.69</v>
       </c>
       <c r="P11">
-        <v>33.98</v>
+        <v>36.84</v>
       </c>
       <c r="Q11">
         <v>50</v>
       </c>
       <c r="R11">
-        <v>28.57</v>
+        <v>30</v>
       </c>
       <c r="S11">
-        <v>49.08</v>
+        <v>51.81</v>
       </c>
       <c r="T11">
-        <v>45.28</v>
+        <v>41.06</v>
       </c>
       <c r="U11">
         <v>39.13</v>
       </c>
       <c r="V11">
-        <v>22.34</v>
+        <v>46.69</v>
       </c>
       <c r="W11">
-        <v>61.23</v>
+        <v>64.75</v>
       </c>
       <c r="X11">
+        <v>52.99</v>
+      </c>
+      <c r="Y11">
+        <v>24.23</v>
+      </c>
+      <c r="Z11">
+        <v>37.09</v>
+      </c>
+      <c r="AA11">
+        <v>48</v>
+      </c>
+      <c r="AB11">
+        <v>44.88</v>
+      </c>
+      <c r="AC11">
+        <v>52.61</v>
+      </c>
+      <c r="AD11">
+        <v>40.7</v>
+      </c>
+      <c r="AE11">
+        <v>50</v>
+      </c>
+      <c r="AF11">
+        <v>66.79</v>
+      </c>
+      <c r="AG11">
+        <v>53.33</v>
+      </c>
+      <c r="AH11">
+        <v>25.69</v>
+      </c>
+      <c r="AI11">
+        <v>44.33</v>
+      </c>
+      <c r="AJ11">
+        <v>28.57</v>
+      </c>
+      <c r="AK11">
         <v>30</v>
       </c>
-      <c r="Y11">
-        <v>10.42</v>
-      </c>
-      <c r="Z11">
-        <v>35.49</v>
-      </c>
-      <c r="AA11">
-        <v>48.78</v>
-      </c>
-      <c r="AB11">
-        <v>43.18</v>
-      </c>
-      <c r="AC11">
-        <v>57.45</v>
-      </c>
-      <c r="AD11">
-        <v>42.26</v>
-      </c>
-      <c r="AE11">
-        <v>50</v>
-      </c>
-      <c r="AF11">
-        <v>67.33</v>
-      </c>
-      <c r="AG11">
-        <v>60</v>
-      </c>
-      <c r="AH11">
-        <v>19.79</v>
-      </c>
-      <c r="AI11">
-        <v>41.16</v>
-      </c>
-      <c r="AJ11">
+      <c r="AL11">
+        <v>74.42</v>
+      </c>
+      <c r="AM11">
+        <v>15.79</v>
+      </c>
+      <c r="AN11">
+        <v>63.61</v>
+      </c>
+      <c r="AO11">
+        <v>31.58</v>
+      </c>
+      <c r="AP11">
+        <v>26.09</v>
+      </c>
+      <c r="AQ11">
+        <v>15.92</v>
+      </c>
+      <c r="AR11">
+        <v>46.15</v>
+      </c>
+      <c r="AS11">
+        <v>52.24</v>
+      </c>
+      <c r="AT11">
+        <v>46.09</v>
+      </c>
+      <c r="AU11">
+        <v>22.58</v>
+      </c>
+      <c r="AV11">
+        <v>50</v>
+      </c>
+      <c r="AW11">
+        <v>48.39</v>
+      </c>
+      <c r="AX11">
+        <v>52.81</v>
+      </c>
+      <c r="AY11">
+        <v>17.39</v>
+      </c>
+      <c r="AZ11">
+        <v>35.71</v>
+      </c>
+      <c r="BA11">
+        <v>59.01</v>
+      </c>
+      <c r="BB11">
+        <v>62.69</v>
+      </c>
+      <c r="BC11">
+        <v>62.9</v>
+      </c>
+      <c r="BD11">
+        <v>74.34</v>
+      </c>
+      <c r="BE11">
+        <v>18.75</v>
+      </c>
+      <c r="BF11">
+        <v>26.44</v>
+      </c>
+      <c r="BG11">
+        <v>57.14</v>
+      </c>
+      <c r="BH11">
+        <v>50</v>
+      </c>
+      <c r="BI11">
+        <v>46.15</v>
+      </c>
+      <c r="BJ11">
+        <v>50.68</v>
+      </c>
+      <c r="BK11">
+        <v>54.35</v>
+      </c>
+      <c r="BL11">
+        <v>74.58</v>
+      </c>
+      <c r="BM11">
+        <v>47.22</v>
+      </c>
+      <c r="BN11">
+        <v>22.47</v>
+      </c>
+      <c r="BO11">
+        <v>62.5</v>
+      </c>
+      <c r="BP11">
         <v>33.33</v>
       </c>
-      <c r="AK11">
-        <v>32.26</v>
-      </c>
-      <c r="AL11">
-        <v>75.55</v>
-      </c>
-      <c r="AM11">
-        <v>16.67</v>
-      </c>
-      <c r="AN11">
-        <v>64.6</v>
-      </c>
-      <c r="AO11">
+      <c r="BQ11">
+        <v>26.32</v>
+      </c>
+      <c r="BR11">
+        <v>58.14</v>
+      </c>
+      <c r="BS11">
+        <v>83.75</v>
+      </c>
+      <c r="BT11">
+        <v>13.56</v>
+      </c>
+      <c r="BU11">
+        <v>42.86</v>
+      </c>
+      <c r="BV11">
+        <v>31.91</v>
+      </c>
+      <c r="BW11">
+        <v>53.33</v>
+      </c>
+      <c r="BX11">
+        <v>57.35</v>
+      </c>
+      <c r="BY11">
+        <v>41.28</v>
+      </c>
+      <c r="BZ11">
+        <v>57.14</v>
+      </c>
+      <c r="CA11">
+        <v>47.37</v>
+      </c>
+      <c r="CB11">
+        <v>77.27</v>
+      </c>
+      <c r="CC11">
+        <v>14.29</v>
+      </c>
+      <c r="CD11">
+        <v>76.97</v>
+      </c>
+      <c r="CE11">
         <v>33.33</v>
       </c>
-      <c r="AP11">
-        <v>29.41</v>
-      </c>
-      <c r="AQ11">
-        <v>16</v>
-      </c>
-      <c r="AR11">
-        <v>47.98</v>
-      </c>
-      <c r="AS11">
-        <v>53.85</v>
-      </c>
-      <c r="AT11">
-        <v>52.02</v>
-      </c>
-      <c r="AU11">
-        <v>24</v>
-      </c>
-      <c r="AV11">
-        <v>50</v>
-      </c>
-      <c r="AW11">
-        <v>43.86</v>
-      </c>
-      <c r="AX11">
-        <v>39.5</v>
-      </c>
-      <c r="AY11">
-        <v>21.43</v>
-      </c>
-      <c r="AZ11">
-        <v>36.36</v>
-      </c>
-      <c r="BA11">
-        <v>58.46</v>
-      </c>
-      <c r="BB11">
-        <v>66.35</v>
-      </c>
-      <c r="BC11">
-        <v>65.66</v>
-      </c>
-      <c r="BD11">
-        <v>71.43</v>
-      </c>
-      <c r="BE11">
-        <v>20.73</v>
-      </c>
-      <c r="BF11">
-        <v>29.24</v>
-      </c>
-      <c r="BG11">
-        <v>50</v>
-      </c>
-      <c r="BH11">
-        <v>60</v>
-      </c>
-      <c r="BI11">
-        <v>52.94</v>
-      </c>
-      <c r="BJ11">
-        <v>55.78</v>
-      </c>
-      <c r="BK11">
-        <v>54.79</v>
-      </c>
-      <c r="BL11">
-        <v>72.09</v>
-      </c>
-      <c r="BM11">
-        <v>45.41</v>
-      </c>
-      <c r="BN11">
-        <v>24.43</v>
-      </c>
-      <c r="BO11">
-        <v>66.17</v>
-      </c>
-      <c r="BP11">
-        <v>35.29</v>
-      </c>
-      <c r="BQ11">
-        <v>28.07</v>
-      </c>
-      <c r="BR11">
-        <v>56.68</v>
-      </c>
-      <c r="BS11">
-        <v>84.77</v>
-      </c>
-      <c r="BT11">
-        <v>12.5</v>
-      </c>
-      <c r="BU11">
-        <v>43.86</v>
-      </c>
-      <c r="BV11">
-        <v>26.32</v>
-      </c>
-      <c r="BW11">
-        <v>49.41</v>
-      </c>
-      <c r="BX11">
-        <v>60.75</v>
-      </c>
-      <c r="BY11">
-        <v>42.86</v>
-      </c>
-      <c r="BZ11">
-        <v>55.56</v>
-      </c>
-      <c r="CA11">
-        <v>46.6</v>
-      </c>
-      <c r="CB11">
-        <v>80</v>
-      </c>
-      <c r="CC11">
-        <v>17.39</v>
-      </c>
-      <c r="CD11">
-        <v>4.32</v>
-      </c>
-      <c r="CE11">
-        <v>30.77</v>
-      </c>
       <c r="CF11">
-        <v>48</v>
+        <v>48.28</v>
       </c>
       <c r="CG11">
-        <v>52.81</v>
+        <v>48.28</v>
       </c>
       <c r="CH11">
-        <v>32.1</v>
+        <v>39.39</v>
       </c>
       <c r="CI11">
-        <v>80.26</v>
+        <v>79.9</v>
       </c>
       <c r="CJ11">
-        <v>38.46</v>
+        <v>37.5</v>
       </c>
       <c r="CK11">
         <v>40</v>
@@ -9754,34 +9754,34 @@
         <v>66.67</v>
       </c>
       <c r="CM11">
-        <v>19.15</v>
+        <v>16.36</v>
       </c>
       <c r="CN11">
-        <v>56.76</v>
+        <v>52.13</v>
       </c>
       <c r="CO11">
-        <v>42.42</v>
+        <v>42.68</v>
       </c>
       <c r="CP11">
-        <v>49.15</v>
+        <v>49.71</v>
       </c>
       <c r="CQ11">
-        <v>46.27</v>
+        <v>47.69</v>
       </c>
       <c r="CR11">
-        <v>21.05</v>
+        <v>18.52</v>
       </c>
       <c r="CS11">
-        <v>16.67</v>
+        <v>15.63</v>
       </c>
       <c r="CT11">
         <v>33.33</v>
       </c>
       <c r="CU11">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="CV11">
-        <v>53.85</v>
+        <v>53.13</v>
       </c>
       <c r="CW11">
         <v>40</v>
@@ -9790,16 +9790,16 @@
         <v>50</v>
       </c>
       <c r="CY11">
-        <v>51.72</v>
+        <v>44.55</v>
       </c>
       <c r="CZ11">
-        <v>76.09</v>
+        <v>71.19</v>
       </c>
       <c r="DA11">
-        <v>31.31</v>
+        <v>26.42</v>
       </c>
       <c r="DB11">
-        <v>52.38</v>
+        <v>52</v>
       </c>
       <c r="DC11">
         <v>36.36</v>
@@ -9808,70 +9808,70 @@
         <v>25</v>
       </c>
       <c r="DE11">
-        <v>51.74</v>
+        <v>49.58</v>
       </c>
       <c r="DF11">
-        <v>68.55</v>
+        <v>61.26</v>
       </c>
       <c r="DG11">
-        <v>36.36</v>
+        <v>33.33</v>
       </c>
       <c r="DH11">
+        <v>43.75</v>
+      </c>
+      <c r="DI11">
+        <v>52.94</v>
+      </c>
+      <c r="DJ11">
+        <v>50</v>
+      </c>
+      <c r="DK11">
+        <v>33.33</v>
+      </c>
+      <c r="DL11">
+        <v>33.71</v>
+      </c>
+      <c r="DM11">
+        <v>28</v>
+      </c>
+      <c r="DN11">
+        <v>45.45</v>
+      </c>
+      <c r="DO11">
+        <v>46.15</v>
+      </c>
+      <c r="DP11">
+        <v>50</v>
+      </c>
+      <c r="DQ11">
+        <v>53.18</v>
+      </c>
+      <c r="DR11">
+        <v>9.57</v>
+      </c>
+      <c r="DS11">
+        <v>40.3</v>
+      </c>
+      <c r="DT11">
+        <v>43.21</v>
+      </c>
+      <c r="DU11">
+        <v>41.98</v>
+      </c>
+      <c r="DV11">
+        <v>42.86</v>
+      </c>
+      <c r="DW11">
+        <v>14.63</v>
+      </c>
+      <c r="DX11">
+        <v>50</v>
+      </c>
+      <c r="DY11">
         <v>44.44</v>
       </c>
-      <c r="DI11">
-        <v>60</v>
-      </c>
-      <c r="DJ11">
-        <v>55.56</v>
-      </c>
-      <c r="DK11">
-        <v>35.71</v>
-      </c>
-      <c r="DL11">
-        <v>31.79</v>
-      </c>
-      <c r="DM11">
-        <v>30</v>
-      </c>
-      <c r="DN11">
-        <v>23.64</v>
-      </c>
-      <c r="DO11">
-        <v>40</v>
-      </c>
-      <c r="DP11">
-        <v>50</v>
-      </c>
-      <c r="DQ11">
-        <v>38.98</v>
-      </c>
-      <c r="DR11">
-        <v>12.37</v>
-      </c>
-      <c r="DS11">
-        <v>41.24</v>
-      </c>
-      <c r="DT11">
-        <v>58.33</v>
-      </c>
-      <c r="DU11">
-        <v>42.93</v>
-      </c>
-      <c r="DV11">
-        <v>45.45</v>
-      </c>
-      <c r="DW11">
-        <v>13.79</v>
-      </c>
-      <c r="DX11">
-        <v>50</v>
-      </c>
-      <c r="DY11">
-        <v>50</v>
-      </c>
       <c r="DZ11">
-        <v>60</v>
+        <v>53.33</v>
       </c>
       <c r="EA11">
         <v>50</v>
@@ -9883,16 +9883,16 @@
         <v>60</v>
       </c>
       <c r="ED11">
-        <v>58.21</v>
+        <v>57.78</v>
       </c>
       <c r="EE11">
-        <v>57.14</v>
+        <v>53.13</v>
       </c>
       <c r="EF11">
-        <v>23.08</v>
+        <v>20.59</v>
       </c>
       <c r="EG11">
-        <v>68.97</v>
+        <v>67.57</v>
       </c>
       <c r="EH11">
         <v>50</v>
@@ -9901,238 +9901,238 @@
         <v>50</v>
       </c>
       <c r="EJ11">
-        <v>49.13</v>
+        <v>38.93</v>
       </c>
       <c r="EK11">
-        <v>18.52</v>
+        <v>15.79</v>
       </c>
       <c r="EL11">
-        <v>51.61</v>
+        <v>50.26</v>
       </c>
       <c r="EM11">
-        <v>52.17</v>
+        <v>47.06</v>
       </c>
       <c r="EN11">
-        <v>58.33</v>
+        <v>57.38</v>
       </c>
       <c r="EO11">
         <v>35.64</v>
       </c>
       <c r="EP11">
-        <v>28.85</v>
+        <v>27.37</v>
       </c>
       <c r="EQ11">
-        <v>21.43</v>
+        <v>17.95</v>
       </c>
       <c r="ER11">
-        <v>60</v>
+        <v>57.14</v>
       </c>
       <c r="ES11">
-        <v>45.45</v>
+        <v>43.86</v>
       </c>
       <c r="ET11">
-        <v>53.33</v>
+        <v>55.17</v>
       </c>
       <c r="EU11">
-        <v>70.9</v>
+        <v>67.66</v>
       </c>
       <c r="EV11">
-        <v>58.06</v>
+        <v>54.55</v>
       </c>
       <c r="EW11">
-        <v>49.02</v>
+        <v>48.2</v>
       </c>
       <c r="EX11">
-        <v>58.14</v>
+        <v>58.66</v>
       </c>
       <c r="EY11">
-        <v>33.33</v>
+        <v>30.3</v>
       </c>
       <c r="EZ11">
-        <v>47.31</v>
+        <v>41.86</v>
       </c>
       <c r="FA11">
-        <v>25</v>
+        <v>27.27</v>
       </c>
       <c r="FB11">
-        <v>53.33</v>
+        <v>52.63</v>
       </c>
       <c r="FC11">
-        <v>49.11</v>
+        <v>48.14</v>
       </c>
       <c r="FD11">
-        <v>21.74</v>
+        <v>32.71</v>
       </c>
       <c r="FE11">
-        <v>47.87</v>
+        <v>49.6</v>
       </c>
       <c r="FF11">
-        <v>47.45</v>
+        <v>48.15</v>
       </c>
       <c r="FG11">
         <v>50</v>
       </c>
       <c r="FH11">
-        <v>44.86</v>
+        <v>44.44</v>
       </c>
       <c r="FI11">
-        <v>30.61</v>
+        <v>31.03</v>
       </c>
       <c r="FJ11">
-        <v>36.42</v>
+        <v>33.13</v>
       </c>
       <c r="FK11">
-        <v>34.29</v>
+        <v>32.35</v>
       </c>
       <c r="FL11">
         <v>33.33</v>
       </c>
       <c r="FM11">
-        <v>15.46</v>
+        <v>32.79</v>
       </c>
       <c r="FN11">
-        <v>63.64</v>
+        <v>62.5</v>
       </c>
       <c r="FO11">
+        <v>47.25</v>
+      </c>
+      <c r="FP11">
+        <v>50</v>
+      </c>
+      <c r="FQ11">
+        <v>53.33</v>
+      </c>
+      <c r="FR11">
+        <v>31.58</v>
+      </c>
+      <c r="FS11">
         <v>42.86</v>
       </c>
-      <c r="FP11">
-        <v>50</v>
-      </c>
-      <c r="FQ11">
-        <v>60</v>
-      </c>
-      <c r="FR11">
-        <v>32.26</v>
-      </c>
-      <c r="FS11">
-        <v>42.11</v>
-      </c>
       <c r="FT11">
+        <v>50</v>
+      </c>
+      <c r="FU11">
+        <v>45.45</v>
+      </c>
+      <c r="FV11">
+        <v>40.91</v>
+      </c>
+      <c r="FW11">
+        <v>37.86</v>
+      </c>
+      <c r="FX11">
+        <v>77.13</v>
+      </c>
+      <c r="FY11">
+        <v>38.73</v>
+      </c>
+      <c r="FZ11">
+        <v>48.51</v>
+      </c>
+      <c r="GA11">
+        <v>49.23</v>
+      </c>
+      <c r="GB11">
+        <v>55.56</v>
+      </c>
+      <c r="GC11">
+        <v>25.64</v>
+      </c>
+      <c r="GD11">
+        <v>43.72</v>
+      </c>
+      <c r="GE11">
+        <v>29.17</v>
+      </c>
+      <c r="GF11">
+        <v>33.33</v>
+      </c>
+      <c r="GG11">
+        <v>54.55</v>
+      </c>
+      <c r="GH11">
+        <v>44.44</v>
+      </c>
+      <c r="GI11">
+        <v>37.5</v>
+      </c>
+      <c r="GJ11">
+        <v>42.17</v>
+      </c>
+      <c r="GK11">
+        <v>35.29</v>
+      </c>
+      <c r="GL11">
+        <v>57.94</v>
+      </c>
+      <c r="GM11">
+        <v>21.74</v>
+      </c>
+      <c r="GN11">
+        <v>36.36</v>
+      </c>
+      <c r="GO11">
         <v>57.14</v>
       </c>
-      <c r="FU11">
-        <v>46.3</v>
-      </c>
-      <c r="FV11">
-        <v>38.1</v>
-      </c>
-      <c r="FW11">
-        <v>41.96</v>
-      </c>
-      <c r="FX11">
-        <v>76.92</v>
-      </c>
-      <c r="FY11">
-        <v>38.94</v>
-      </c>
-      <c r="FZ11">
-        <v>48.37</v>
-      </c>
-      <c r="GA11">
-        <v>29.03</v>
-      </c>
-      <c r="GB11">
-        <v>54.55</v>
-      </c>
-      <c r="GC11">
-        <v>27.59</v>
-      </c>
-      <c r="GD11">
-        <v>41.38</v>
-      </c>
-      <c r="GE11">
-        <v>29.27</v>
-      </c>
-      <c r="GF11">
-        <v>35.09</v>
-      </c>
-      <c r="GG11">
-        <v>60</v>
-      </c>
-      <c r="GH11">
-        <v>42.86</v>
-      </c>
-      <c r="GI11">
-        <v>33.33</v>
-      </c>
-      <c r="GJ11">
-        <v>46.67</v>
-      </c>
-      <c r="GK11">
-        <v>30</v>
-      </c>
-      <c r="GL11">
-        <v>62.42</v>
-      </c>
-      <c r="GM11">
-        <v>21.05</v>
-      </c>
-      <c r="GN11">
-        <v>33.33</v>
-      </c>
-      <c r="GO11">
-        <v>54.55</v>
-      </c>
       <c r="GP11">
-        <v>32</v>
+        <v>27.03</v>
       </c>
       <c r="GQ11">
-        <v>17.39</v>
+        <v>17.24</v>
       </c>
       <c r="GR11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="GS11">
         <v>60</v>
       </c>
       <c r="GT11">
-        <v>22.24</v>
+        <v>21.69</v>
       </c>
       <c r="GU11">
-        <v>29.51</v>
+        <v>28.73</v>
       </c>
       <c r="GV11">
         <v>51.61</v>
       </c>
       <c r="GW11">
-        <v>41.3</v>
+        <v>38.78</v>
       </c>
       <c r="GX11">
         <v>50</v>
       </c>
       <c r="GY11">
-        <v>44.41</v>
+        <v>44.19</v>
       </c>
       <c r="GZ11">
-        <v>31.82</v>
+        <v>29.58</v>
       </c>
       <c r="HA11">
         <v>50</v>
       </c>
       <c r="HB11">
-        <v>74.58</v>
+        <v>61.97</v>
       </c>
       <c r="HC11">
         <v>50</v>
       </c>
       <c r="HD11">
-        <v>48.9</v>
+        <v>46.25</v>
       </c>
       <c r="HE11">
         <v>22.22</v>
       </c>
       <c r="HF11">
-        <v>48.23</v>
+        <v>61.76</v>
       </c>
       <c r="HG11">
-        <v>65.09</v>
+        <v>66.49</v>
       </c>
       <c r="HH11">
         <v>66.67</v>
       </c>
       <c r="HI11">
-        <v>16.98</v>
+        <v>18.37</v>
       </c>
       <c r="HJ11">
         <v>50</v>
@@ -10141,106 +10141,106 @@
         <v>23.08</v>
       </c>
       <c r="HL11">
-        <v>48.39</v>
+        <v>51.72</v>
       </c>
       <c r="HM11">
-        <v>61.74</v>
+        <v>59.59</v>
       </c>
       <c r="HN11">
-        <v>24.32</v>
+        <v>26.47</v>
       </c>
       <c r="HO11">
-        <v>75.47</v>
+        <v>78.74</v>
       </c>
       <c r="HP11">
-        <v>50</v>
+        <v>51.72</v>
       </c>
       <c r="HQ11">
-        <v>26.32</v>
+        <v>23.08</v>
       </c>
       <c r="HR11">
-        <v>47.06</v>
+        <v>45.45</v>
       </c>
       <c r="HS11">
-        <v>67.89</v>
+        <v>64.08</v>
       </c>
       <c r="HT11">
-        <v>3.1</v>
+        <v>75.61</v>
       </c>
       <c r="HU11">
-        <v>41.67</v>
+        <v>42.86</v>
       </c>
       <c r="HV11">
-        <v>37.76</v>
+        <v>39.61</v>
       </c>
       <c r="HW11">
+        <v>40.91</v>
+      </c>
+      <c r="HX11">
+        <v>48.37</v>
+      </c>
+      <c r="HY11">
+        <v>48.15</v>
+      </c>
+      <c r="HZ11">
+        <v>33.03</v>
+      </c>
+      <c r="IA11">
+        <v>33.19</v>
+      </c>
+      <c r="IB11">
+        <v>67.9</v>
+      </c>
+      <c r="IC11">
+        <v>55.88</v>
+      </c>
+      <c r="ID11">
+        <v>37.84</v>
+      </c>
+      <c r="IE11">
+        <v>37.04</v>
+      </c>
+      <c r="IF11">
+        <v>39.82</v>
+      </c>
+      <c r="IG11">
+        <v>51.45</v>
+      </c>
+      <c r="IH11">
+        <v>55.1</v>
+      </c>
+      <c r="II11">
+        <v>38.46</v>
+      </c>
+      <c r="IJ11">
+        <v>56.76</v>
+      </c>
+      <c r="IK11">
+        <v>55</v>
+      </c>
+      <c r="IL11">
+        <v>45.38</v>
+      </c>
+      <c r="IM11">
+        <v>50.59</v>
+      </c>
+      <c r="IN11">
+        <v>47.22</v>
+      </c>
+      <c r="IO11">
+        <v>75</v>
+      </c>
+      <c r="IP11">
         <v>45.45</v>
       </c>
-      <c r="HX11">
-        <v>43.22</v>
-      </c>
-      <c r="HY11">
-        <v>51.35</v>
-      </c>
-      <c r="HZ11">
-        <v>36.74</v>
-      </c>
-      <c r="IA11">
-        <v>35.71</v>
-      </c>
-      <c r="IB11">
-        <v>63.77</v>
-      </c>
-      <c r="IC11">
-        <v>52.29</v>
-      </c>
-      <c r="ID11">
-        <v>41.38</v>
-      </c>
-      <c r="IE11">
-        <v>36.36</v>
-      </c>
-      <c r="IF11">
-        <v>38.46</v>
-      </c>
-      <c r="IG11">
-        <v>43.2</v>
-      </c>
-      <c r="IH11">
-        <v>54.22</v>
-      </c>
-      <c r="II11">
-        <v>40</v>
-      </c>
-      <c r="IJ11">
-        <v>60.34</v>
-      </c>
-      <c r="IK11">
-        <v>52.63</v>
-      </c>
-      <c r="IL11">
-        <v>45</v>
-      </c>
-      <c r="IM11">
-        <v>47.25</v>
-      </c>
-      <c r="IN11">
-        <v>47.66</v>
-      </c>
-      <c r="IO11">
-        <v>73.68</v>
-      </c>
-      <c r="IP11">
-        <v>42.86</v>
-      </c>
       <c r="IQ11">
-        <v>49.36</v>
+        <v>46.31</v>
       </c>
       <c r="IR11">
         <v>50</v>
       </c>
       <c r="IS11">
-        <v>47.06</v>
+        <v>50</v>
       </c>
       <c r="IT11">
         <v>69.23</v>
@@ -10249,136 +10249,136 @@
         <v>33.33</v>
       </c>
       <c r="IV11">
-        <v>33.33</v>
+        <v>35.29</v>
       </c>
       <c r="IW11">
-        <v>47.17</v>
+        <v>45.45</v>
       </c>
       <c r="IX11">
-        <v>44.68</v>
+        <v>42.42</v>
       </c>
       <c r="IY11">
-        <v>44.44</v>
+        <v>43.4</v>
       </c>
       <c r="IZ11">
-        <v>31.58</v>
+        <v>32.14</v>
       </c>
       <c r="JA11">
-        <v>27.78</v>
+        <v>24</v>
       </c>
       <c r="JB11">
-        <v>54.55</v>
+        <v>46.67</v>
       </c>
       <c r="JC11">
-        <v>79.17</v>
+        <v>76</v>
       </c>
       <c r="JD11">
-        <v>64.52</v>
+        <v>66.67</v>
       </c>
       <c r="JE11">
-        <v>28.45</v>
+        <v>27.96</v>
       </c>
       <c r="JF11">
-        <v>61.54</v>
+        <v>65.59</v>
       </c>
       <c r="JG11">
-        <v>52.75</v>
+        <v>52.3</v>
       </c>
       <c r="JH11">
-        <v>37.46</v>
+        <v>40.52</v>
       </c>
       <c r="JI11">
-        <v>35.19</v>
+        <v>37.28</v>
       </c>
       <c r="JJ11">
-        <v>44.44</v>
+        <v>40.91</v>
       </c>
       <c r="JK11">
-        <v>17.7</v>
+        <v>16.89</v>
       </c>
       <c r="JL11">
-        <v>52.63</v>
+        <v>51.02</v>
       </c>
       <c r="JM11">
-        <v>60</v>
+        <v>58.33</v>
       </c>
       <c r="JN11">
-        <v>11.11</v>
+        <v>10.29</v>
       </c>
       <c r="JO11">
         <v>33.33</v>
       </c>
       <c r="JP11">
-        <v>25.32</v>
+        <v>27.78</v>
       </c>
       <c r="JQ11">
-        <v>61.25</v>
+        <v>59.6</v>
       </c>
       <c r="JR11">
         <v>54.55</v>
       </c>
       <c r="JS11">
-        <v>14.29</v>
+        <v>16.09</v>
       </c>
       <c r="JT11">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="JU11">
-        <v>37.97</v>
+        <v>34.62</v>
       </c>
       <c r="JV11">
-        <v>60</v>
+        <v>52.94</v>
       </c>
       <c r="JW11">
-        <v>4.67</v>
+        <v>67.79</v>
       </c>
       <c r="JX11">
-        <v>13.64</v>
+        <v>12.73</v>
       </c>
       <c r="JY11">
-        <v>44.19</v>
+        <v>41.3</v>
       </c>
       <c r="JZ11">
-        <v>30.77</v>
+        <v>25</v>
       </c>
       <c r="KA11">
-        <v>43.48</v>
+        <v>40.68</v>
       </c>
       <c r="KB11">
-        <v>40</v>
+        <v>42.86</v>
       </c>
       <c r="KC11">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
       <c r="KD11">
         <v>30.77</v>
       </c>
       <c r="KE11">
-        <v>42.46</v>
+        <v>51.65</v>
       </c>
       <c r="KF11">
-        <v>38.46</v>
+        <v>37.5</v>
       </c>
       <c r="KG11">
-        <v>54.55</v>
+        <v>51.61</v>
       </c>
       <c r="KH11">
-        <v>47.06</v>
+        <v>51.28</v>
       </c>
       <c r="KI11">
-        <v>40</v>
+        <v>41.18</v>
       </c>
       <c r="KJ11">
-        <v>31.43</v>
+        <v>36.67</v>
       </c>
       <c r="KK11">
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="KL11">
         <v>50</v>
       </c>
       <c r="KM11">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="KN11">
         <v>60</v>
@@ -10387,7 +10387,7 @@
         <v>26.75</v>
       </c>
       <c r="KP11">
-        <v>40.5</v>
+        <v>42.29</v>
       </c>
     </row>
     <row r="12">
@@ -10398,7 +10398,7 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>55.56</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -10407,379 +10407,379 @@
         <v>64.71</v>
       </c>
       <c r="F12">
-        <v>27.78</v>
+        <v>28.57</v>
       </c>
       <c r="G12">
-        <v>44.57</v>
+        <v>42.07</v>
       </c>
       <c r="H12">
-        <v>55.93</v>
+        <v>58.51</v>
       </c>
       <c r="I12">
-        <v>46.15</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>63.76</v>
+        <v>69.72</v>
       </c>
       <c r="K12">
-        <v>33.03</v>
+        <v>31.58</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>29.41</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>38.46</v>
       </c>
       <c r="N12">
         <v>50</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>11.32</v>
       </c>
       <c r="P12">
-        <v>30.88</v>
+        <v>33.98</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R12">
-        <v>26.09</v>
+        <v>28.57</v>
       </c>
       <c r="S12">
-        <v>51.11</v>
+        <v>49.08</v>
       </c>
       <c r="T12">
-        <v>47.02</v>
+        <v>45.28</v>
       </c>
       <c r="U12">
-        <v>37.72</v>
+        <v>39.13</v>
       </c>
       <c r="V12">
-        <v>21.74</v>
+        <v>22.34</v>
       </c>
       <c r="W12">
         <v>61.23</v>
       </c>
       <c r="X12">
-        <v>28.77</v>
+        <v>30</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>10.42</v>
       </c>
       <c r="Z12">
-        <v>28.73</v>
+        <v>35.49</v>
       </c>
       <c r="AA12">
-        <v>41.67</v>
+        <v>48.78</v>
       </c>
       <c r="AB12">
-        <v>32.2</v>
+        <v>43.18</v>
       </c>
       <c r="AC12">
-        <v>52.94</v>
+        <v>57.45</v>
       </c>
       <c r="AD12">
-        <v>44.57</v>
+        <v>42.26</v>
       </c>
       <c r="AE12">
         <v>50</v>
       </c>
       <c r="AF12">
-        <v>63.54</v>
+        <v>67.33</v>
       </c>
       <c r="AG12">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="AH12">
-        <v>25.13</v>
+        <v>19.79</v>
       </c>
       <c r="AI12">
-        <v>38</v>
+        <v>41.16</v>
       </c>
       <c r="AJ12">
-        <v>30.77</v>
+        <v>33.33</v>
       </c>
       <c r="AK12">
-        <v>30.77</v>
+        <v>32.26</v>
       </c>
       <c r="AL12">
-        <v>74.08</v>
+        <v>75.55</v>
       </c>
       <c r="AM12">
-        <v>14.63</v>
+        <v>16.67</v>
       </c>
       <c r="AN12">
-        <v>66.67</v>
+        <v>64.6</v>
       </c>
       <c r="AO12">
-        <v>31.58</v>
+        <v>33.33</v>
       </c>
       <c r="AP12">
+        <v>29.41</v>
+      </c>
+      <c r="AQ12">
+        <v>16</v>
+      </c>
+      <c r="AR12">
+        <v>47.98</v>
+      </c>
+      <c r="AS12">
+        <v>53.85</v>
+      </c>
+      <c r="AT12">
+        <v>52.02</v>
+      </c>
+      <c r="AU12">
         <v>24</v>
       </c>
-      <c r="AQ12">
-        <v>13.16</v>
-      </c>
-      <c r="AR12">
-        <v>46.91</v>
-      </c>
-      <c r="AS12">
-        <v>49.3</v>
-      </c>
-      <c r="AT12">
-        <v>56.58</v>
-      </c>
-      <c r="AU12">
-        <v>23.33</v>
-      </c>
       <c r="AV12">
         <v>50</v>
       </c>
       <c r="AW12">
-        <v>47.17</v>
+        <v>43.86</v>
       </c>
       <c r="AX12">
-        <v>38.52</v>
+        <v>39.5</v>
       </c>
       <c r="AY12">
-        <v>13.79</v>
+        <v>21.43</v>
       </c>
       <c r="AZ12">
-        <v>31.25</v>
+        <v>36.36</v>
       </c>
       <c r="BA12">
-        <v>48.97</v>
+        <v>58.46</v>
       </c>
       <c r="BB12">
-        <v>57.73</v>
+        <v>66.35</v>
       </c>
       <c r="BC12">
-        <v>64.73</v>
+        <v>65.66</v>
       </c>
       <c r="BD12">
-        <v>73.68</v>
+        <v>71.43</v>
       </c>
       <c r="BE12">
         <v>20.73</v>
       </c>
       <c r="BF12">
-        <v>27.23</v>
+        <v>29.24</v>
       </c>
       <c r="BG12">
-        <v>57.14</v>
+        <v>50</v>
       </c>
       <c r="BH12">
-        <v>53.57</v>
+        <v>60</v>
       </c>
       <c r="BI12">
-        <v>46.15</v>
+        <v>52.94</v>
       </c>
       <c r="BJ12">
-        <v>54.41</v>
+        <v>55.78</v>
       </c>
       <c r="BK12">
-        <v>46.73</v>
+        <v>54.79</v>
       </c>
       <c r="BL12">
-        <v>70.59</v>
+        <v>72.09</v>
       </c>
       <c r="BM12">
-        <v>41.86</v>
+        <v>45.41</v>
       </c>
       <c r="BN12">
-        <v>19.51</v>
+        <v>24.43</v>
       </c>
       <c r="BO12">
-        <v>61.45</v>
+        <v>66.17</v>
       </c>
       <c r="BP12">
-        <v>31.11</v>
+        <v>35.29</v>
       </c>
       <c r="BQ12">
-        <v>26.32</v>
+        <v>28.07</v>
       </c>
       <c r="BR12">
-        <v>54.74</v>
+        <v>56.68</v>
       </c>
       <c r="BS12">
-        <v>55.71</v>
+        <v>84.77</v>
       </c>
       <c r="BT12">
-        <v>8.99</v>
+        <v>12.5</v>
       </c>
       <c r="BU12">
-        <v>44.12</v>
+        <v>43.86</v>
       </c>
       <c r="BV12">
         <v>26.32</v>
       </c>
       <c r="BW12">
-        <v>48.7</v>
+        <v>49.41</v>
       </c>
       <c r="BX12">
-        <v>60</v>
+        <v>60.75</v>
       </c>
       <c r="BY12">
+        <v>42.86</v>
+      </c>
+      <c r="BZ12">
+        <v>55.56</v>
+      </c>
+      <c r="CA12">
+        <v>46.6</v>
+      </c>
+      <c r="CB12">
+        <v>80</v>
+      </c>
+      <c r="CC12">
+        <v>17.39</v>
+      </c>
+      <c r="CD12">
+        <v>4.32</v>
+      </c>
+      <c r="CE12">
+        <v>30.77</v>
+      </c>
+      <c r="CF12">
+        <v>48</v>
+      </c>
+      <c r="CG12">
+        <v>52.81</v>
+      </c>
+      <c r="CH12">
+        <v>32.1</v>
+      </c>
+      <c r="CI12">
+        <v>80.26</v>
+      </c>
+      <c r="CJ12">
         <v>38.46</v>
       </c>
-      <c r="BZ12">
-        <v>52.63</v>
-      </c>
-      <c r="CA12">
-        <v>45.86</v>
-      </c>
-      <c r="CB12">
-        <v>77.27</v>
-      </c>
-      <c r="CC12">
-        <v>18.52</v>
-      </c>
-      <c r="CD12">
-        <v>59.84</v>
-      </c>
-      <c r="CE12">
-        <v>31.25</v>
-      </c>
-      <c r="CF12">
-        <v>42.42</v>
-      </c>
-      <c r="CG12">
-        <v>45.05</v>
-      </c>
-      <c r="CH12">
-        <v>31.45</v>
-      </c>
-      <c r="CI12">
-        <v>82.11</v>
-      </c>
-      <c r="CJ12">
-        <v>31.58</v>
-      </c>
       <c r="CK12">
-        <v>42.86</v>
+        <v>40</v>
       </c>
       <c r="CL12">
         <v>66.67</v>
       </c>
       <c r="CM12">
-        <v>18.56</v>
+        <v>19.15</v>
       </c>
       <c r="CN12">
-        <v>55.06</v>
+        <v>56.76</v>
       </c>
       <c r="CO12">
-        <v>41.18</v>
+        <v>42.42</v>
       </c>
       <c r="CP12">
-        <v>44.62</v>
+        <v>49.15</v>
       </c>
       <c r="CQ12">
-        <v>43.06</v>
+        <v>46.27</v>
       </c>
       <c r="CR12">
-        <v>20</v>
+        <v>21.05</v>
       </c>
       <c r="CS12">
-        <v>14.71</v>
+        <v>16.67</v>
       </c>
       <c r="CT12">
-        <v>31.58</v>
+        <v>33.33</v>
       </c>
       <c r="CU12">
-        <v>60</v>
+        <v>57.14</v>
       </c>
       <c r="CV12">
         <v>53.85</v>
       </c>
       <c r="CW12">
-        <v>41.03</v>
+        <v>40</v>
       </c>
       <c r="CX12">
         <v>50</v>
       </c>
       <c r="CY12">
-        <v>44.55</v>
+        <v>51.72</v>
       </c>
       <c r="CZ12">
-        <v>70.8</v>
+        <v>76.09</v>
       </c>
       <c r="DA12">
-        <v>29.52</v>
+        <v>31.31</v>
       </c>
       <c r="DB12">
         <v>52.38</v>
       </c>
       <c r="DC12">
-        <v>31.25</v>
+        <v>36.36</v>
       </c>
       <c r="DD12">
         <v>25</v>
       </c>
       <c r="DE12">
-        <v>40.71</v>
+        <v>51.74</v>
       </c>
       <c r="DF12">
-        <v>66.67</v>
+        <v>68.55</v>
       </c>
       <c r="DG12">
-        <v>35.71</v>
+        <v>36.36</v>
       </c>
       <c r="DH12">
-        <v>47.37</v>
+        <v>44.44</v>
       </c>
       <c r="DI12">
         <v>60</v>
       </c>
       <c r="DJ12">
+        <v>55.56</v>
+      </c>
+      <c r="DK12">
+        <v>35.71</v>
+      </c>
+      <c r="DL12">
+        <v>31.79</v>
+      </c>
+      <c r="DM12">
+        <v>30</v>
+      </c>
+      <c r="DN12">
+        <v>23.64</v>
+      </c>
+      <c r="DO12">
+        <v>40</v>
+      </c>
+      <c r="DP12">
+        <v>50</v>
+      </c>
+      <c r="DQ12">
+        <v>38.98</v>
+      </c>
+      <c r="DR12">
+        <v>12.37</v>
+      </c>
+      <c r="DS12">
+        <v>41.24</v>
+      </c>
+      <c r="DT12">
+        <v>58.33</v>
+      </c>
+      <c r="DU12">
+        <v>42.93</v>
+      </c>
+      <c r="DV12">
         <v>45.45</v>
       </c>
-      <c r="DK12">
-        <v>31.58</v>
-      </c>
-      <c r="DL12">
-        <v>33</v>
-      </c>
-      <c r="DM12">
-        <v>25.93</v>
-      </c>
-      <c r="DN12">
-        <v>20.18</v>
-      </c>
-      <c r="DO12">
-        <v>46.15</v>
-      </c>
-      <c r="DP12">
+      <c r="DW12">
+        <v>13.79</v>
+      </c>
+      <c r="DX12">
+        <v>50</v>
+      </c>
+      <c r="DY12">
+        <v>50</v>
+      </c>
+      <c r="DZ12">
         <v>60</v>
-      </c>
-      <c r="DQ12">
-        <v>43.4</v>
-      </c>
-      <c r="DR12">
-        <v>11.29</v>
-      </c>
-      <c r="DS12">
-        <v>36.45</v>
-      </c>
-      <c r="DT12">
-        <v>42.17</v>
-      </c>
-      <c r="DU12">
-        <v>39.69</v>
-      </c>
-      <c r="DV12">
-        <v>46.15</v>
-      </c>
-      <c r="DW12">
-        <v>14.63</v>
-      </c>
-      <c r="DX12">
-        <v>50</v>
-      </c>
-      <c r="DY12">
-        <v>50</v>
-      </c>
-      <c r="DZ12">
-        <v>55.56</v>
       </c>
       <c r="EA12">
         <v>50</v>
@@ -10791,16 +10791,16 @@
         <v>60</v>
       </c>
       <c r="ED12">
-        <v>55.32</v>
+        <v>58.21</v>
       </c>
       <c r="EE12">
-        <v>47.75</v>
+        <v>57.14</v>
       </c>
       <c r="EF12">
-        <v>21.88</v>
+        <v>23.08</v>
       </c>
       <c r="EG12">
-        <v>70.42</v>
+        <v>68.97</v>
       </c>
       <c r="EH12">
         <v>50</v>
@@ -10809,448 +10809,448 @@
         <v>50</v>
       </c>
       <c r="EJ12">
-        <v>38.93</v>
+        <v>49.13</v>
       </c>
       <c r="EK12">
         <v>18.52</v>
       </c>
       <c r="EL12">
-        <v>53.25</v>
+        <v>51.61</v>
       </c>
       <c r="EM12">
-        <v>47.06</v>
+        <v>52.17</v>
       </c>
       <c r="EN12">
-        <v>59.32</v>
+        <v>58.33</v>
       </c>
       <c r="EO12">
-        <v>32.43</v>
+        <v>35.64</v>
       </c>
       <c r="EP12">
-        <v>27.03</v>
+        <v>28.85</v>
       </c>
       <c r="EQ12">
-        <v>22.58</v>
+        <v>21.43</v>
       </c>
       <c r="ER12">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="ES12">
-        <v>38.61</v>
+        <v>45.45</v>
       </c>
       <c r="ET12">
-        <v>47.06</v>
+        <v>53.33</v>
       </c>
       <c r="EU12">
-        <v>71.25</v>
+        <v>70.9</v>
       </c>
       <c r="EV12">
-        <v>52.17</v>
+        <v>58.06</v>
       </c>
       <c r="EW12">
-        <v>45.55</v>
+        <v>49.02</v>
       </c>
       <c r="EX12">
-        <v>54.12</v>
+        <v>58.14</v>
       </c>
       <c r="EY12">
-        <v>29.41</v>
+        <v>33.33</v>
       </c>
       <c r="EZ12">
-        <v>46.93</v>
+        <v>47.31</v>
       </c>
       <c r="FA12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="FB12">
-        <v>47.62</v>
+        <v>53.33</v>
       </c>
       <c r="FC12">
-        <v>49.44</v>
+        <v>49.11</v>
       </c>
       <c r="FD12">
-        <v>23.53</v>
+        <v>21.74</v>
       </c>
       <c r="FE12">
-        <v>49.35</v>
+        <v>47.87</v>
       </c>
       <c r="FF12">
-        <v>45.45</v>
+        <v>47.45</v>
       </c>
       <c r="FG12">
         <v>50</v>
       </c>
       <c r="FH12">
-        <v>42.95</v>
+        <v>44.86</v>
       </c>
       <c r="FI12">
-        <v>32.14</v>
+        <v>30.61</v>
       </c>
       <c r="FJ12">
-        <v>39.45</v>
+        <v>36.42</v>
       </c>
       <c r="FK12">
-        <v>34.88</v>
+        <v>34.29</v>
       </c>
       <c r="FL12">
         <v>33.33</v>
       </c>
       <c r="FM12">
-        <v>16.67</v>
+        <v>15.46</v>
       </c>
       <c r="FN12">
         <v>63.64</v>
       </c>
       <c r="FO12">
-        <v>49.43</v>
+        <v>42.86</v>
       </c>
       <c r="FP12">
-        <v>41.67</v>
+        <v>50</v>
       </c>
       <c r="FQ12">
-        <v>48.48</v>
+        <v>60</v>
       </c>
       <c r="FR12">
-        <v>35.29</v>
+        <v>32.26</v>
       </c>
       <c r="FS12">
-        <v>50</v>
+        <v>42.11</v>
       </c>
       <c r="FT12">
-        <v>51.61</v>
+        <v>57.14</v>
       </c>
       <c r="FU12">
+        <v>46.3</v>
+      </c>
+      <c r="FV12">
+        <v>38.1</v>
+      </c>
+      <c r="FW12">
+        <v>41.96</v>
+      </c>
+      <c r="FX12">
+        <v>76.92</v>
+      </c>
+      <c r="FY12">
+        <v>38.94</v>
+      </c>
+      <c r="FZ12">
+        <v>48.37</v>
+      </c>
+      <c r="GA12">
+        <v>29.03</v>
+      </c>
+      <c r="GB12">
+        <v>54.55</v>
+      </c>
+      <c r="GC12">
+        <v>27.59</v>
+      </c>
+      <c r="GD12">
+        <v>41.38</v>
+      </c>
+      <c r="GE12">
+        <v>29.27</v>
+      </c>
+      <c r="GF12">
+        <v>35.09</v>
+      </c>
+      <c r="GG12">
+        <v>60</v>
+      </c>
+      <c r="GH12">
         <v>42.86</v>
-      </c>
-      <c r="FV12">
-        <v>40</v>
-      </c>
-      <c r="FW12">
-        <v>41.69</v>
-      </c>
-      <c r="FX12">
-        <v>73.3</v>
-      </c>
-      <c r="FY12">
-        <v>36.42</v>
-      </c>
-      <c r="FZ12">
-        <v>48.51</v>
-      </c>
-      <c r="GA12">
-        <v>32.14</v>
-      </c>
-      <c r="GB12">
-        <v>51.72</v>
-      </c>
-      <c r="GC12">
-        <v>26.32</v>
-      </c>
-      <c r="GD12">
-        <v>48.19</v>
-      </c>
-      <c r="GE12">
-        <v>29.17</v>
-      </c>
-      <c r="GF12">
-        <v>30.86</v>
-      </c>
-      <c r="GG12">
-        <v>62.5</v>
-      </c>
-      <c r="GH12">
-        <v>44.44</v>
       </c>
       <c r="GI12">
         <v>33.33</v>
       </c>
       <c r="GJ12">
-        <v>40.23</v>
+        <v>46.67</v>
       </c>
       <c r="GK12">
+        <v>30</v>
+      </c>
+      <c r="GL12">
+        <v>62.42</v>
+      </c>
+      <c r="GM12">
+        <v>21.05</v>
+      </c>
+      <c r="GN12">
+        <v>33.33</v>
+      </c>
+      <c r="GO12">
+        <v>54.55</v>
+      </c>
+      <c r="GP12">
+        <v>32</v>
+      </c>
+      <c r="GQ12">
+        <v>17.39</v>
+      </c>
+      <c r="GR12">
+        <v>40</v>
+      </c>
+      <c r="GS12">
+        <v>60</v>
+      </c>
+      <c r="GT12">
+        <v>22.24</v>
+      </c>
+      <c r="GU12">
+        <v>29.51</v>
+      </c>
+      <c r="GV12">
+        <v>51.61</v>
+      </c>
+      <c r="GW12">
+        <v>41.3</v>
+      </c>
+      <c r="GX12">
+        <v>50</v>
+      </c>
+      <c r="GY12">
+        <v>44.41</v>
+      </c>
+      <c r="GZ12">
+        <v>31.82</v>
+      </c>
+      <c r="HA12">
+        <v>50</v>
+      </c>
+      <c r="HB12">
+        <v>74.58</v>
+      </c>
+      <c r="HC12">
+        <v>50</v>
+      </c>
+      <c r="HD12">
+        <v>48.9</v>
+      </c>
+      <c r="HE12">
+        <v>22.22</v>
+      </c>
+      <c r="HF12">
+        <v>48.23</v>
+      </c>
+      <c r="HG12">
+        <v>65.09</v>
+      </c>
+      <c r="HH12">
+        <v>66.67</v>
+      </c>
+      <c r="HI12">
+        <v>16.98</v>
+      </c>
+      <c r="HJ12">
+        <v>50</v>
+      </c>
+      <c r="HK12">
+        <v>23.08</v>
+      </c>
+      <c r="HL12">
+        <v>48.39</v>
+      </c>
+      <c r="HM12">
+        <v>61.74</v>
+      </c>
+      <c r="HN12">
+        <v>24.32</v>
+      </c>
+      <c r="HO12">
+        <v>75.47</v>
+      </c>
+      <c r="HP12">
+        <v>50</v>
+      </c>
+      <c r="HQ12">
+        <v>26.32</v>
+      </c>
+      <c r="HR12">
+        <v>47.06</v>
+      </c>
+      <c r="HS12">
+        <v>67.89</v>
+      </c>
+      <c r="HT12">
+        <v>3.1</v>
+      </c>
+      <c r="HU12">
+        <v>41.67</v>
+      </c>
+      <c r="HV12">
+        <v>37.76</v>
+      </c>
+      <c r="HW12">
+        <v>45.45</v>
+      </c>
+      <c r="HX12">
+        <v>43.22</v>
+      </c>
+      <c r="HY12">
+        <v>51.35</v>
+      </c>
+      <c r="HZ12">
+        <v>36.74</v>
+      </c>
+      <c r="IA12">
+        <v>35.71</v>
+      </c>
+      <c r="IB12">
+        <v>63.77</v>
+      </c>
+      <c r="IC12">
+        <v>52.29</v>
+      </c>
+      <c r="ID12">
+        <v>41.38</v>
+      </c>
+      <c r="IE12">
         <v>36.36</v>
       </c>
-      <c r="GL12">
-        <v>63.92</v>
-      </c>
-      <c r="GM12">
-        <v>16.67</v>
-      </c>
-      <c r="GN12">
-        <v>26.67</v>
-      </c>
-      <c r="GO12">
-        <v>57.14</v>
-      </c>
-      <c r="GP12">
-        <v>26.32</v>
-      </c>
-      <c r="GQ12">
-        <v>17.24</v>
-      </c>
-      <c r="GR12">
-        <v>41.88</v>
-      </c>
-      <c r="GS12">
-        <v>61.54</v>
-      </c>
-      <c r="GT12">
-        <v>28</v>
-      </c>
-      <c r="GU12">
-        <v>32.37</v>
-      </c>
-      <c r="GV12">
-        <v>40.11</v>
-      </c>
-      <c r="GW12">
-        <v>37.62</v>
-      </c>
-      <c r="GX12">
-        <v>50</v>
-      </c>
-      <c r="GY12">
-        <v>35.03</v>
-      </c>
-      <c r="GZ12">
-        <v>32.64</v>
-      </c>
-      <c r="HA12">
-        <v>50</v>
-      </c>
-      <c r="HB12">
-        <v>59.46</v>
-      </c>
-      <c r="HC12">
-        <v>50</v>
-      </c>
-      <c r="HD12">
-        <v>52.11</v>
-      </c>
-      <c r="HE12">
-        <v>18.92</v>
-      </c>
-      <c r="HF12">
-        <v>48.39</v>
-      </c>
-      <c r="HG12">
-        <v>68.84</v>
-      </c>
-      <c r="HH12">
-        <v>61.54</v>
-      </c>
-      <c r="HI12">
-        <v>20</v>
-      </c>
-      <c r="HJ12">
-        <v>50</v>
-      </c>
-      <c r="HK12">
-        <v>18.18</v>
-      </c>
-      <c r="HL12">
-        <v>50</v>
-      </c>
-      <c r="HM12">
-        <v>65.71</v>
-      </c>
-      <c r="HN12">
-        <v>23.08</v>
-      </c>
-      <c r="HO12">
-        <v>71.43</v>
-      </c>
-      <c r="HP12">
-        <v>48.39</v>
-      </c>
-      <c r="HQ12">
-        <v>19.35</v>
-      </c>
-      <c r="HR12">
-        <v>47.62</v>
-      </c>
-      <c r="HS12">
-        <v>65.57</v>
-      </c>
-      <c r="HT12">
-        <v>37.78</v>
-      </c>
-      <c r="HU12">
-        <v>37.5</v>
-      </c>
-      <c r="HV12">
-        <v>36.68</v>
-      </c>
-      <c r="HW12">
-        <v>40</v>
-      </c>
-      <c r="HX12">
-        <v>47.76</v>
-      </c>
-      <c r="HY12">
-        <v>55.88</v>
-      </c>
-      <c r="HZ12">
-        <v>42.51</v>
-      </c>
-      <c r="IA12">
-        <v>33.48</v>
-      </c>
-      <c r="IB12">
-        <v>62.5</v>
-      </c>
-      <c r="IC12">
-        <v>54.29</v>
-      </c>
-      <c r="ID12">
-        <v>36.84</v>
-      </c>
-      <c r="IE12">
-        <v>31.25</v>
-      </c>
       <c r="IF12">
-        <v>33.83</v>
+        <v>38.46</v>
       </c>
       <c r="IG12">
-        <v>39.5</v>
+        <v>43.2</v>
       </c>
       <c r="IH12">
-        <v>57.45</v>
+        <v>54.22</v>
       </c>
       <c r="II12">
         <v>40</v>
       </c>
       <c r="IJ12">
-        <v>64.43</v>
+        <v>60.34</v>
       </c>
       <c r="IK12">
-        <v>54.26</v>
+        <v>52.63</v>
       </c>
       <c r="IL12">
-        <v>36.36</v>
+        <v>45</v>
       </c>
       <c r="IM12">
-        <v>43.4</v>
+        <v>47.25</v>
       </c>
       <c r="IN12">
-        <v>48.57</v>
+        <v>47.66</v>
       </c>
       <c r="IO12">
-        <v>76.47</v>
+        <v>73.68</v>
       </c>
       <c r="IP12">
-        <v>45.45</v>
+        <v>42.86</v>
       </c>
       <c r="IQ12">
-        <v>45.39</v>
+        <v>49.36</v>
       </c>
       <c r="IR12">
         <v>50</v>
       </c>
       <c r="IS12">
-        <v>50</v>
+        <v>47.06</v>
       </c>
       <c r="IT12">
-        <v>62.79</v>
+        <v>69.23</v>
       </c>
       <c r="IU12">
         <v>33.33</v>
       </c>
       <c r="IV12">
+        <v>33.33</v>
+      </c>
+      <c r="IW12">
+        <v>47.17</v>
+      </c>
+      <c r="IX12">
+        <v>44.68</v>
+      </c>
+      <c r="IY12">
+        <v>44.44</v>
+      </c>
+      <c r="IZ12">
         <v>31.58</v>
       </c>
-      <c r="IW12">
-        <v>46.88</v>
-      </c>
-      <c r="IX12">
-        <v>48.28</v>
-      </c>
-      <c r="IY12">
-        <v>46.15</v>
-      </c>
-      <c r="IZ12">
-        <v>26.47</v>
-      </c>
       <c r="JA12">
-        <v>23.08</v>
+        <v>27.78</v>
       </c>
       <c r="JB12">
-        <v>48.28</v>
+        <v>54.55</v>
       </c>
       <c r="JC12">
-        <v>82.3</v>
+        <v>79.17</v>
       </c>
       <c r="JD12">
-        <v>56.25</v>
+        <v>64.52</v>
       </c>
       <c r="JE12">
-        <v>25.68</v>
+        <v>28.45</v>
       </c>
       <c r="JF12">
         <v>61.54</v>
       </c>
       <c r="JG12">
-        <v>47.12</v>
+        <v>52.75</v>
       </c>
       <c r="JH12">
-        <v>32.35</v>
+        <v>37.46</v>
       </c>
       <c r="JI12">
-        <v>38.94</v>
+        <v>35.19</v>
       </c>
       <c r="JJ12">
-        <v>48.65</v>
+        <v>44.44</v>
       </c>
       <c r="JK12">
-        <v>15.63</v>
+        <v>17.7</v>
       </c>
       <c r="JL12">
-        <v>48.08</v>
+        <v>52.63</v>
       </c>
       <c r="JM12">
-        <v>47.37</v>
+        <v>60</v>
       </c>
       <c r="JN12">
-        <v>10.14</v>
+        <v>11.11</v>
       </c>
       <c r="JO12">
         <v>33.33</v>
       </c>
       <c r="JP12">
-        <v>29.41</v>
+        <v>25.32</v>
       </c>
       <c r="JQ12">
-        <v>57.28</v>
+        <v>61.25</v>
       </c>
       <c r="JR12">
-        <v>57.14</v>
+        <v>54.55</v>
       </c>
       <c r="JS12">
-        <v>11.29</v>
+        <v>14.29</v>
       </c>
       <c r="JT12">
-        <v>38.46</v>
+        <v>40</v>
       </c>
       <c r="JU12">
-        <v>39.56</v>
+        <v>37.97</v>
       </c>
       <c r="JV12">
-        <v>53.73</v>
+        <v>60</v>
       </c>
       <c r="JW12">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="JX12">
         <v>13.64</v>
       </c>
       <c r="JY12">
-        <v>45.13</v>
+        <v>44.19</v>
       </c>
       <c r="JZ12">
-        <v>25</v>
+        <v>30.77</v>
       </c>
       <c r="KA12">
-        <v>45.28</v>
+        <v>43.48</v>
       </c>
       <c r="KB12">
         <v>40</v>
@@ -11262,40 +11262,40 @@
         <v>30.77</v>
       </c>
       <c r="KE12">
-        <v>42.91</v>
+        <v>42.46</v>
       </c>
       <c r="KF12">
-        <v>42.86</v>
+        <v>38.46</v>
       </c>
       <c r="KG12">
-        <v>48.48</v>
+        <v>54.55</v>
       </c>
       <c r="KH12">
-        <v>36.36</v>
+        <v>47.06</v>
       </c>
       <c r="KI12">
-        <v>38.89</v>
+        <v>40</v>
       </c>
       <c r="KJ12">
-        <v>30.56</v>
+        <v>31.43</v>
       </c>
       <c r="KK12">
-        <v>60.61</v>
+        <v>56.25</v>
       </c>
       <c r="KL12">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="KM12">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="KN12">
         <v>60</v>
       </c>
       <c r="KO12">
-        <v>27.56</v>
+        <v>26.75</v>
       </c>
       <c r="KP12">
-        <v>41.26</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="13">
@@ -13119,907 +13119,907 @@
         <v>14/10/2025</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>46.15</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>63.16</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>42.21</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>46.87</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>50.49</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>54.05</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.26</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>47.37</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>42.54</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>55.05</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>18.44</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>47.89</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>25.06</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>22.63</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>37.21</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>38.46</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>49.25</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>44.24</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>28.72</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>38.91</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>47.06</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>60.87</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>54.05</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>39.2</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>29.41</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>38.71</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>24.64</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>32.39</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>40.98</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>16.81</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>35.29</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>42.92</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>47.62</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>52.79</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>59.44</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>62.65</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>75.68</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>21.21</v>
       </c>
       <c r="BF15">
-        <v>0</v>
+        <v>40.54</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>46.15</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>58.67</v>
       </c>
       <c r="BK15">
-        <v>0</v>
+        <v>56.82</v>
       </c>
       <c r="BL15">
-        <v>0</v>
+        <v>61.54</v>
       </c>
       <c r="BM15">
-        <v>0</v>
+        <v>22.54</v>
       </c>
       <c r="BN15">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="BO15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BP15">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="BQ15">
-        <v>0</v>
+        <v>46.77</v>
       </c>
       <c r="BR15">
-        <v>0</v>
+        <v>59.39</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>60.14</v>
       </c>
       <c r="BT15">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="BU15">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="BV15">
-        <v>0</v>
+        <v>38.46</v>
       </c>
       <c r="BW15">
-        <v>0</v>
+        <v>44.86</v>
       </c>
       <c r="BX15">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="BY15">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="BZ15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CA15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="CB15">
-        <v>0</v>
+        <v>82.22</v>
       </c>
       <c r="CC15">
-        <v>0</v>
+        <v>18.52</v>
       </c>
       <c r="CD15">
-        <v>0</v>
+        <v>61.68</v>
       </c>
       <c r="CE15">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="CF15">
-        <v>0</v>
+        <v>37.04</v>
       </c>
       <c r="CG15">
-        <v>0</v>
+        <v>53.89</v>
       </c>
       <c r="CH15">
-        <v>0</v>
+        <v>31.03</v>
       </c>
       <c r="CI15">
-        <v>0</v>
+        <v>68.56</v>
       </c>
       <c r="CJ15">
-        <v>0</v>
+        <v>31.58</v>
       </c>
       <c r="CK15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="CL15">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="CM15">
-        <v>0</v>
+        <v>27.56</v>
       </c>
       <c r="CN15">
-        <v>0</v>
+        <v>44.72</v>
       </c>
       <c r="CO15">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="CP15">
-        <v>0</v>
+        <v>50.91</v>
       </c>
       <c r="CQ15">
-        <v>0</v>
+        <v>40.61</v>
       </c>
       <c r="CR15">
-        <v>0</v>
+        <v>22.22</v>
       </c>
       <c r="CS15">
-        <v>0</v>
+        <v>16.22</v>
       </c>
       <c r="CT15">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="CU15">
-        <v>0</v>
+        <v>52.94</v>
       </c>
       <c r="CV15">
-        <v>0</v>
+        <v>60.61</v>
       </c>
       <c r="CW15">
-        <v>0</v>
+        <v>41.03</v>
       </c>
       <c r="CX15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CY15">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="CZ15">
-        <v>0</v>
+        <v>68.97</v>
       </c>
       <c r="DA15">
-        <v>0</v>
+        <v>37.21</v>
       </c>
       <c r="DB15">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="DC15">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="DD15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="DE15">
-        <v>0</v>
+        <v>19.27</v>
       </c>
       <c r="DF15">
-        <v>0</v>
+        <v>60.75</v>
       </c>
       <c r="DG15">
-        <v>0</v>
+        <v>35.71</v>
       </c>
       <c r="DH15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DI15">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="DJ15">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="DK15">
-        <v>0</v>
+        <v>58.06</v>
       </c>
       <c r="DL15">
-        <v>0</v>
+        <v>21.13</v>
       </c>
       <c r="DM15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="DN15">
-        <v>0</v>
+        <v>49.54</v>
       </c>
       <c r="DO15">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="DP15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DQ15">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="DR15">
-        <v>0</v>
+        <v>10.43</v>
       </c>
       <c r="DS15">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="DT15">
-        <v>0</v>
+        <v>42.98</v>
       </c>
       <c r="DU15">
-        <v>0</v>
+        <v>42.64</v>
       </c>
       <c r="DV15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="DW15">
-        <v>0</v>
+        <v>23.91</v>
       </c>
       <c r="DX15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DY15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DZ15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="EA15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EB15">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="EC15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="ED15">
-        <v>0</v>
+        <v>49.67</v>
       </c>
       <c r="EE15">
-        <v>0</v>
+        <v>44.64</v>
       </c>
       <c r="EF15">
-        <v>0</v>
+        <v>40.54</v>
       </c>
       <c r="EG15">
-        <v>0</v>
+        <v>58.82</v>
       </c>
       <c r="EH15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EI15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EJ15">
-        <v>0</v>
+        <v>24.24</v>
       </c>
       <c r="EK15">
-        <v>0</v>
+        <v>56.34</v>
       </c>
       <c r="EL15">
-        <v>0</v>
+        <v>51.22</v>
       </c>
       <c r="EM15">
-        <v>0</v>
+        <v>60.87</v>
       </c>
       <c r="EN15">
-        <v>0</v>
+        <v>35.71</v>
       </c>
       <c r="EO15">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="EP15">
-        <v>0</v>
+        <v>29.35</v>
       </c>
       <c r="EQ15">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="ER15">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="ES15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="ET15">
-        <v>0</v>
+        <v>38.46</v>
       </c>
       <c r="EU15">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="EV15">
-        <v>0</v>
+        <v>52.17</v>
       </c>
       <c r="EW15">
-        <v>0</v>
+        <v>42.75</v>
       </c>
       <c r="EX15">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="EY15">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="EZ15">
-        <v>0</v>
+        <v>53.51</v>
       </c>
       <c r="FA15">
-        <v>0</v>
+        <v>35.71</v>
       </c>
       <c r="FB15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="FC15">
-        <v>0</v>
+        <v>53.99</v>
       </c>
       <c r="FD15">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="FE15">
-        <v>0</v>
+        <v>59.01</v>
       </c>
       <c r="FF15">
-        <v>0</v>
+        <v>63.83</v>
       </c>
       <c r="FG15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="FH15">
-        <v>0</v>
+        <v>35.59</v>
       </c>
       <c r="FI15">
-        <v>0</v>
+        <v>45.45</v>
       </c>
       <c r="FJ15">
-        <v>0</v>
+        <v>29.63</v>
       </c>
       <c r="FK15">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="FL15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="FM15">
-        <v>0</v>
+        <v>42.11</v>
       </c>
       <c r="FN15">
-        <v>0</v>
+        <v>75.81</v>
       </c>
       <c r="FO15">
-        <v>0</v>
+        <v>48.44</v>
       </c>
       <c r="FP15">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="FQ15">
-        <v>0</v>
+        <v>45.76</v>
       </c>
       <c r="FR15">
-        <v>0</v>
+        <v>44.12</v>
       </c>
       <c r="FS15">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="FT15">
-        <v>0</v>
+        <v>45.83</v>
       </c>
       <c r="FU15">
-        <v>0</v>
+        <v>60.22</v>
       </c>
       <c r="FV15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="FW15">
-        <v>0</v>
+        <v>29.94</v>
       </c>
       <c r="FX15">
-        <v>0</v>
+        <v>5.71</v>
       </c>
       <c r="FY15">
-        <v>0</v>
+        <v>34.78</v>
       </c>
       <c r="FZ15">
-        <v>0</v>
+        <v>43.08</v>
       </c>
       <c r="GA15">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="GB15">
-        <v>0</v>
+        <v>51.72</v>
       </c>
       <c r="GC15">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="GD15">
-        <v>0</v>
+        <v>31.02</v>
       </c>
       <c r="GE15">
-        <v>0</v>
+        <v>49.45</v>
       </c>
       <c r="GF15">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="GG15">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="GH15">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="GI15">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="GJ15">
-        <v>0</v>
+        <v>55.56</v>
       </c>
       <c r="GK15">
-        <v>0</v>
+        <v>34.38</v>
       </c>
       <c r="GL15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="GM15">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="GN15">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="GO15">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="GP15">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="GQ15">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="GR15">
-        <v>0</v>
+        <v>68.48</v>
       </c>
       <c r="GS15">
-        <v>0</v>
+        <v>61.54</v>
       </c>
       <c r="GT15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="GU15">
-        <v>0</v>
+        <v>47.06</v>
       </c>
       <c r="GV15">
-        <v>0</v>
+        <v>38.57</v>
       </c>
       <c r="GW15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="GX15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GY15">
-        <v>0</v>
+        <v>39.69</v>
       </c>
       <c r="GZ15">
-        <v>0</v>
+        <v>26.23</v>
       </c>
       <c r="HA15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HB15">
-        <v>0</v>
+        <v>69.33</v>
       </c>
       <c r="HC15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HD15">
-        <v>0</v>
+        <v>38.55</v>
       </c>
       <c r="HE15">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="HF15">
-        <v>0</v>
+        <v>52.34</v>
       </c>
       <c r="HG15">
-        <v>0</v>
+        <v>71.54</v>
       </c>
       <c r="HH15">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="HI15">
-        <v>0</v>
+        <v>16.85</v>
       </c>
       <c r="HJ15">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="HK15">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="HL15">
-        <v>0</v>
+        <v>58.72</v>
       </c>
       <c r="HM15">
-        <v>0</v>
+        <v>58.82</v>
       </c>
       <c r="HN15">
-        <v>0</v>
+        <v>29.91</v>
       </c>
       <c r="HO15">
-        <v>0</v>
+        <v>55.81</v>
       </c>
       <c r="HP15">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="HQ15">
-        <v>0</v>
+        <v>32.43</v>
       </c>
       <c r="HR15">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="HS15">
-        <v>0</v>
+        <v>49.03</v>
       </c>
       <c r="HT15">
-        <v>0</v>
+        <v>40.86</v>
       </c>
       <c r="HU15">
-        <v>0</v>
+        <v>34.15</v>
       </c>
       <c r="HV15">
-        <v>0</v>
+        <v>24.69</v>
       </c>
       <c r="HW15">
-        <v>0</v>
+        <v>52.08</v>
       </c>
       <c r="HX15">
-        <v>0</v>
+        <v>35.58</v>
       </c>
       <c r="HY15">
-        <v>0</v>
+        <v>63.38</v>
       </c>
       <c r="HZ15">
-        <v>0</v>
+        <v>48.04</v>
       </c>
       <c r="IA15">
-        <v>0</v>
+        <v>35.79</v>
       </c>
       <c r="IB15">
-        <v>0</v>
+        <v>55.56</v>
       </c>
       <c r="IC15">
-        <v>0</v>
+        <v>61.29</v>
       </c>
       <c r="ID15">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="IE15">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="IF15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="IG15">
-        <v>0</v>
+        <v>41.19</v>
       </c>
       <c r="IH15">
-        <v>0</v>
+        <v>66.04</v>
       </c>
       <c r="II15">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="IJ15">
-        <v>0</v>
+        <v>59.57</v>
       </c>
       <c r="IK15">
-        <v>0</v>
+        <v>40.74</v>
       </c>
       <c r="IL15">
-        <v>0</v>
+        <v>27.59</v>
       </c>
       <c r="IM15">
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="IN15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="IO15">
-        <v>0</v>
+        <v>69.57</v>
       </c>
       <c r="IP15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="IQ15">
-        <v>0</v>
+        <v>38.64</v>
       </c>
       <c r="IR15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="IS15">
-        <v>0</v>
+        <v>52.94</v>
       </c>
       <c r="IT15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="IU15">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="IV15">
-        <v>0</v>
+        <v>31.58</v>
       </c>
       <c r="IW15">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="IX15">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="IY15">
-        <v>0</v>
+        <v>50.49</v>
       </c>
       <c r="IZ15">
-        <v>0</v>
+        <v>35.06</v>
       </c>
       <c r="JA15">
-        <v>0</v>
+        <v>30.61</v>
       </c>
       <c r="JB15">
-        <v>0</v>
+        <v>46.15</v>
       </c>
       <c r="JC15">
-        <v>0</v>
+        <v>83.1</v>
       </c>
       <c r="JD15">
-        <v>0</v>
+        <v>54.62</v>
       </c>
       <c r="JE15">
-        <v>0</v>
+        <v>28.38</v>
       </c>
       <c r="JF15">
-        <v>0</v>
+        <v>72.31</v>
       </c>
       <c r="JG15">
-        <v>0</v>
+        <v>26.76</v>
       </c>
       <c r="JH15">
-        <v>0</v>
+        <v>18.82</v>
       </c>
       <c r="JI15">
-        <v>0</v>
+        <v>40.52</v>
       </c>
       <c r="JJ15">
-        <v>0</v>
+        <v>50.65</v>
       </c>
       <c r="JK15">
-        <v>0</v>
+        <v>11.54</v>
       </c>
       <c r="JL15">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="JM15">
-        <v>0</v>
+        <v>21.74</v>
       </c>
       <c r="JN15">
-        <v>0</v>
+        <v>33.71</v>
       </c>
       <c r="JO15">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="JP15">
-        <v>0</v>
+        <v>35.09</v>
       </c>
       <c r="JQ15">
-        <v>0</v>
+        <v>62.92</v>
       </c>
       <c r="JR15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="JS15">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="JT15">
-        <v>0</v>
+        <v>38.46</v>
       </c>
       <c r="JU15">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="JV15">
-        <v>0</v>
+        <v>52.07</v>
       </c>
       <c r="JW15">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="JX15">
-        <v>0</v>
+        <v>12.82</v>
       </c>
       <c r="JY15">
-        <v>0</v>
+        <v>24.51</v>
       </c>
       <c r="JZ15">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="KA15">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="KB15">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="KC15">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="KD15">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="KE15">
-        <v>0</v>
+        <v>76.15</v>
       </c>
       <c r="KF15">
-        <v>0</v>
+        <v>47.37</v>
       </c>
       <c r="KG15">
-        <v>0</v>
+        <v>57.85</v>
       </c>
       <c r="KH15">
-        <v>0</v>
+        <v>45.9</v>
       </c>
       <c r="KI15">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="KJ15">
-        <v>0</v>
+        <v>36.55</v>
       </c>
       <c r="KK15">
-        <v>0</v>
+        <v>51.13</v>
       </c>
       <c r="KL15">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="KM15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="KN15">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="KO15">
-        <v>0</v>
+        <v>21.54</v>
       </c>
       <c r="KP15">
-        <v>0</v>
+        <v>28.41</v>
       </c>
     </row>
   </sheetData>
